--- a/Proyectos/23-010_TAYARA_Nave/01_Hojas de calculo/23-010_HC_ANALISIS DE VIENTO_R00_V00.xlsx
+++ b/Proyectos/23-010_TAYARA_Nave/01_Hojas de calculo/23-010_HC_ANALISIS DE VIENTO_R00_V00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sigma\23-010_TAYARA_Nave\01_Hojas de calculo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sigma\Proyectos\23-010_TAYARA_Nave\01_Hojas de calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB44BB8-C6DB-460D-8E79-F49B7F17FECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137E4F04-C9AD-42A1-95F1-83C680879384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SE-Cat B TR=50" sheetId="4" r:id="rId1"/>
@@ -26,20 +26,32 @@
     <definedName name="g">#REF!</definedName>
     <definedName name="h">#REF!</definedName>
     <definedName name="pend">#REF!</definedName>
+    <definedName name="qh">'SE-Cat B TR=25'!$D$33</definedName>
     <definedName name="t">#REF!</definedName>
     <definedName name="u">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="146">
   <si>
     <t>0-5</t>
   </si>
@@ -54,9 +66,6 @@
   </si>
   <si>
     <t>Cumbrera</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>Categoría</t>
@@ -445,9 +454,6 @@
     <t>Tabla 7</t>
   </si>
   <si>
-    <t>3,77º</t>
-  </si>
-  <si>
     <t>P/ ciudad de Fontana.</t>
   </si>
   <si>
@@ -463,9 +469,6 @@
     <t>Zona 1</t>
   </si>
   <si>
-    <t>P/ ciudad de Fontana con TR=25 años,</t>
-  </si>
-  <si>
     <t>Ag</t>
   </si>
   <si>
@@ -485,6 +488,24 @@
   </si>
   <si>
     <t>Pd</t>
+  </si>
+  <si>
+    <t>3,81º</t>
+  </si>
+  <si>
+    <t>P/ ciudad de Fontana con TR=25 años.</t>
+  </si>
+  <si>
+    <t>pend</t>
+  </si>
+  <si>
+    <t>Lr</t>
+  </si>
+  <si>
+    <t>Wcorreas</t>
+  </si>
+  <si>
+    <t>Área</t>
   </si>
 </sst>
 </file>
@@ -530,7 +551,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -588,6 +609,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66FF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1010,46 +1037,205 @@
     <xf numFmtId="2" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1070,108 +1256,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1187,56 +1271,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1275,8 +1320,8 @@
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3192780" cy="266700"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -1654,7 +1699,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -1778,8 +1823,8 @@
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3040380" cy="226783"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -1913,7 +1958,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -2990,42 +3035,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB67DB9-8AB6-4155-B273-EF7216B1EE19}">
   <dimension ref="A1:W140"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
-    <col min="7" max="9" width="11.5703125" style="1"/>
-    <col min="10" max="10" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.5703125" style="1"/>
+    <col min="5" max="5" width="16.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="1" customWidth="1"/>
+    <col min="7" max="9" width="11.5546875" style="1"/>
+    <col min="10" max="10" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
-    </row>
-    <row r="2" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="90"/>
-    </row>
-    <row r="3" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="140"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="141"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="143"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3041,11 +3086,11 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="125" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="126"/>
+    <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="144" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="145"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3059,9 +3104,9 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="54">
         <v>12</v>
@@ -3079,9 +3124,9 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="54">
         <v>30</v>
@@ -3099,326 +3144,327 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="7">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="7">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="7">
-        <v>5.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="54">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="55">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="127" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="129"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="146" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="146"/>
+      <c r="C14" s="147" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="148"/>
+    </row>
+    <row r="15" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="54">
         <v>45</v>
       </c>
-      <c r="C15" s="121" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="122"/>
+      <c r="C15" s="130" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="131"/>
       <c r="I15" s="59" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A16" s="61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="55">
         <v>0.85</v>
       </c>
-      <c r="C16" s="121" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="122"/>
+      <c r="C16" s="130" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="131"/>
       <c r="I16" s="59" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="56">
         <v>1</v>
       </c>
-      <c r="C17" s="121" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="122"/>
+      <c r="C17" s="130" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="131"/>
       <c r="I17" s="59" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="C18" s="130" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="131"/>
+      <c r="I18" s="59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="61" t="s">
         <v>7</v>
-      </c>
-      <c r="C18" s="121" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" s="122"/>
-      <c r="I18" s="59" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="61" t="s">
-        <v>8</v>
       </c>
       <c r="B19" s="55">
         <v>1</v>
       </c>
-      <c r="C19" s="121" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="122"/>
+      <c r="C19" s="130" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="131"/>
       <c r="I19" s="59" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="123" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="124"/>
+      <c r="D20" s="133"/>
       <c r="I20" s="59">
         <v>5.6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="118" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="120"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="134" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="135"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="136"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="98" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98" t="s">
+      <c r="E28" s="83"/>
+      <c r="I28" s="59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="137" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="137"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="79"/>
+      <c r="B30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="6" t="str">
+        <f>B20</f>
+        <v>B</v>
+      </c>
+      <c r="D30" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="98"/>
-      <c r="I28" s="59" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="94" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="117" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="117"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="94"/>
-      <c r="B30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="94"/>
-    </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="79"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="53">
-        <v>0.87</v>
-      </c>
-      <c r="D31" s="99">
+      <c r="C31" s="54">
+        <v>0.59</v>
+      </c>
+      <c r="D31" s="118">
         <f>0.613*C31*$B$17*$B$16*$B$15^2*$B$19</f>
-        <v>917.95983749999982</v>
-      </c>
-      <c r="E31" s="99"/>
-    </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>622.52448750000008</v>
+      </c>
+      <c r="E31" s="118"/>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="7">
         <v>6.4</v>
       </c>
-      <c r="C32" s="53">
-        <v>0.91100000000000003</v>
-      </c>
-      <c r="D32" s="99">
+      <c r="C32" s="54">
+        <v>0.63</v>
+      </c>
+      <c r="D32" s="118">
         <f t="shared" ref="D32:D35" si="0">0.613*C32*$B$17*$B$16*$B$15^2*$B$19</f>
-        <v>961.22001375000002</v>
-      </c>
-      <c r="E32" s="99"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>664.72953749999999</v>
+      </c>
+      <c r="E32" s="118"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="7">
         <f>B8</f>
-        <v>5.05</v>
-      </c>
-      <c r="C33" s="53">
-        <v>0.59</v>
-      </c>
-      <c r="D33" s="99">
+        <v>7.2</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="D33" s="118">
         <f t="shared" si="0"/>
-        <v>622.52448750000008</v>
-      </c>
-      <c r="E33" s="99"/>
+        <v>685.83206250000001</v>
+      </c>
+      <c r="E33" s="118"/>
       <c r="F33" s="62" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="7">
         <v>7.57</v>
       </c>
-      <c r="C34" s="53">
+      <c r="C34" s="7">
         <v>0.94</v>
       </c>
-      <c r="D34" s="99">
+      <c r="D34" s="118">
         <f t="shared" si="0"/>
         <v>991.81867499999998</v>
       </c>
-      <c r="E34" s="99"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E34" s="118"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="7">
         <v>7.6</v>
       </c>
-      <c r="C35" s="53">
+      <c r="C35" s="7">
         <v>0.66</v>
       </c>
-      <c r="D35" s="99">
+      <c r="D35" s="118">
         <f t="shared" si="0"/>
         <v>696.38332500000001</v>
       </c>
-      <c r="E35" s="99"/>
-    </row>
-    <row r="36" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="100" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="101"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="102"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E35" s="118"/>
+    </row>
+    <row r="36" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="119" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="120"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="121"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -3427,7 +3473,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -3436,7 +3482,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -3445,47 +3491,47 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="103" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="122"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="122"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="103"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
+      <c r="B43" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="C43" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="96" t="s">
+      <c r="D43" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="94" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="96"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="C44" s="86"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="31">
         <f>B8</f>
-        <v>5.05</v>
+        <v>7.2</v>
       </c>
       <c r="B45" s="31">
         <f>B5</f>
@@ -3493,7 +3539,7 @@
       </c>
       <c r="C45" s="27">
         <f>+A45/B45</f>
-        <v>0.42083333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="D45" s="31" t="str">
         <f>+IF(C45&lt;1.4, "Rígida", "Flexible")</f>
@@ -3504,266 +3550,266 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="98" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="83"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+      <c r="I47" s="59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="123" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="124"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="98"/>
-      <c r="C47" s="98"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="98"/>
-      <c r="I47" s="59" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="106" t="s">
+      <c r="E48" s="73"/>
+      <c r="F48" s="39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="126" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="127"/>
+      <c r="D49" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="107"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" s="109"/>
-      <c r="F48" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="110" t="s">
+      <c r="B50" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="111"/>
-      <c r="D49" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="112" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="113"/>
+      <c r="C50" s="129"/>
       <c r="D50" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E50" s="34">
         <v>0.8</v>
       </c>
       <c r="F50" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="107" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="108"/>
+      <c r="D51" s="31">
+        <f>B6/B5</f>
+        <v>2.5</v>
+      </c>
+      <c r="E51" s="7">
+        <v>-0.3</v>
+      </c>
+      <c r="F51" s="116" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="91" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="73" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="82"/>
+      <c r="B52" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="74"/>
-      <c r="D51" s="31">
-        <f>B11/B12</f>
-        <v>1</v>
-      </c>
-      <c r="E51" s="7">
-        <v>-0.27500000000000002</v>
-      </c>
-      <c r="F51" s="71" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="92"/>
-      <c r="B52" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="74"/>
+      <c r="C52" s="108"/>
       <c r="D52" s="31">
         <f>1/D51</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E52" s="7">
         <v>-0.5</v>
       </c>
-      <c r="F52" s="72"/>
-    </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="117"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="108"/>
+      <c r="D53" s="31" t="s">
         <v>28</v>
-      </c>
-      <c r="B53" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="74"/>
-      <c r="D53" s="31" t="s">
-        <v>29</v>
       </c>
       <c r="E53" s="7">
         <v>-0.7</v>
       </c>
       <c r="F53" s="31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="114" t="s">
-        <v>132</v>
-      </c>
-      <c r="B55" s="115"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="115"/>
-      <c r="E55" s="116"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="109" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="110"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="111"/>
       <c r="I55" s="59" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="80" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="112" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="80" t="s">
+      <c r="C56" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="82" t="s">
+      <c r="D56" s="114"/>
+      <c r="E56" s="115"/>
+    </row>
+    <row r="57" spans="1:9" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="84"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="113" t="str">
+        <f>B9</f>
+        <v>3,81º</v>
+      </c>
+      <c r="D57" s="114"/>
+      <c r="E57" s="115"/>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="90">
+        <f>B8/B5</f>
+        <v>0.6</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="102">
+        <v>-0.9</v>
+      </c>
+      <c r="E58" s="103"/>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="82"/>
+      <c r="B59" s="92"/>
+      <c r="C59" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="102">
+        <v>-0.5</v>
+      </c>
+      <c r="E59" s="103"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="83"/>
-      <c r="E56" s="84"/>
-    </row>
-    <row r="57" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="81"/>
-      <c r="B57" s="81"/>
-      <c r="C57" s="82" t="str">
-        <f>B9</f>
-        <v>3,77º</v>
-      </c>
-      <c r="D57" s="83"/>
-      <c r="E57" s="84"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="91" t="s">
+      <c r="B61" s="83"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="83"/>
+      <c r="I61" s="59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="79"/>
+      <c r="B63" s="79"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="104">
-        <f>B8/B5</f>
-        <v>0.42083333333333334</v>
-      </c>
-      <c r="C58" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" s="78">
-        <v>-0.9</v>
-      </c>
-      <c r="E58" s="79"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="92"/>
-      <c r="B59" s="105"/>
-      <c r="C59" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="78">
-        <v>-0.5</v>
-      </c>
-      <c r="E59" s="79"/>
-    </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="98" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="98"/>
-      <c r="C61" s="98"/>
-      <c r="D61" s="98"/>
-      <c r="E61" s="98"/>
-      <c r="F61" s="98"/>
-      <c r="I61" s="59" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="B62" s="94" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" s="94" t="s">
+      <c r="B64" s="105">
+        <f>B8/B6</f>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="C64" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="94"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="94" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="94"/>
-      <c r="B63" s="94"/>
-      <c r="C63" s="94"/>
-      <c r="D63" s="94"/>
-      <c r="E63" s="94"/>
-      <c r="F63" s="94"/>
-    </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="75" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="76">
-        <f>B8/B6</f>
-        <v>0.16833333333333333</v>
-      </c>
-      <c r="C64" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77"/>
+      <c r="D64" s="106"/>
+      <c r="E64" s="106"/>
       <c r="F64" s="54">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="75"/>
-      <c r="B65" s="76"/>
-      <c r="C65" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="D65" s="77"/>
-      <c r="E65" s="77"/>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="104"/>
+      <c r="B65" s="105"/>
+      <c r="C65" s="106" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="106"/>
+      <c r="E65" s="106"/>
       <c r="F65" s="54">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="75"/>
-      <c r="B66" s="76"/>
-      <c r="C66" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="D66" s="77"/>
-      <c r="E66" s="77"/>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="104"/>
+      <c r="B66" s="105"/>
+      <c r="C66" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="106"/>
+      <c r="E66" s="106"/>
       <c r="F66" s="54">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="49"/>
       <c r="C67" s="3"/>
@@ -3771,81 +3817,81 @@
       <c r="E67" s="3"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="98" t="s">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" s="83"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+    </row>
+    <row r="69" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A69" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="B68" s="98"/>
-      <c r="C68" s="98"/>
-      <c r="D68" s="98"/>
-      <c r="E68" s="98"/>
-      <c r="F68" s="98"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B69" s="140" t="s">
-        <v>108</v>
-      </c>
-      <c r="C69" s="140"/>
-      <c r="D69" s="140"/>
-      <c r="E69" s="140"/>
-      <c r="F69" s="140"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="99"/>
       <c r="I69" s="59" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71" s="100"/>
+      <c r="C71" s="100"/>
+      <c r="D71" s="100"/>
+      <c r="E71" s="100"/>
+      <c r="F71" s="100"/>
+    </row>
+    <row r="72" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="B71" s="93"/>
-      <c r="C71" s="93"/>
-      <c r="D71" s="93"/>
-      <c r="E71" s="93"/>
-      <c r="F71" s="93"/>
-    </row>
-    <row r="72" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="81" t="s">
+      <c r="D72" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="95" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" s="95" t="s">
+      <c r="E72" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="D72" s="97" t="s">
-        <v>32</v>
-      </c>
-      <c r="E72" s="81" t="s">
+      <c r="F72" s="84"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="79"/>
+      <c r="B73" s="86"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F72" s="81"/>
-    </row>
-    <row r="73" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="94"/>
-      <c r="B73" s="96"/>
-      <c r="C73" s="96"/>
-      <c r="D73" s="81"/>
-      <c r="E73" s="25" t="s">
+      <c r="F73" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F73" s="25" t="s">
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="31" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="B74" s="31" t="s">
-        <v>56</v>
       </c>
       <c r="C74" s="27">
         <f>D31</f>
-        <v>917.95983749999982</v>
+        <v>622.52448750000008</v>
       </c>
       <c r="D74" s="27">
         <f>E50</f>
@@ -3853,22 +3899,22 @@
       </c>
       <c r="E74" s="27">
         <f>+(C74*0.85*D74)-(J80*0.18)</f>
-        <v>512.1582817499999</v>
+        <v>299.86688025000012</v>
       </c>
       <c r="F74" s="27">
         <f t="shared" ref="F74:F79" si="1">+(C74*0.85*D74)-($J$80*-0.18)</f>
-        <v>736.26709724999989</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="92"/>
+        <v>546.76642275000006</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="82"/>
       <c r="B75" s="31">
-        <f>B32</f>
-        <v>6.4</v>
+        <f>B35</f>
+        <v>7.6</v>
       </c>
       <c r="C75" s="27">
-        <f>D32</f>
-        <v>961.22001375000002</v>
+        <f>D35</f>
+        <v>696.38332500000001</v>
       </c>
       <c r="D75" s="27">
         <f>E50</f>
@@ -3876,23 +3922,23 @@
       </c>
       <c r="E75" s="27">
         <f>+(C75*0.85*D75)-(J80*0.18)</f>
-        <v>541.57520160000001</v>
+        <v>350.09088974999997</v>
       </c>
       <c r="F75" s="27">
         <f t="shared" si="1"/>
-        <v>765.68401710000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>596.99043225000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C76" s="27">
         <f>$D$33</f>
-        <v>622.52448750000008</v>
+        <v>685.83206250000001</v>
       </c>
       <c r="D76" s="27">
         <f>E52</f>
@@ -3900,23 +3946,23 @@
       </c>
       <c r="E76" s="27">
         <f>+(C76*0.85*D76)-(J80*0.18)</f>
-        <v>-376.62731493750005</v>
+        <v>-414.92839781249995</v>
       </c>
       <c r="F76" s="27">
         <f t="shared" si="1"/>
-        <v>-152.51849943750005</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-168.02885531249999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C77" s="27">
         <f t="shared" ref="C77:C79" si="2">$D$33</f>
-        <v>622.52448750000008</v>
+        <v>685.83206250000001</v>
       </c>
       <c r="D77" s="27">
         <f>E53</f>
@@ -3924,23 +3970,23 @@
       </c>
       <c r="E77" s="27">
         <f>+(C77*0.85*D77)-(J80*0.18)</f>
-        <v>-482.45647781250005</v>
+        <v>-531.51984843749995</v>
       </c>
       <c r="F77" s="27">
         <f t="shared" si="1"/>
-        <v>-258.34766231250006</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="91" t="s">
+        <v>-284.62030593750001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="81" t="s">
         <v>3</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C78" s="27">
         <f t="shared" si="2"/>
-        <v>622.52448750000008</v>
+        <v>685.83206250000001</v>
       </c>
       <c r="D78" s="27">
         <f>D58</f>
@@ -3948,21 +3994,21 @@
       </c>
       <c r="E78" s="27">
         <f>+(C78*0.85*D78)-($J$80*0.18)</f>
-        <v>-588.28564068750018</v>
+        <v>-648.11129906250005</v>
       </c>
       <c r="F78" s="27">
         <f t="shared" si="1"/>
-        <v>-364.17682518750013</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="92"/>
+        <v>-401.2117565625</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="82"/>
       <c r="B79" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C79" s="27">
         <f t="shared" si="2"/>
-        <v>622.52448750000008</v>
+        <v>685.83206250000001</v>
       </c>
       <c r="D79" s="27">
         <f>D59</f>
@@ -3970,65 +4016,65 @@
       </c>
       <c r="E79" s="27">
         <f>+(C79*0.85*D79)-($J$80*0.18)</f>
-        <v>-376.62731493750005</v>
+        <v>-414.92839781249995</v>
       </c>
       <c r="F79" s="27">
         <f t="shared" si="1"/>
-        <v>-152.51849943750005</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="18" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>-168.02885531249999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I80" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J80" s="36">
         <f>D33</f>
-        <v>622.52448750000008</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="98" t="s">
-        <v>58</v>
-      </c>
-      <c r="B81" s="98"/>
-      <c r="C81" s="98"/>
-      <c r="D81" s="98"/>
-      <c r="E81" s="98"/>
-      <c r="F81" s="98"/>
-    </row>
-    <row r="82" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="81" t="s">
+        <v>685.83206250000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="B81" s="83"/>
+      <c r="C81" s="83"/>
+      <c r="D81" s="83"/>
+      <c r="E81" s="83"/>
+      <c r="F81" s="83"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="B82" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="C82" s="95" t="s">
+      <c r="E82" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="D82" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E82" s="144" t="s">
+      <c r="F82" s="88"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="79"/>
+      <c r="B83" s="86"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F82" s="145"/>
-    </row>
-    <row r="83" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="94"/>
-      <c r="B83" s="96"/>
-      <c r="C83" s="96"/>
-      <c r="D83" s="94"/>
-      <c r="E83" s="25" t="s">
+      <c r="F83" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F83" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="91" t="s">
-        <v>26</v>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="81" t="s">
+        <v>25</v>
       </c>
       <c r="B84" s="31" t="str">
         <f>B31</f>
@@ -4036,63 +4082,63 @@
       </c>
       <c r="C84" s="27">
         <f>D31</f>
-        <v>917.95983749999982</v>
-      </c>
-      <c r="D84" s="104">
+        <v>622.52448750000008</v>
+      </c>
+      <c r="D84" s="90">
         <f>E50</f>
         <v>0.8</v>
       </c>
       <c r="E84" s="27">
         <f>+(C84*0.85*$D$84)-($J$80*0.18)</f>
-        <v>512.1582817499999</v>
+        <v>299.86688025000012</v>
       </c>
       <c r="F84" s="27">
         <f>+(C84*0.85*$D$84)-($J$80*-0.18)</f>
-        <v>736.26709724999989</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="141"/>
+        <v>546.76642275000006</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="89"/>
       <c r="B85" s="31">
         <f>B32</f>
         <v>6.4</v>
       </c>
       <c r="C85" s="27">
         <f>D32</f>
-        <v>961.22001375000002</v>
-      </c>
-      <c r="D85" s="142"/>
+        <v>664.72953749999999</v>
+      </c>
+      <c r="D85" s="91"/>
       <c r="E85" s="27">
         <f t="shared" ref="E85:E88" si="3">+(C85*0.85*$D$84)-($J$80*0.18)</f>
-        <v>541.57520160000001</v>
+        <v>328.56631425</v>
       </c>
       <c r="F85" s="27">
         <f t="shared" ref="F85:F88" si="4">+(C85*0.85*$D$84)-($J$80*-0.18)</f>
-        <v>765.68401710000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="141"/>
+        <v>575.46585675000006</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="89"/>
       <c r="B86" s="31">
         <f>B33</f>
-        <v>5.05</v>
+        <v>7.2</v>
       </c>
       <c r="C86" s="27">
         <f>D33</f>
-        <v>622.52448750000008</v>
-      </c>
-      <c r="D86" s="142"/>
+        <v>685.83206250000001</v>
+      </c>
+      <c r="D86" s="91"/>
       <c r="E86" s="27">
         <f t="shared" si="3"/>
-        <v>311.2622437500001</v>
+        <v>342.91603124999995</v>
       </c>
       <c r="F86" s="27">
         <f t="shared" si="4"/>
-        <v>535.37105925000014</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="141"/>
+        <v>589.81557375</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="89"/>
       <c r="B87" s="31">
         <f>B34</f>
         <v>7.57</v>
@@ -4101,18 +4147,18 @@
         <f>D34</f>
         <v>991.81867499999998</v>
       </c>
-      <c r="D87" s="142"/>
+      <c r="D87" s="91"/>
       <c r="E87" s="27">
         <f t="shared" si="3"/>
-        <v>562.38229124999998</v>
+        <v>550.98692774999995</v>
       </c>
       <c r="F87" s="27">
         <f t="shared" si="4"/>
-        <v>786.49110674999997</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="92"/>
+        <v>797.88647025</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="82"/>
       <c r="B88" s="31">
         <f>B35</f>
         <v>7.6</v>
@@ -4121,50 +4167,50 @@
         <f>D35</f>
         <v>696.38332500000001</v>
       </c>
-      <c r="D88" s="105"/>
+      <c r="D88" s="92"/>
       <c r="E88" s="27">
         <f t="shared" si="3"/>
-        <v>361.48625325</v>
+        <v>350.09088974999997</v>
       </c>
       <c r="F88" s="27">
         <f t="shared" si="4"/>
-        <v>585.59506875</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>596.99043225000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C89" s="27">
         <f>J80</f>
-        <v>622.52448750000008</v>
+        <v>685.83206250000001</v>
       </c>
       <c r="D89" s="47">
         <f>E51</f>
-        <v>-0.27500000000000002</v>
+        <v>-0.3</v>
       </c>
       <c r="E89" s="27">
         <f t="shared" ref="E89:E91" si="5">+(C89*0.85*D89)-($J$80*0.18)</f>
-        <v>-257.56950670312506</v>
+        <v>-298.33694718749996</v>
       </c>
       <c r="F89" s="27">
         <f>+(C89*0.85*D89)-($J$80*-0.18)</f>
-        <v>-33.460691203125023</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-51.437404687499992</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C90" s="27">
         <f>J80</f>
-        <v>622.52448750000008</v>
+        <v>685.83206250000001</v>
       </c>
       <c r="D90" s="27">
         <f>E53</f>
@@ -4172,23 +4218,23 @@
       </c>
       <c r="E90" s="27">
         <f t="shared" si="5"/>
-        <v>-482.45647781250005</v>
+        <v>-531.51984843749995</v>
       </c>
       <c r="F90" s="27">
         <f t="shared" ref="F90:F93" si="6">+(C90*0.85*D90)-($J$80*-0.18)</f>
-        <v>-258.34766231250006</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="143" t="s">
+        <v>-284.62030593750001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="93" t="s">
         <v>3</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C91" s="27">
         <f>J80</f>
-        <v>622.52448750000008</v>
+        <v>685.83206250000001</v>
       </c>
       <c r="D91" s="27">
         <f>F64</f>
@@ -4196,21 +4242,21 @@
       </c>
       <c r="E91" s="27">
         <f t="shared" si="5"/>
-        <v>-588.28564068750018</v>
+        <v>-648.11129906250005</v>
       </c>
       <c r="F91" s="27">
         <f t="shared" si="6"/>
-        <v>-364.17682518750013</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="143"/>
+        <v>-401.2117565625</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="93"/>
       <c r="B92" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C92" s="27">
         <f>J80</f>
-        <v>622.52448750000008</v>
+        <v>685.83206250000001</v>
       </c>
       <c r="D92" s="27">
         <f t="shared" ref="D92:D93" si="7">F65</f>
@@ -4218,21 +4264,21 @@
       </c>
       <c r="E92" s="27">
         <f>+(C92*0.85*D92)-($J$80*0.18)</f>
-        <v>-376.62731493750005</v>
+        <v>-414.92839781249995</v>
       </c>
       <c r="F92" s="27">
         <f t="shared" si="6"/>
-        <v>-152.51849943750005</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="143"/>
+        <v>-168.02885531249999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="93"/>
       <c r="B93" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C93" s="27">
         <f>J80</f>
-        <v>622.52448750000008</v>
+        <v>685.83206250000001</v>
       </c>
       <c r="D93" s="27">
         <f t="shared" si="7"/>
@@ -4240,208 +4286,208 @@
       </c>
       <c r="E93" s="27">
         <f>+(C93*0.85*D93)-($J$80*0.18)</f>
-        <v>-270.79815206250004</v>
+        <v>-298.33694718749996</v>
       </c>
       <c r="F93" s="27">
         <f t="shared" si="6"/>
-        <v>-46.689336562500003</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-51.437404687499992</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="57"/>
       <c r="C94" s="58"/>
       <c r="D94" s="58"/>
       <c r="E94" s="58"/>
       <c r="F94" s="58"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="134" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="B96" s="95"/>
+      <c r="C96" s="95"/>
+      <c r="D96" s="95"/>
+      <c r="E96" s="95"/>
+      <c r="F96" s="95"/>
+      <c r="G96" s="37"/>
+    </row>
+    <row r="97" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="96" t="s">
+        <v>81</v>
+      </c>
+      <c r="B97" s="97"/>
+      <c r="C97" s="97"/>
+      <c r="D97" s="97"/>
+      <c r="E97" s="97"/>
+      <c r="F97" s="97"/>
+      <c r="G97" s="98"/>
+      <c r="I97" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="B96" s="135"/>
-      <c r="C96" s="135"/>
-      <c r="D96" s="135"/>
-      <c r="E96" s="135"/>
-      <c r="F96" s="135"/>
-      <c r="G96" s="37"/>
-    </row>
-    <row r="97" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="131" t="s">
-        <v>82</v>
-      </c>
-      <c r="B97" s="132"/>
-      <c r="C97" s="132"/>
-      <c r="D97" s="132"/>
-      <c r="E97" s="132"/>
-      <c r="F97" s="132"/>
-      <c r="G97" s="133"/>
-      <c r="I97" s="139" t="s">
-        <v>84</v>
-      </c>
-      <c r="J97" s="139"/>
-      <c r="K97" s="139"/>
-      <c r="L97" s="139"/>
-      <c r="M97" s="139"/>
-      <c r="N97" s="139"/>
-      <c r="O97" s="139"/>
+      <c r="J97" s="80"/>
+      <c r="K97" s="80"/>
+      <c r="L97" s="80"/>
+      <c r="M97" s="80"/>
+      <c r="N97" s="80"/>
+      <c r="O97" s="80"/>
       <c r="R97"/>
       <c r="S97"/>
       <c r="T97"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A98" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="B98" s="94" t="s">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A98" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="B98" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="C98" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="D98" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D98" s="16" t="s">
+      <c r="E98" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="F98" s="79"/>
+      <c r="G98" s="79"/>
+      <c r="I98" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="J98" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="K98" s="73"/>
+      <c r="L98" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="M98" s="73"/>
+      <c r="N98" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="O98" s="73"/>
+      <c r="R98" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="S98" s="74"/>
+      <c r="T98" s="74"/>
+      <c r="U98" s="74"/>
+      <c r="V98" s="74"/>
+      <c r="W98" s="74"/>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A99" s="79"/>
+      <c r="B99" s="79"/>
+      <c r="C99" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E98" s="94" t="s">
+      <c r="D99" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E99" s="79"/>
+      <c r="F99" s="79"/>
+      <c r="G99" s="79"/>
+      <c r="I99" s="75"/>
+      <c r="J99" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="K99" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="L99" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="M99" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="N99" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="O99" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="R99" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="S99" s="75"/>
+      <c r="T99" s="75"/>
+      <c r="U99" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="V99" s="75"/>
+      <c r="W99" s="75"/>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A100" s="76" t="s">
         <v>60</v>
-      </c>
-      <c r="F98" s="94"/>
-      <c r="G98" s="94"/>
-      <c r="I98" s="130" t="s">
-        <v>70</v>
-      </c>
-      <c r="J98" s="109" t="s">
-        <v>110</v>
-      </c>
-      <c r="K98" s="109"/>
-      <c r="L98" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="M98" s="109"/>
-      <c r="N98" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="O98" s="109"/>
-      <c r="R98" s="146" t="s">
-        <v>119</v>
-      </c>
-      <c r="S98" s="146"/>
-      <c r="T98" s="146"/>
-      <c r="U98" s="146"/>
-      <c r="V98" s="146"/>
-      <c r="W98" s="146"/>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A99" s="94"/>
-      <c r="B99" s="94"/>
-      <c r="C99" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E99" s="94"/>
-      <c r="F99" s="94"/>
-      <c r="G99" s="94"/>
-      <c r="I99" s="130"/>
-      <c r="J99" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="K99" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="L99" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="M99" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="N99" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="O99" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="R99" s="130" t="s">
-        <v>117</v>
-      </c>
-      <c r="S99" s="130"/>
-      <c r="T99" s="130"/>
-      <c r="U99" s="130" t="s">
-        <v>3</v>
-      </c>
-      <c r="V99" s="130"/>
-      <c r="W99" s="130"/>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A100" s="136" t="s">
-        <v>61</v>
       </c>
       <c r="B100" s="43"/>
       <c r="C100" s="43"/>
       <c r="D100" s="44"/>
       <c r="E100" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F100" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="F100" s="41" t="s">
+      <c r="G100" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="G100" s="41" t="s">
-        <v>64</v>
-      </c>
       <c r="I100" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J100" s="23">
         <f>+$J$80*(E101-0.18)</f>
-        <v>379.73993737500012</v>
+        <v>418.35755812500008</v>
       </c>
       <c r="K100" s="23">
         <f>+$J$80*(E101+0.18)</f>
-        <v>603.84875287500006</v>
+        <v>665.25710062500002</v>
       </c>
       <c r="L100" s="23">
         <f>+$J$80*(F101-0.18)</f>
-        <v>-715.90316062500006</v>
+        <v>-788.70687187499993</v>
       </c>
       <c r="M100" s="23">
         <f>+$J$80*(F101+0.18)</f>
-        <v>-491.79434512500006</v>
+        <v>-541.80732937499999</v>
       </c>
       <c r="N100" s="27">
         <f>+$J$80*(G101-0.18)</f>
-        <v>-728.35365037500003</v>
+        <v>-802.423513125</v>
       </c>
       <c r="O100" s="27">
         <f>+$J$80*(G101+0.18)</f>
-        <v>-504.24483487500009</v>
+        <v>-555.52397062500006</v>
       </c>
       <c r="R100" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S100" s="32">
         <f>MAX(J100:O100)</f>
-        <v>603.84875287500006</v>
+        <v>665.25710062500002</v>
       </c>
       <c r="T100" s="32">
         <f>MIN(J100:O100)</f>
-        <v>-728.35365037500003</v>
+        <v>-802.423513125</v>
       </c>
       <c r="U100" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V100" s="32">
         <f>MAX(J105:O105)</f>
-        <v>236.55930525000002</v>
+        <v>260.61618375</v>
       </c>
       <c r="W100" s="32">
         <f>MIN(J105:O105)</f>
-        <v>-1108.0935877500001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A101" s="137"/>
+        <v>-1220.78107125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A101" s="77"/>
       <c r="B101" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C101" s="19">
         <f>1.4*4</f>
@@ -4461,59 +4507,59 @@
         <v>-0.99</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J101" s="23">
         <f t="shared" ref="J101:J102" si="8">+$J$80*(E102-0.18)</f>
-        <v>429.54189637500002</v>
+        <v>473.22412312499995</v>
       </c>
       <c r="K101" s="23">
         <f t="shared" ref="K101:K102" si="9">+$J$80*(E102+0.18)</f>
-        <v>653.65071187500007</v>
+        <v>720.12366562500006</v>
       </c>
       <c r="L101" s="23">
         <f t="shared" ref="L101:L102" si="10">+$J$80*(F102-0.18)</f>
-        <v>-703.45267087499997</v>
+        <v>-774.99023062499998</v>
       </c>
       <c r="M101" s="23">
         <f t="shared" ref="M101:M102" si="11">+$J$80*(F102+0.18)</f>
-        <v>-479.34385537500009</v>
+        <v>-528.09068812500004</v>
       </c>
       <c r="N101" s="27">
         <f t="shared" ref="N101:N102" si="12">+$J$80*(G102-0.18)</f>
-        <v>-840.40805812500003</v>
+        <v>-925.87328437499991</v>
       </c>
       <c r="O101" s="27">
         <f t="shared" ref="O101:O102" si="13">+$J$80*(G102+0.18)</f>
-        <v>-616.29924262500003</v>
+        <v>-678.97374187499997</v>
       </c>
       <c r="R101" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S101" s="32">
         <f>MAX(J101:O101)</f>
-        <v>653.65071187500007</v>
+        <v>720.12366562500006</v>
       </c>
       <c r="T101" s="32">
         <f>MIN(J101:O101)</f>
-        <v>-840.40805812500003</v>
+        <v>-925.87328437499991</v>
       </c>
       <c r="U101" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V101" s="32">
         <f>MAX(J106:O106)</f>
-        <v>286.36126425000003</v>
+        <v>315.48274875000004</v>
       </c>
       <c r="W101" s="32">
         <f>MIN(J106:O106)</f>
-        <v>-3224.67684525</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A102" s="137"/>
+        <v>-3552.6100837499998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A102" s="77"/>
       <c r="B102" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C102" s="21">
         <v>1.4</v>
@@ -4532,44 +4578,44 @@
         <v>-1.17</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J102" s="23">
         <f t="shared" si="8"/>
-        <v>510.47007975000008</v>
+        <v>562.38229125000009</v>
       </c>
       <c r="K102" s="23">
         <f t="shared" si="9"/>
-        <v>734.57889525000007</v>
+        <v>809.28183374999992</v>
       </c>
       <c r="L102" s="23">
         <f t="shared" si="10"/>
-        <v>-796.83134400000017</v>
+        <v>-877.86504000000002</v>
       </c>
       <c r="M102" s="23">
         <f t="shared" si="11"/>
-        <v>-572.72252850000018</v>
+        <v>-630.96549750000008</v>
       </c>
       <c r="N102" s="27">
         <f t="shared" si="12"/>
-        <v>-983.58869025000001</v>
+        <v>-1083.61465875</v>
       </c>
       <c r="O102" s="27">
         <f t="shared" si="13"/>
-        <v>-759.47987475000002</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A103" s="138"/>
+        <v>-836.71511624999994</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A103" s="78"/>
       <c r="B103" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C103" s="14">
         <f>0.25*1.5</f>
         <v>0.375</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E103" s="20">
         <v>1</v>
@@ -4580,62 +4626,62 @@
       <c r="G103" s="20">
         <v>-1.4</v>
       </c>
-      <c r="I103" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="J103" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="K103" s="109"/>
-      <c r="L103" s="109" t="s">
-        <v>109</v>
-      </c>
-      <c r="M103" s="109"/>
-      <c r="N103" s="109" t="s">
-        <v>115</v>
-      </c>
-      <c r="O103" s="109"/>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A104" s="136" t="s">
-        <v>68</v>
+      <c r="I103" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="J103" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="K103" s="73"/>
+      <c r="L103" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="M103" s="73"/>
+      <c r="N103" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="O103" s="73"/>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A104" s="76" t="s">
+        <v>67</v>
       </c>
       <c r="B104" s="42"/>
       <c r="C104" s="45"/>
       <c r="D104" s="46"/>
       <c r="E104" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F104" s="40" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G104" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="I104" s="130"/>
+        <v>114</v>
+      </c>
+      <c r="I104" s="75"/>
       <c r="J104" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="K104" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="K104" s="39" t="s">
-        <v>72</v>
-      </c>
       <c r="L104" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="M104" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="M104" s="39" t="s">
-        <v>72</v>
-      </c>
       <c r="N104" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="O104" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="O104" s="39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A105" s="137"/>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A105" s="77"/>
       <c r="B105" s="63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C105" s="64">
         <f>6*1</f>
@@ -4656,37 +4702,37 @@
       </c>
       <c r="H105" s="67"/>
       <c r="I105" s="64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J105" s="68">
         <f>+$J$80*(E105-0.18)</f>
-        <v>12.450489750000013</v>
+        <v>13.716641250000013</v>
       </c>
       <c r="K105" s="69">
         <f>+$J$80*(E105+0.18)</f>
-        <v>236.55930525000002</v>
+        <v>260.61618375</v>
       </c>
       <c r="L105" s="69">
         <f>+$J$80*(F105-0.18)</f>
-        <v>-796.83134400000017</v>
+        <v>-877.86504000000002</v>
       </c>
       <c r="M105" s="69">
         <f>+$J$80*(F105+0.18)</f>
-        <v>-572.72252850000018</v>
+        <v>-630.96549750000008</v>
       </c>
       <c r="N105" s="70">
         <f>+$J$80*(G105-0.18)</f>
-        <v>-1108.0935877500001</v>
+        <v>-1220.78107125</v>
       </c>
       <c r="O105" s="70">
         <f>+$J$80*(G105+0.18)</f>
-        <v>-883.98477225000022</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A106" s="137"/>
+        <v>-973.88152875000014</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A106" s="77"/>
       <c r="B106" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C106" s="21">
         <f>1*1.5</f>
@@ -4706,44 +4752,44 @@
         <v>-2.5</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J106" s="32">
         <f t="shared" ref="J106:J107" si="14">+$J$80*(E106-0.18)</f>
-        <v>62.252448750000028</v>
+        <v>68.583206250000018</v>
       </c>
       <c r="K106" s="52">
         <f t="shared" ref="K106:K107" si="15">+$J$80*(E106+0.18)</f>
-        <v>286.36126425000003</v>
+        <v>315.48274875000004</v>
       </c>
       <c r="L106" s="52">
         <f t="shared" ref="L106:L107" si="16">+$J$80*(F106-0.18)</f>
-        <v>-3224.67684525</v>
+        <v>-3552.6100837499998</v>
       </c>
       <c r="M106" s="52">
         <f t="shared" ref="M106:M107" si="17">+$J$80*(F106+0.18)</f>
-        <v>-3000.5680297500007</v>
+        <v>-3305.71054125</v>
       </c>
       <c r="N106" s="27">
         <f t="shared" ref="N106:N107" si="18">+$J$80*(G106-0.18)</f>
-        <v>-1668.3656265000004</v>
+        <v>-1838.0299275000002</v>
       </c>
       <c r="O106" s="27">
         <f t="shared" ref="O106:O107" si="19">+$J$80*(G106+0.18)</f>
-        <v>-1444.256811</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A107" s="138"/>
+        <v>-1591.1303849999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A107" s="78"/>
       <c r="B107" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C107" s="14">
         <f>0.25*2</f>
         <v>0.5</v>
       </c>
       <c r="D107" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E107" s="12">
         <v>0.3</v>
@@ -4755,69 +4801,69 @@
         <v>-2.8</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J107" s="32">
         <f t="shared" si="14"/>
-        <v>74.702938500000002</v>
+        <v>82.299847499999998</v>
       </c>
       <c r="K107" s="52">
         <f t="shared" si="15"/>
-        <v>298.81175400000001</v>
+        <v>329.19938999999999</v>
       </c>
       <c r="L107" s="52">
         <f t="shared" si="16"/>
-        <v>-734.57889525000007</v>
+        <v>-809.28183374999992</v>
       </c>
       <c r="M107" s="52">
         <f t="shared" si="17"/>
-        <v>-510.47007975000008</v>
+        <v>-562.38229125000009</v>
       </c>
       <c r="N107" s="27">
         <f t="shared" si="18"/>
-        <v>-1855.1229727500001</v>
+        <v>-2043.7795462500001</v>
       </c>
       <c r="O107" s="27">
         <f t="shared" si="19"/>
-        <v>-1631.0141572499999</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
+        <v>-1796.8800037499998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="I110" s="33">
         <f>MAX(J100:O100)</f>
-        <v>603.84875287500006</v>
+        <v>665.25710062500002</v>
       </c>
       <c r="J110" s="33">
         <f>MIN(J100:O100)</f>
-        <v>-728.35365037500003</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+        <v>-802.423513125</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="K118"/>
       <c r="L118"/>
@@ -4827,7 +4873,7 @@
       <c r="P118"/>
       <c r="Q118"/>
     </row>
-    <row r="119" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="K119"/>
       <c r="L119"/>
@@ -4837,7 +4883,7 @@
       <c r="P119"/>
       <c r="Q119"/>
     </row>
-    <row r="120" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -4856,7 +4902,7 @@
       <c r="P120"/>
       <c r="Q120"/>
     </row>
-    <row r="121" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -4875,7 +4921,7 @@
       <c r="P121"/>
       <c r="Q121"/>
     </row>
-    <row r="122" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -4894,7 +4940,7 @@
       <c r="P122"/>
       <c r="Q122"/>
     </row>
-    <row r="123" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -4913,7 +4959,7 @@
       <c r="P123"/>
       <c r="Q123"/>
     </row>
-    <row r="124" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -4932,7 +4978,7 @@
       <c r="P124"/>
       <c r="Q124"/>
     </row>
-    <row r="125" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -4951,7 +4997,7 @@
       <c r="P125"/>
       <c r="Q125"/>
     </row>
-    <row r="126" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -4970,7 +5016,7 @@
       <c r="P126"/>
       <c r="Q126"/>
     </row>
-    <row r="127" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -4989,7 +5035,7 @@
       <c r="P127"/>
       <c r="Q127"/>
     </row>
-    <row r="128" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -5008,7 +5054,7 @@
       <c r="P128"/>
       <c r="Q128"/>
     </row>
-    <row r="129" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -5027,7 +5073,7 @@
       <c r="P129"/>
       <c r="Q129"/>
     </row>
-    <row r="130" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -5046,7 +5092,7 @@
       <c r="P130"/>
       <c r="Q130"/>
     </row>
-    <row r="131" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -5065,7 +5111,7 @@
       <c r="P131"/>
       <c r="Q131"/>
     </row>
-    <row r="132" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -5084,7 +5130,7 @@
       <c r="P132"/>
       <c r="Q132"/>
     </row>
-    <row r="133" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -5103,7 +5149,7 @@
       <c r="P133"/>
       <c r="Q133"/>
     </row>
-    <row r="134" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -5122,7 +5168,7 @@
       <c r="P134"/>
       <c r="Q134"/>
     </row>
-    <row r="135" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -5141,7 +5187,7 @@
       <c r="P135"/>
       <c r="Q135"/>
     </row>
-    <row r="136" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -5160,7 +5206,7 @@
       <c r="P136"/>
       <c r="Q136"/>
     </row>
-    <row r="137" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -5179,7 +5225,7 @@
       <c r="P137"/>
       <c r="Q137"/>
     </row>
-    <row r="138" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -5198,7 +5244,7 @@
       <c r="P138"/>
       <c r="Q138"/>
     </row>
-    <row r="139" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -5217,11 +5263,88 @@
       <c r="P139"/>
       <c r="Q139"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="I97:O97"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A97:G97"/>
     <mergeCell ref="N98:O98"/>
     <mergeCell ref="R98:W98"/>
     <mergeCell ref="R99:T99"/>
@@ -5238,83 +5361,6 @@
     <mergeCell ref="I98:I99"/>
     <mergeCell ref="J98:K98"/>
     <mergeCell ref="L98:M98"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A97:G97"/>
-    <mergeCell ref="I97:O97"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5326,42 +5372,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W140"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N110" sqref="N110"/>
+    <sheetView showGridLines="0" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
-    <col min="7" max="9" width="11.5703125" style="1"/>
-    <col min="10" max="10" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.5703125" style="1"/>
+    <col min="5" max="5" width="16.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="1" customWidth="1"/>
+    <col min="7" max="9" width="11.5546875" style="1"/>
+    <col min="10" max="12" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
-    </row>
-    <row r="2" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="90"/>
-    </row>
-    <row r="3" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="140"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="141"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="143"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -5377,11 +5423,11 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="125" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="126"/>
+    <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="144" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="145"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -5395,11 +5441,11 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="54">
+        <v>88</v>
+      </c>
+      <c r="B5" s="29">
         <v>12</v>
       </c>
       <c r="C5" s="2"/>
@@ -5415,11 +5461,11 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="54">
+        <v>87</v>
+      </c>
+      <c r="B6" s="29">
         <v>30</v>
       </c>
       <c r="C6" s="2"/>
@@ -5435,232 +5481,233 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="31">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="7">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="7">
-        <v>5.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="29">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="55">
+        <v>101</v>
+      </c>
+      <c r="B10" s="71">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B12" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="127" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="129"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="146" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="146"/>
+      <c r="C14" s="147" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="148"/>
+    </row>
+    <row r="15" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="54">
+        <v>91</v>
+      </c>
+      <c r="B15" s="29">
         <f>45*0.93</f>
         <v>41.85</v>
       </c>
-      <c r="C15" s="121" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="122"/>
+      <c r="C15" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="131"/>
       <c r="I15" s="59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="71">
+        <v>0.85</v>
+      </c>
+      <c r="C16" s="130" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="131"/>
+      <c r="I16" s="59" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="61" t="s">
+    <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="35">
+        <v>1</v>
+      </c>
+      <c r="C17" s="130" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="131"/>
+      <c r="I17" s="59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="130" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="131"/>
+      <c r="I18" s="59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="71">
+        <v>1</v>
+      </c>
+      <c r="C19" s="130" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="131"/>
+      <c r="I19" s="59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="55">
-        <v>0.85</v>
-      </c>
-      <c r="C16" s="121" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="122"/>
-      <c r="I16" s="59" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="56">
-        <v>1</v>
-      </c>
-      <c r="C17" s="121" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="122"/>
-      <c r="I17" s="59" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="121" t="s">
+      <c r="B20" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="D18" s="122"/>
-      <c r="I18" s="59" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="55">
-        <v>1</v>
-      </c>
-      <c r="C19" s="121" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="122"/>
-      <c r="I19" s="59" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="61" t="s">
+      <c r="C20" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="123" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="124"/>
+      <c r="D20" s="133"/>
       <c r="I20" s="59">
         <v>5.6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="118" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="120"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="134" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="135"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="136"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="98" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98" t="s">
+      <c r="E28" s="83"/>
+      <c r="I28" s="59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="137" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="137"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="79"/>
+      <c r="B30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="6" t="str">
+        <f>B20</f>
+        <v>B</v>
+      </c>
+      <c r="D30" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="98"/>
-      <c r="I28" s="59" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="94" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="117" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="117"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="94"/>
-      <c r="B30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="94"/>
-    </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="79"/>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>1</v>
       </c>
@@ -5670,13 +5717,13 @@
       <c r="C31" s="53">
         <v>0.87</v>
       </c>
-      <c r="D31" s="99">
+      <c r="D31" s="118">
         <f>0.613*C31*$B$17*$B$16*$B$15^2*$B$19</f>
         <v>793.94346345374993</v>
       </c>
-      <c r="E31" s="99"/>
-    </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="118"/>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>2</v>
       </c>
@@ -5686,76 +5733,80 @@
       <c r="C32" s="53">
         <v>0.91100000000000003</v>
       </c>
-      <c r="D32" s="99">
+      <c r="D32" s="118">
         <f t="shared" ref="D32:D35" si="0">0.613*C32*$B$17*$B$16*$B$15^2*$B$19</f>
         <v>831.35918989237507</v>
       </c>
-      <c r="E32" s="99"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="7">
+      <c r="E32" s="118"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="31">
         <f>B8</f>
-        <v>5.05</v>
-      </c>
-      <c r="C33" s="53">
-        <v>0.59</v>
-      </c>
-      <c r="D33" s="99">
+        <v>7.2</v>
+      </c>
+      <c r="C33" s="31">
+        <v>0.65</v>
+      </c>
+      <c r="D33" s="118">
         <f t="shared" si="0"/>
-        <v>538.42142923875008</v>
-      </c>
-      <c r="E33" s="99"/>
+        <v>593.17615085625005</v>
+      </c>
+      <c r="E33" s="118"/>
       <c r="F33" s="62" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="I33" s="1">
+        <f>2.01*(7.2/366)^(2/7)</f>
+        <v>0.65422183072694717</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="7">
         <v>7.57</v>
       </c>
-      <c r="C34" s="53">
+      <c r="C34" s="7">
         <v>0.94</v>
       </c>
-      <c r="D34" s="99">
+      <c r="D34" s="118">
         <f t="shared" si="0"/>
         <v>857.82397200750006</v>
       </c>
-      <c r="E34" s="99"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E34" s="118"/>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="7">
         <v>7.6</v>
       </c>
-      <c r="C35" s="53">
+      <c r="C35" s="7">
         <v>0.66</v>
       </c>
-      <c r="D35" s="99">
+      <c r="D35" s="118">
         <f t="shared" si="0"/>
         <v>602.3019377925001</v>
       </c>
-      <c r="E35" s="99"/>
-    </row>
-    <row r="36" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="100" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="101"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="102"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E35" s="118"/>
+    </row>
+    <row r="36" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="119" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="120"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="121"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -5764,7 +5815,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -5773,7 +5824,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -5782,47 +5833,47 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="103" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="122"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="122"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="103"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
+      <c r="B43" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="C43" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="96" t="s">
+      <c r="D43" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="94" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="96"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="C44" s="86"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="31">
         <f>B8</f>
-        <v>5.05</v>
+        <v>7.2</v>
       </c>
       <c r="B45" s="31">
         <f>B5</f>
@@ -5830,7 +5881,7 @@
       </c>
       <c r="C45" s="27">
         <f>+A45/B45</f>
-        <v>0.42083333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="D45" s="31" t="str">
         <f>+IF(C45&lt;1.4, "Rígida", "Flexible")</f>
@@ -5841,80 +5892,80 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="98" t="s">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="83"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+      <c r="I47" s="59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="123" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="124"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="98"/>
-      <c r="C47" s="98"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="98"/>
-      <c r="I47" s="59" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="106" t="s">
+      <c r="E48" s="73"/>
+      <c r="F48" s="39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="126" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="127"/>
+      <c r="D49" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="107"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" s="109"/>
-      <c r="F48" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="110" t="s">
+      <c r="B50" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="111"/>
-      <c r="D49" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="112" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="113"/>
+      <c r="C50" s="129"/>
       <c r="D50" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E50" s="34">
         <v>0.8</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="91" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="74"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="107" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="108"/>
       <c r="D51" s="31">
         <f>B11/B12</f>
         <v>1</v>
@@ -5922,16 +5973,16 @@
       <c r="E51" s="7">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="F51" s="71" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="92"/>
-      <c r="B52" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="74"/>
+      <c r="F51" s="116" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="82"/>
+      <c r="B52" s="107" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="108"/>
       <c r="D52" s="31">
         <f>1/D51</f>
         <v>1</v>
@@ -5939,168 +5990,168 @@
       <c r="E52" s="7">
         <v>-0.5</v>
       </c>
-      <c r="F52" s="72"/>
-    </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="117"/>
+    </row>
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="108"/>
+      <c r="D53" s="31" t="s">
         <v>28</v>
-      </c>
-      <c r="B53" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="74"/>
-      <c r="D53" s="31" t="s">
-        <v>29</v>
       </c>
       <c r="E53" s="7">
         <v>-0.7</v>
       </c>
       <c r="F53" s="31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="114" t="s">
-        <v>132</v>
-      </c>
-      <c r="B55" s="115"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="115"/>
-      <c r="E55" s="116"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="109" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="110"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="111"/>
       <c r="I55" s="59" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="80" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="112" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="80" t="s">
+      <c r="C56" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="82" t="s">
+      <c r="D56" s="114"/>
+      <c r="E56" s="115"/>
+    </row>
+    <row r="57" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="84"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="113" t="str">
+        <f>B9</f>
+        <v>3,81º</v>
+      </c>
+      <c r="D57" s="114"/>
+      <c r="E57" s="115"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="90">
+        <f>B8/B5</f>
+        <v>0.6</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="102">
+        <v>-0.9</v>
+      </c>
+      <c r="E58" s="103"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="82"/>
+      <c r="B59" s="92"/>
+      <c r="C59" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="102">
+        <v>-0.5</v>
+      </c>
+      <c r="E59" s="103"/>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="83"/>
-      <c r="E56" s="84"/>
-    </row>
-    <row r="57" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="81"/>
-      <c r="B57" s="81"/>
-      <c r="C57" s="82" t="str">
-        <f>B9</f>
-        <v>3,77º</v>
-      </c>
-      <c r="D57" s="83"/>
-      <c r="E57" s="84"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="91" t="s">
+      <c r="B61" s="83"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="83"/>
+      <c r="I61" s="59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="79"/>
+      <c r="B63" s="79"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="104">
-        <f>B8/B5</f>
-        <v>0.42083333333333334</v>
-      </c>
-      <c r="C58" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" s="78">
-        <v>-0.9</v>
-      </c>
-      <c r="E58" s="79"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="92"/>
-      <c r="B59" s="105"/>
-      <c r="C59" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="78">
-        <v>-0.5</v>
-      </c>
-      <c r="E59" s="79"/>
-    </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="98" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="98"/>
-      <c r="C61" s="98"/>
-      <c r="D61" s="98"/>
-      <c r="E61" s="98"/>
-      <c r="F61" s="98"/>
-      <c r="I61" s="59" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="B62" s="94" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" s="94" t="s">
+      <c r="B64" s="105">
+        <f>B8/B6</f>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="C64" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="94"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="94" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="94"/>
-      <c r="B63" s="94"/>
-      <c r="C63" s="94"/>
-      <c r="D63" s="94"/>
-      <c r="E63" s="94"/>
-      <c r="F63" s="94"/>
-    </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="75" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="76">
-        <f>B8/B6</f>
-        <v>0.16833333333333333</v>
-      </c>
-      <c r="C64" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77"/>
+      <c r="D64" s="106"/>
+      <c r="E64" s="106"/>
       <c r="F64" s="54">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="75"/>
-      <c r="B65" s="76"/>
-      <c r="C65" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="D65" s="77"/>
-      <c r="E65" s="77"/>
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="104"/>
+      <c r="B65" s="105"/>
+      <c r="C65" s="106" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="106"/>
+      <c r="E65" s="106"/>
       <c r="F65" s="54">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="75"/>
-      <c r="B66" s="76"/>
-      <c r="C66" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="D66" s="77"/>
-      <c r="E66" s="77"/>
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="104"/>
+      <c r="B66" s="105"/>
+      <c r="C66" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="106"/>
+      <c r="E66" s="106"/>
       <c r="F66" s="54">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="49"/>
       <c r="C67" s="3"/>
@@ -6108,77 +6159,77 @@
       <c r="E67" s="3"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="98" t="s">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" s="83"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+    </row>
+    <row r="69" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A69" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" s="149" t="s">
         <v>107</v>
       </c>
-      <c r="B68" s="98"/>
-      <c r="C68" s="98"/>
-      <c r="D68" s="98"/>
-      <c r="E68" s="98"/>
-      <c r="F68" s="98"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B69" s="140" t="s">
-        <v>108</v>
-      </c>
-      <c r="C69" s="140"/>
-      <c r="D69" s="140"/>
-      <c r="E69" s="140"/>
-      <c r="F69" s="140"/>
+      <c r="C69" s="150"/>
+      <c r="D69" s="150"/>
+      <c r="E69" s="150"/>
+      <c r="F69" s="151"/>
       <c r="I69" s="59" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71" s="100"/>
+      <c r="C71" s="100"/>
+      <c r="D71" s="100"/>
+      <c r="E71" s="100"/>
+      <c r="F71" s="100"/>
+    </row>
+    <row r="72" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="B71" s="93"/>
-      <c r="C71" s="93"/>
-      <c r="D71" s="93"/>
-      <c r="E71" s="93"/>
-      <c r="F71" s="93"/>
-    </row>
-    <row r="72" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="81" t="s">
+      <c r="D72" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="95" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" s="95" t="s">
+      <c r="E72" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="D72" s="97" t="s">
-        <v>32</v>
-      </c>
-      <c r="E72" s="81" t="s">
+      <c r="F72" s="84"/>
+    </row>
+    <row r="73" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="79"/>
+      <c r="B73" s="86"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F72" s="81"/>
-    </row>
-    <row r="73" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="94"/>
-      <c r="B73" s="96"/>
-      <c r="C73" s="96"/>
-      <c r="D73" s="81"/>
-      <c r="E73" s="25" t="s">
+      <c r="F73" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F73" s="25" t="s">
+    </row>
+    <row r="74" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="31" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="B74" s="31" t="s">
-        <v>56</v>
       </c>
       <c r="C74" s="27">
         <f>D31</f>
@@ -6190,15 +6241,15 @@
       </c>
       <c r="E74" s="27">
         <f>+(C74*0.85*D74)-(J80*0.18)</f>
-        <v>442.96569788557497</v>
+        <v>433.10984799442497</v>
       </c>
       <c r="F74" s="27">
         <f t="shared" ref="F74:F79" si="1">+(C74*0.85*D74)-($J$80*-0.18)</f>
-        <v>636.79741241152499</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="92"/>
+        <v>646.65326230267499</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="82"/>
       <c r="B75" s="31">
         <f>B32</f>
         <v>6.4</v>
@@ -6213,23 +6264,23 @@
       </c>
       <c r="E75" s="27">
         <f>+(C75*0.85*D75)-(J80*0.18)</f>
-        <v>468.40839186384005</v>
+        <v>458.55254197269005</v>
       </c>
       <c r="F75" s="27">
         <f t="shared" si="1"/>
-        <v>662.24010638979007</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>672.09595628094007</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C76" s="27">
         <f>$D$33</f>
-        <v>538.42142923875008</v>
+        <v>593.17615085625005</v>
       </c>
       <c r="D76" s="27">
         <f>E52</f>
@@ -6237,23 +6288,23 @@
       </c>
       <c r="E76" s="27">
         <f>+(C76*0.85*D76)-(J80*0.18)</f>
-        <v>-325.7449646894438</v>
+        <v>-358.87157126803129</v>
       </c>
       <c r="F76" s="27">
         <f t="shared" si="1"/>
-        <v>-131.91325016349376</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-145.32815695978124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C77" s="27">
         <f t="shared" ref="C77:C79" si="2">$D$33</f>
-        <v>538.42142923875008</v>
+        <v>593.17615085625005</v>
       </c>
       <c r="D77" s="27">
         <f>E53</f>
@@ -6261,23 +6312,23 @@
       </c>
       <c r="E77" s="27">
         <f>+(C77*0.85*D77)-(J80*0.18)</f>
-        <v>-417.27660766003129</v>
+        <v>-459.71151691359375</v>
       </c>
       <c r="F77" s="27">
         <f t="shared" si="1"/>
-        <v>-223.44489313408127</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="91" t="s">
+        <v>-246.16810260534373</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="81" t="s">
         <v>3</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C78" s="27">
         <f t="shared" si="2"/>
-        <v>538.42142923875008</v>
+        <v>593.17615085625005</v>
       </c>
       <c r="D78" s="27">
         <f>D58</f>
@@ -6285,21 +6336,21 @@
       </c>
       <c r="E78" s="27">
         <f>+(C78*0.85*D78)-($J$80*0.18)</f>
-        <v>-508.80825063061877</v>
+        <v>-560.55146255915633</v>
       </c>
       <c r="F78" s="27">
         <f t="shared" si="1"/>
-        <v>-314.97653610466875</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="92"/>
+        <v>-347.00804825090626</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="82"/>
       <c r="B79" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C79" s="27">
         <f t="shared" si="2"/>
-        <v>538.42142923875008</v>
+        <v>593.17615085625005</v>
       </c>
       <c r="D79" s="27">
         <f>D59</f>
@@ -6307,65 +6358,65 @@
       </c>
       <c r="E79" s="27">
         <f>+(C79*0.85*D79)-($J$80*0.18)</f>
-        <v>-325.7449646894438</v>
+        <v>-358.87157126803129</v>
       </c>
       <c r="F79" s="27">
         <f t="shared" si="1"/>
-        <v>-131.91325016349376</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="18" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>-145.32815695978124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="13.8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I80" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J80" s="36">
         <f>D33</f>
-        <v>538.42142923875008</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="98" t="s">
-        <v>58</v>
-      </c>
-      <c r="B81" s="98"/>
-      <c r="C81" s="98"/>
-      <c r="D81" s="98"/>
-      <c r="E81" s="98"/>
-      <c r="F81" s="98"/>
-    </row>
-    <row r="82" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="81" t="s">
+        <v>593.17615085625005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="B81" s="83"/>
+      <c r="C81" s="83"/>
+      <c r="D81" s="83"/>
+      <c r="E81" s="83"/>
+      <c r="F81" s="83"/>
+    </row>
+    <row r="82" spans="1:7" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="B82" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="C82" s="95" t="s">
+      <c r="E82" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="D82" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E82" s="144" t="s">
+      <c r="F82" s="88"/>
+    </row>
+    <row r="83" spans="1:7" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="79"/>
+      <c r="B83" s="86"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F82" s="145"/>
-    </row>
-    <row r="83" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="94"/>
-      <c r="B83" s="96"/>
-      <c r="C83" s="96"/>
-      <c r="D83" s="94"/>
-      <c r="E83" s="25" t="s">
+      <c r="F83" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F83" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="91" t="s">
-        <v>26</v>
+    </row>
+    <row r="84" spans="1:7" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="81" t="s">
+        <v>25</v>
       </c>
       <c r="B84" s="31" t="str">
         <f>B31</f>
@@ -6375,21 +6426,21 @@
         <f>D31</f>
         <v>793.94346345374993</v>
       </c>
-      <c r="D84" s="104">
+      <c r="D84" s="90">
         <f>E50</f>
         <v>0.8</v>
       </c>
       <c r="E84" s="27">
         <f>+(C84*0.85*$D$84)-($J$80*0.18)</f>
-        <v>442.96569788557497</v>
+        <v>433.10984799442497</v>
       </c>
       <c r="F84" s="27">
         <f>+(C84*0.85*$D$84)-($J$80*-0.18)</f>
-        <v>636.79741241152499</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="141"/>
+        <v>646.65326230267499</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="89"/>
       <c r="B85" s="31">
         <f>B32</f>
         <v>6.4</v>
@@ -6398,38 +6449,38 @@
         <f>D32</f>
         <v>831.35918989237507</v>
       </c>
-      <c r="D85" s="142"/>
+      <c r="D85" s="91"/>
       <c r="E85" s="27">
         <f t="shared" ref="E85:E88" si="3">+(C85*0.85*$D$84)-($J$80*0.18)</f>
-        <v>468.40839186384005</v>
+        <v>458.55254197269005</v>
       </c>
       <c r="F85" s="27">
         <f t="shared" ref="F85:F88" si="4">+(C85*0.85*$D$84)-($J$80*-0.18)</f>
-        <v>662.24010638979007</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="141"/>
+        <v>672.09595628094007</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="89"/>
       <c r="B86" s="31">
         <f>B33</f>
-        <v>5.05</v>
+        <v>7.2</v>
       </c>
       <c r="C86" s="27">
         <f>D33</f>
-        <v>538.42142923875008</v>
-      </c>
-      <c r="D86" s="142"/>
+        <v>593.17615085625005</v>
+      </c>
+      <c r="D86" s="91"/>
       <c r="E86" s="27">
         <f t="shared" si="3"/>
-        <v>269.21071461937504</v>
+        <v>296.58807542812502</v>
       </c>
       <c r="F86" s="27">
         <f t="shared" si="4"/>
-        <v>463.04242914532506</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="141"/>
+        <v>510.13148973637504</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="89"/>
       <c r="B87" s="31">
         <f>B34</f>
         <v>7.57</v>
@@ -6438,18 +6489,18 @@
         <f>D34</f>
         <v>857.82397200750006</v>
       </c>
-      <c r="D87" s="142"/>
+      <c r="D87" s="91"/>
       <c r="E87" s="27">
         <f t="shared" si="3"/>
-        <v>486.40444370212504</v>
+        <v>476.54859381097504</v>
       </c>
       <c r="F87" s="27">
         <f t="shared" si="4"/>
-        <v>680.23615822807506</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="92"/>
+        <v>690.09200811922506</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="82"/>
       <c r="B88" s="31">
         <f>B35</f>
         <v>7.6</v>
@@ -6458,26 +6509,26 @@
         <f>D35</f>
         <v>602.3019377925001</v>
       </c>
-      <c r="D88" s="105"/>
+      <c r="D88" s="92"/>
       <c r="E88" s="27">
         <f t="shared" si="3"/>
-        <v>312.64946043592511</v>
+        <v>302.79361054477511</v>
       </c>
       <c r="F88" s="27">
         <f t="shared" si="4"/>
-        <v>506.48117496187513</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>516.33702485302513</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C89" s="27">
         <f>J80</f>
-        <v>538.42142923875008</v>
+        <v>593.17615085625005</v>
       </c>
       <c r="D89" s="47">
         <f>E51</f>
@@ -6485,23 +6536,23 @@
       </c>
       <c r="E89" s="27">
         <f t="shared" ref="E89:E91" si="5">+(C89*0.85*D89)-($J$80*0.18)</f>
-        <v>-222.77186634753284</v>
+        <v>-245.42663241677346</v>
       </c>
       <c r="F89" s="27">
         <f>+(C89*0.85*D89)-($J$80*-0.18)</f>
-        <v>-28.940151821582816</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-31.883218108523437</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C90" s="27">
         <f>J80</f>
-        <v>538.42142923875008</v>
+        <v>593.17615085625005</v>
       </c>
       <c r="D90" s="27">
         <f>E53</f>
@@ -6509,23 +6560,23 @@
       </c>
       <c r="E90" s="27">
         <f t="shared" si="5"/>
-        <v>-417.27660766003129</v>
+        <v>-459.71151691359375</v>
       </c>
       <c r="F90" s="27">
         <f t="shared" ref="F90:F93" si="6">+(C90*0.85*D90)-($J$80*-0.18)</f>
-        <v>-223.44489313408127</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="143" t="s">
+        <v>-246.16810260534373</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="93" t="s">
         <v>3</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C91" s="27">
         <f>J80</f>
-        <v>538.42142923875008</v>
+        <v>593.17615085625005</v>
       </c>
       <c r="D91" s="27">
         <f>F64</f>
@@ -6533,21 +6584,21 @@
       </c>
       <c r="E91" s="27">
         <f t="shared" si="5"/>
-        <v>-508.80825063061877</v>
+        <v>-560.55146255915633</v>
       </c>
       <c r="F91" s="27">
         <f t="shared" si="6"/>
-        <v>-314.97653610466875</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="143"/>
+        <v>-347.00804825090626</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="93"/>
       <c r="B92" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C92" s="27">
         <f>J80</f>
-        <v>538.42142923875008</v>
+        <v>593.17615085625005</v>
       </c>
       <c r="D92" s="27">
         <f t="shared" ref="D92:D93" si="7">F65</f>
@@ -6555,21 +6606,21 @@
       </c>
       <c r="E92" s="27">
         <f>+(C92*0.85*D92)-($J$80*0.18)</f>
-        <v>-325.7449646894438</v>
+        <v>-358.87157126803129</v>
       </c>
       <c r="F92" s="27">
         <f t="shared" si="6"/>
-        <v>-131.91325016349376</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="143"/>
+        <v>-145.32815695978124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="93"/>
       <c r="B93" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C93" s="27">
         <f>J80</f>
-        <v>538.42142923875008</v>
+        <v>593.17615085625005</v>
       </c>
       <c r="D93" s="27">
         <f t="shared" si="7"/>
@@ -6577,208 +6628,208 @@
       </c>
       <c r="E93" s="27">
         <f>+(C93*0.85*D93)-($J$80*0.18)</f>
-        <v>-234.21332171885626</v>
+        <v>-258.03162562246877</v>
       </c>
       <c r="F93" s="27">
         <f t="shared" si="6"/>
-        <v>-40.381607192906245</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-44.488211314218745</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="57"/>
       <c r="C94" s="58"/>
       <c r="D94" s="58"/>
       <c r="E94" s="58"/>
       <c r="F94" s="58"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="134" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="B96" s="95"/>
+      <c r="C96" s="95"/>
+      <c r="D96" s="95"/>
+      <c r="E96" s="95"/>
+      <c r="F96" s="95"/>
+      <c r="G96" s="37"/>
+    </row>
+    <row r="97" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="96" t="s">
+        <v>81</v>
+      </c>
+      <c r="B97" s="97"/>
+      <c r="C97" s="97"/>
+      <c r="D97" s="97"/>
+      <c r="E97" s="97"/>
+      <c r="F97" s="97"/>
+      <c r="G97" s="98"/>
+      <c r="I97" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="B96" s="135"/>
-      <c r="C96" s="135"/>
-      <c r="D96" s="135"/>
-      <c r="E96" s="135"/>
-      <c r="F96" s="135"/>
-      <c r="G96" s="37"/>
-    </row>
-    <row r="97" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="131" t="s">
-        <v>82</v>
-      </c>
-      <c r="B97" s="132"/>
-      <c r="C97" s="132"/>
-      <c r="D97" s="132"/>
-      <c r="E97" s="132"/>
-      <c r="F97" s="132"/>
-      <c r="G97" s="133"/>
-      <c r="I97" s="139" t="s">
-        <v>84</v>
-      </c>
-      <c r="J97" s="139"/>
-      <c r="K97" s="139"/>
-      <c r="L97" s="139"/>
-      <c r="M97" s="139"/>
-      <c r="N97" s="139"/>
-      <c r="O97" s="139"/>
+      <c r="J97" s="80"/>
+      <c r="K97" s="80"/>
+      <c r="L97" s="80"/>
+      <c r="M97" s="80"/>
+      <c r="N97" s="80"/>
+      <c r="O97" s="80"/>
       <c r="R97"/>
       <c r="S97"/>
       <c r="T97"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A98" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="B98" s="94" t="s">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A98" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="B98" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="C98" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="D98" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D98" s="16" t="s">
+      <c r="E98" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="F98" s="79"/>
+      <c r="G98" s="79"/>
+      <c r="I98" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="J98" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="K98" s="73"/>
+      <c r="L98" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="M98" s="73"/>
+      <c r="N98" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="O98" s="73"/>
+      <c r="R98" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="S98" s="74"/>
+      <c r="T98" s="74"/>
+      <c r="U98" s="74"/>
+      <c r="V98" s="74"/>
+      <c r="W98" s="74"/>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A99" s="79"/>
+      <c r="B99" s="79"/>
+      <c r="C99" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E98" s="94" t="s">
+      <c r="D99" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E99" s="79"/>
+      <c r="F99" s="79"/>
+      <c r="G99" s="79"/>
+      <c r="I99" s="75"/>
+      <c r="J99" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="K99" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="L99" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="M99" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="N99" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="O99" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="R99" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="S99" s="75"/>
+      <c r="T99" s="75"/>
+      <c r="U99" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="V99" s="75"/>
+      <c r="W99" s="75"/>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A100" s="76" t="s">
         <v>60</v>
-      </c>
-      <c r="F98" s="94"/>
-      <c r="G98" s="94"/>
-      <c r="I98" s="130" t="s">
-        <v>70</v>
-      </c>
-      <c r="J98" s="109" t="s">
-        <v>110</v>
-      </c>
-      <c r="K98" s="109"/>
-      <c r="L98" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="M98" s="109"/>
-      <c r="N98" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="O98" s="109"/>
-      <c r="R98" s="146" t="s">
-        <v>119</v>
-      </c>
-      <c r="S98" s="146"/>
-      <c r="T98" s="146"/>
-      <c r="U98" s="146"/>
-      <c r="V98" s="146"/>
-      <c r="W98" s="146"/>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A99" s="94"/>
-      <c r="B99" s="94"/>
-      <c r="C99" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E99" s="94"/>
-      <c r="F99" s="94"/>
-      <c r="G99" s="94"/>
-      <c r="I99" s="130"/>
-      <c r="J99" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="K99" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="L99" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="M99" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="N99" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="O99" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="R99" s="130" t="s">
-        <v>117</v>
-      </c>
-      <c r="S99" s="130"/>
-      <c r="T99" s="130"/>
-      <c r="U99" s="130" t="s">
-        <v>3</v>
-      </c>
-      <c r="V99" s="130"/>
-      <c r="W99" s="130"/>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A100" s="136" t="s">
-        <v>61</v>
       </c>
       <c r="B100" s="43"/>
       <c r="C100" s="43"/>
       <c r="D100" s="44"/>
       <c r="E100" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F100" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="F100" s="41" t="s">
+      <c r="G100" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="G100" s="41" t="s">
-        <v>64</v>
-      </c>
       <c r="I100" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J100" s="23">
         <f>+$J$80*(E101-0.18)</f>
-        <v>328.4370718356376</v>
+        <v>361.83745202231256</v>
       </c>
       <c r="K100" s="23">
         <f>+$J$80*(E101+0.18)</f>
-        <v>522.26878636158756</v>
+        <v>575.38086633056253</v>
       </c>
       <c r="L100" s="23">
         <f>+$J$80*(F101-0.18)</f>
-        <v>-619.18464362456257</v>
+        <v>-682.15257348468754</v>
       </c>
       <c r="M100" s="23">
         <f>+$J$80*(F101+0.18)</f>
-        <v>-425.35292909861261</v>
+        <v>-468.60915917643757</v>
       </c>
       <c r="N100" s="27">
         <f>+$J$80*(G101-0.18)</f>
-        <v>-629.95307220933751</v>
+        <v>-694.01609650181251</v>
       </c>
       <c r="O100" s="27">
         <f>+$J$80*(G101+0.18)</f>
-        <v>-436.1213576833876</v>
+        <v>-480.47268219356255</v>
       </c>
       <c r="R100" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S100" s="32">
         <f>MAX(J100:O100)</f>
-        <v>522.26878636158756</v>
+        <v>575.38086633056253</v>
       </c>
       <c r="T100" s="32">
         <f>MIN(J100:O100)</f>
-        <v>-629.95307220933751</v>
+        <v>-694.01609650181251</v>
       </c>
       <c r="U100" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V100" s="32">
         <f>MAX(J105:O105)</f>
-        <v>204.60014311072504</v>
+        <v>225.40693732537503</v>
       </c>
       <c r="W100" s="32">
         <f>MIN(J105:O105)</f>
-        <v>-958.39014404497516</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A101" s="137"/>
+        <v>-1055.853548524125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A101" s="77"/>
       <c r="B101" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C101" s="19">
         <f>1.4*4</f>
@@ -6798,59 +6849,59 @@
         <v>-0.99</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J101" s="23">
         <f t="shared" ref="J101:J102" si="8">+$J$80*(E102-0.18)</f>
-        <v>371.51078617473752</v>
+        <v>409.29154409081252</v>
       </c>
       <c r="K101" s="23">
         <f t="shared" ref="K101:K102" si="9">+$J$80*(E102+0.18)</f>
-        <v>565.34250070068765</v>
+        <v>622.83495839906254</v>
       </c>
       <c r="L101" s="23">
         <f t="shared" ref="L101:L102" si="10">+$J$80*(F102-0.18)</f>
-        <v>-608.41621503978752</v>
+        <v>-670.28905046756245</v>
       </c>
       <c r="M101" s="23">
         <f t="shared" ref="M101:M102" si="11">+$J$80*(F102+0.18)</f>
-        <v>-414.58450051383755</v>
+        <v>-456.74563615931254</v>
       </c>
       <c r="N101" s="27">
         <f t="shared" ref="N101:N102" si="12">+$J$80*(G102-0.18)</f>
-        <v>-726.86892947231252</v>
+        <v>-800.78780365593752</v>
       </c>
       <c r="O101" s="27">
         <f t="shared" ref="O101:O102" si="13">+$J$80*(G102+0.18)</f>
-        <v>-533.03721494636261</v>
+        <v>-587.2443893476875</v>
       </c>
       <c r="R101" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S101" s="32">
         <f>MAX(J101:O101)</f>
-        <v>565.34250070068765</v>
+        <v>622.83495839906254</v>
       </c>
       <c r="T101" s="32">
         <f>MIN(J101:O101)</f>
-        <v>-726.86892947231252</v>
+        <v>-800.78780365593752</v>
       </c>
       <c r="U101" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V101" s="32">
         <f>MAX(J106:O106)</f>
-        <v>247.67385744982505</v>
+        <v>272.86102939387501</v>
       </c>
       <c r="W101" s="32">
         <f>MIN(J106:O106)</f>
-        <v>-2789.0230034567253</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A102" s="137"/>
+        <v>-3072.6524614353752</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A102" s="77"/>
       <c r="B102" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C102" s="21">
         <v>1.4</v>
@@ -6869,44 +6920,44 @@
         <v>-1.17</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J102" s="23">
         <f t="shared" si="8"/>
-        <v>441.50557197577513</v>
+        <v>486.40444370212509</v>
       </c>
       <c r="K102" s="23">
         <f t="shared" si="9"/>
-        <v>635.33728650172509</v>
+        <v>699.94785801037506</v>
       </c>
       <c r="L102" s="23">
         <f t="shared" si="10"/>
-        <v>-689.17942942560012</v>
+        <v>-759.26547309600005</v>
       </c>
       <c r="M102" s="23">
         <f t="shared" si="11"/>
-        <v>-495.34771489965016</v>
+        <v>-545.72205878775014</v>
       </c>
       <c r="N102" s="27">
         <f t="shared" si="12"/>
-        <v>-850.7058581972251</v>
+        <v>-937.21831835287503</v>
       </c>
       <c r="O102" s="27">
         <f t="shared" si="13"/>
-        <v>-656.87414367127508</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A103" s="138"/>
+        <v>-723.67490404462501</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A103" s="78"/>
       <c r="B103" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C103" s="14">
         <f>0.25*1.5</f>
         <v>0.375</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E103" s="20">
         <v>1</v>
@@ -6917,62 +6968,62 @@
       <c r="G103" s="20">
         <v>-1.4</v>
       </c>
-      <c r="I103" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="J103" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="K103" s="109"/>
-      <c r="L103" s="109" t="s">
-        <v>109</v>
-      </c>
-      <c r="M103" s="109"/>
-      <c r="N103" s="109" t="s">
-        <v>115</v>
-      </c>
-      <c r="O103" s="109"/>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A104" s="136" t="s">
-        <v>68</v>
+      <c r="I103" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="J103" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="K103" s="73"/>
+      <c r="L103" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="M103" s="73"/>
+      <c r="N103" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="O103" s="73"/>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A104" s="76" t="s">
+        <v>67</v>
       </c>
       <c r="B104" s="42"/>
       <c r="C104" s="45"/>
       <c r="D104" s="46"/>
       <c r="E104" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F104" s="40" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G104" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="I104" s="130"/>
+        <v>114</v>
+      </c>
+      <c r="I104" s="75"/>
       <c r="J104" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="K104" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="K104" s="39" t="s">
-        <v>72</v>
-      </c>
       <c r="L104" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="M104" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="M104" s="39" t="s">
-        <v>72</v>
-      </c>
       <c r="N104" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="O104" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="O104" s="39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A105" s="137"/>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A105" s="77"/>
       <c r="B105" s="63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C105" s="64">
         <f>6*1</f>
@@ -6993,37 +7044,37 @@
       </c>
       <c r="H105" s="67"/>
       <c r="I105" s="64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J105" s="68">
         <f>+$J$80*(E105-0.18)</f>
-        <v>10.768428584775011</v>
+        <v>11.863523017125011</v>
       </c>
       <c r="K105" s="69">
         <f>+$J$80*(E105+0.18)</f>
-        <v>204.60014311072504</v>
+        <v>225.40693732537503</v>
       </c>
       <c r="L105" s="69">
         <f>+$J$80*(F105-0.18)</f>
-        <v>-689.17942942560012</v>
+        <v>-759.26547309600005</v>
       </c>
       <c r="M105" s="69">
         <f>+$J$80*(F105+0.18)</f>
-        <v>-495.34771489965016</v>
+        <v>-545.72205878775014</v>
       </c>
       <c r="N105" s="70">
         <f>+$J$80*(G105-0.18)</f>
-        <v>-958.39014404497516</v>
+        <v>-1055.853548524125</v>
       </c>
       <c r="O105" s="70">
         <f>+$J$80*(G105+0.18)</f>
-        <v>-764.55842951902514</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A106" s="137"/>
+        <v>-842.31013421587511</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A106" s="77"/>
       <c r="B106" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C106" s="21">
         <f>1*1.5</f>
@@ -7043,44 +7094,44 @@
         <v>-2.5</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J106" s="32">
         <f t="shared" ref="J106:J107" si="14">+$J$80*(E106-0.18)</f>
-        <v>53.842142923875024</v>
+        <v>59.317615085625022</v>
       </c>
       <c r="K106" s="52">
         <f t="shared" ref="K106:K107" si="15">+$J$80*(E106+0.18)</f>
-        <v>247.67385744982505</v>
+        <v>272.86102939387501</v>
       </c>
       <c r="L106" s="52">
         <f t="shared" ref="L106:L107" si="16">+$J$80*(F106-0.18)</f>
-        <v>-2789.0230034567253</v>
+        <v>-3072.6524614353752</v>
       </c>
       <c r="M106" s="52">
         <f t="shared" ref="M106:M107" si="17">+$J$80*(F106+0.18)</f>
-        <v>-2595.1912889307755</v>
+        <v>-2859.1090471271255</v>
       </c>
       <c r="N106" s="27">
         <f t="shared" ref="N106:N107" si="18">+$J$80*(G106-0.18)</f>
-        <v>-1442.9694303598503</v>
+        <v>-1589.7120842947502</v>
       </c>
       <c r="O106" s="27">
         <f t="shared" ref="O106:O107" si="19">+$J$80*(G106+0.18)</f>
-        <v>-1249.1377158339001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A107" s="138"/>
+        <v>-1376.1686699864999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A107" s="78"/>
       <c r="B107" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C107" s="14">
         <f>0.25*2</f>
         <v>0.5</v>
       </c>
       <c r="D107" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E107" s="12">
         <v>0.3</v>
@@ -7092,210 +7143,373 @@
         <v>-2.8</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J107" s="32">
         <f t="shared" si="14"/>
-        <v>64.610571508650011</v>
+        <v>71.181138102749998</v>
       </c>
       <c r="K107" s="52">
         <f t="shared" si="15"/>
-        <v>258.44228603460004</v>
+        <v>284.72455241099999</v>
       </c>
       <c r="L107" s="52">
         <f t="shared" si="16"/>
-        <v>-635.33728650172509</v>
+        <v>-699.94785801037506</v>
       </c>
       <c r="M107" s="52">
         <f t="shared" si="17"/>
-        <v>-441.50557197577513</v>
+        <v>-486.40444370212509</v>
       </c>
       <c r="N107" s="27">
         <f t="shared" si="18"/>
-        <v>-1604.4958591314753</v>
+        <v>-1767.6649295516252</v>
       </c>
       <c r="O107" s="27">
         <f t="shared" si="19"/>
-        <v>-1410.6641446055251</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
+        <v>-1554.1215152433749</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="I110" s="33">
         <f>MAX(J100:O100)</f>
-        <v>522.26878636158756</v>
+        <v>575.38086633056253</v>
       </c>
       <c r="J110" s="33">
         <f>MIN(J100:O100)</f>
-        <v>-629.95307220933751</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+        <v>-694.01609650181251</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B112" s="1"/>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B113" s="1"/>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B114" s="1"/>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B115" s="1"/>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B116" s="1"/>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B117" s="1"/>
-    </row>
-    <row r="118" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="B118" s="1"/>
-      <c r="K118"/>
-      <c r="L118"/>
+      <c r="F111"/>
+      <c r="G111"/>
+    </row>
+    <row r="112" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A112" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B112" s="83"/>
+      <c r="C112" s="83"/>
+      <c r="D112" s="83"/>
+      <c r="E112" s="83"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="I112" s="152" t="s">
+        <v>83</v>
+      </c>
+      <c r="J112" s="152"/>
+      <c r="K112" s="152"/>
+      <c r="L112" s="152"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="R112" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="S112" s="51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A113" s="137" t="s">
+        <v>81</v>
+      </c>
+      <c r="B113" s="137"/>
+      <c r="C113" s="137"/>
+      <c r="D113" s="137"/>
+      <c r="E113" s="137"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="I113" s="152"/>
+      <c r="J113" s="152"/>
+      <c r="K113" s="152"/>
+      <c r="L113" s="152"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="R113" s="1">
+        <f>qh*(C117-0.18)</f>
+        <v>367.76921353087511</v>
+      </c>
+      <c r="S113" s="1">
+        <f>qh*(C117+0.18)</f>
+        <v>581.31262783912507</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A114" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="B114" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C114" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="D114" s="79"/>
+      <c r="E114" s="79"/>
+      <c r="I114" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="J114" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="K114" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="L114" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="R114" s="1">
+        <f>qh*(D117-0.18)</f>
+        <v>-652.49376594187515</v>
+      </c>
+      <c r="S114" s="1">
+        <f>qh*(D117+0.18)</f>
+        <v>-438.95035163362502</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A115" s="79"/>
+      <c r="B115" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C115" s="79"/>
+      <c r="D115" s="79"/>
+      <c r="E115" s="79"/>
+      <c r="I115" s="79"/>
+      <c r="J115" s="72" t="str">
+        <f>IF(ABS(R113)&gt;ABS(S113),R112,S112)</f>
+        <v>-GCpi</v>
+      </c>
+      <c r="K115" s="72" t="str">
+        <f>IF(ABS(R114)&gt;ABS(S114),R112,S112)</f>
+        <v>+GCpi</v>
+      </c>
+      <c r="L115" s="72" t="str">
+        <f>IF(ABS(R115)&gt;ABS(S115),R112,S112)</f>
+        <v>+GCpi</v>
+      </c>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="R115" s="1">
+        <f>qh*(E117-0.18)</f>
+        <v>-699.94785801037506</v>
+      </c>
+      <c r="S115" s="1">
+        <f>qh*(E117+0.18)</f>
+        <v>-486.40444370212509</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A116" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="B116" s="116">
+        <v>12</v>
+      </c>
+      <c r="C116" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D116" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E116" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I116" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="J116" s="32">
+        <f>IF(ABS(R113)&gt;ABS(S113),R113,S113)</f>
+        <v>581.31262783912507</v>
+      </c>
+      <c r="K116" s="32">
+        <f>IF(ABS(R114)&gt;ABS(S114),R114,S114)</f>
+        <v>-652.49376594187515</v>
+      </c>
+      <c r="L116" s="32">
+        <f>IF(ABS(R115)&gt;ABS(S115),R115,S115)</f>
+        <v>-699.94785801037506</v>
+      </c>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="R116" s="1">
+        <f>qh*(C119-0.18)</f>
+        <v>11.863523017125011</v>
+      </c>
+      <c r="S116" s="1">
+        <f>qh*(C119+0.18)</f>
+        <v>225.40693732537503</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A117" s="104"/>
+      <c r="B117" s="117"/>
+      <c r="C117" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="D117" s="32">
+        <v>-0.92</v>
+      </c>
+      <c r="E117" s="32">
+        <v>-1</v>
+      </c>
+      <c r="I117" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="J117" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="K117" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="L117" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+      <c r="R117" s="1">
+        <f>qh*(D119-0.18)</f>
+        <v>-759.26547309600005</v>
+      </c>
+      <c r="S117" s="1">
+        <f>qh*(D119+0.18)</f>
+        <v>-545.72205878775014</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A118" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="B118" s="116">
+        <v>12</v>
+      </c>
+      <c r="C118" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E118" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H118"/>
+      <c r="I118" s="79"/>
+      <c r="J118" s="25" t="str">
+        <f>IF(ABS(R116)&gt;ABS(S116),R112,S112)</f>
+        <v>-GCpi</v>
+      </c>
+      <c r="K118" s="25" t="str">
+        <f>IF(ABS(R117)&gt;ABS(S117),R112,S112)</f>
+        <v>+GCpi</v>
+      </c>
+      <c r="L118" s="25" t="str">
+        <f>IF(ABS(R118)&gt;ABS(S118),R112,S112)</f>
+        <v>+GCpi</v>
+      </c>
       <c r="M118"/>
       <c r="N118"/>
       <c r="O118"/>
       <c r="P118"/>
       <c r="Q118"/>
-    </row>
-    <row r="119" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="B119" s="1"/>
-      <c r="K119"/>
-      <c r="L119"/>
+      <c r="R118" s="1">
+        <f>qh*(E119-0.18)</f>
+        <v>-1055.853548524125</v>
+      </c>
+      <c r="S118" s="1">
+        <f>qh*(E119+0.18)</f>
+        <v>-842.31013421587511</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A119" s="104"/>
+      <c r="B119" s="117"/>
+      <c r="C119" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="D119" s="32">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="E119" s="32">
+        <v>-1.6</v>
+      </c>
+      <c r="H119"/>
+      <c r="I119" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J119" s="32">
+        <f>IF(ABS(R116)&gt;ABS(S116),R116,S116)</f>
+        <v>225.40693732537503</v>
+      </c>
+      <c r="K119" s="32">
+        <f>IF(ABS(R117)&gt;ABS(S117),R117,S117)</f>
+        <v>-759.26547309600005</v>
+      </c>
+      <c r="L119" s="32">
+        <f>IF(ABS(R118)&gt;ABS(S118),R118,S118)</f>
+        <v>-1055.853548524125</v>
+      </c>
       <c r="M119"/>
       <c r="N119"/>
       <c r="O119"/>
       <c r="P119"/>
       <c r="Q119"/>
     </row>
-    <row r="120" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A120"/>
-      <c r="B120"/>
-      <c r="C120"/>
-      <c r="D120"/>
-      <c r="E120"/>
-      <c r="F120"/>
-      <c r="G120"/>
+    <row r="120" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H120"/>
-      <c r="I120"/>
-      <c r="J120"/>
-      <c r="K120"/>
-      <c r="L120"/>
-      <c r="M120"/>
-      <c r="N120"/>
-      <c r="O120"/>
       <c r="P120"/>
       <c r="Q120"/>
     </row>
-    <row r="121" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A121"/>
-      <c r="B121"/>
-      <c r="C121"/>
-      <c r="D121"/>
-      <c r="E121"/>
-      <c r="F121"/>
-      <c r="G121"/>
       <c r="H121"/>
-      <c r="I121"/>
-      <c r="J121"/>
-      <c r="K121"/>
-      <c r="L121"/>
       <c r="M121"/>
       <c r="N121"/>
       <c r="O121"/>
       <c r="P121"/>
       <c r="Q121"/>
     </row>
-    <row r="122" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A122"/>
-      <c r="B122"/>
-      <c r="C122"/>
-      <c r="D122"/>
-      <c r="E122"/>
-      <c r="F122"/>
-      <c r="G122"/>
       <c r="H122"/>
-      <c r="I122"/>
-      <c r="J122"/>
-      <c r="K122"/>
-      <c r="L122"/>
-      <c r="M122"/>
-      <c r="N122"/>
-      <c r="O122"/>
       <c r="P122"/>
       <c r="Q122"/>
     </row>
-    <row r="123" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A123"/>
-      <c r="B123"/>
-      <c r="C123"/>
-      <c r="D123"/>
-      <c r="E123"/>
-      <c r="F123"/>
-      <c r="G123"/>
       <c r="H123"/>
-      <c r="I123"/>
-      <c r="J123"/>
-      <c r="K123"/>
-      <c r="L123"/>
-      <c r="M123"/>
-      <c r="N123"/>
-      <c r="O123"/>
       <c r="P123"/>
       <c r="Q123"/>
     </row>
-    <row r="124" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A124"/>
-      <c r="B124"/>
-      <c r="C124"/>
-      <c r="D124"/>
-      <c r="E124"/>
-      <c r="F124"/>
-      <c r="G124"/>
       <c r="H124"/>
-      <c r="I124"/>
-      <c r="J124"/>
-      <c r="K124"/>
-      <c r="L124"/>
-      <c r="M124"/>
-      <c r="N124"/>
-      <c r="O124"/>
       <c r="P124"/>
       <c r="Q124"/>
     </row>
-    <row r="125" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A125"/>
-      <c r="B125"/>
-      <c r="C125"/>
-      <c r="D125"/>
-      <c r="E125"/>
-      <c r="F125"/>
-      <c r="G125"/>
       <c r="H125"/>
-      <c r="I125"/>
-      <c r="J125"/>
-      <c r="K125"/>
-      <c r="L125"/>
       <c r="M125"/>
       <c r="N125"/>
       <c r="O125"/>
       <c r="P125"/>
       <c r="Q125"/>
     </row>
-    <row r="126" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A126"/>
-      <c r="B126"/>
-      <c r="C126"/>
-      <c r="D126"/>
-      <c r="E126"/>
-      <c r="F126"/>
-      <c r="G126"/>
       <c r="H126"/>
       <c r="I126"/>
       <c r="J126"/>
@@ -7307,7 +7521,7 @@
       <c r="P126"/>
       <c r="Q126"/>
     </row>
-    <row r="127" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -7326,7 +7540,7 @@
       <c r="P127"/>
       <c r="Q127"/>
     </row>
-    <row r="128" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -7345,7 +7559,7 @@
       <c r="P128"/>
       <c r="Q128"/>
     </row>
-    <row r="129" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -7364,7 +7578,7 @@
       <c r="P129"/>
       <c r="Q129"/>
     </row>
-    <row r="130" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -7383,7 +7597,7 @@
       <c r="P130"/>
       <c r="Q130"/>
     </row>
-    <row r="131" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -7402,7 +7616,7 @@
       <c r="P131"/>
       <c r="Q131"/>
     </row>
-    <row r="132" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -7421,7 +7635,7 @@
       <c r="P132"/>
       <c r="Q132"/>
     </row>
-    <row r="133" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -7440,7 +7654,7 @@
       <c r="P133"/>
       <c r="Q133"/>
     </row>
-    <row r="134" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -7459,7 +7673,7 @@
       <c r="P134"/>
       <c r="Q134"/>
     </row>
-    <row r="135" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -7478,7 +7692,7 @@
       <c r="P135"/>
       <c r="Q135"/>
     </row>
-    <row r="136" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -7497,7 +7711,7 @@
       <c r="P136"/>
       <c r="Q136"/>
     </row>
-    <row r="137" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -7516,7 +7730,7 @@
       <c r="P137"/>
       <c r="Q137"/>
     </row>
-    <row r="138" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -7535,7 +7749,7 @@
       <c r="P138"/>
       <c r="Q138"/>
     </row>
-    <row r="139" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -7554,11 +7768,91 @@
       <c r="P139"/>
       <c r="Q139"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="93">
+  <mergeCells count="104">
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="I112:L113"/>
+    <mergeCell ref="I114:I115"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="C114:E115"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="E98:G99"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="I97:O97"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="U99:W99"/>
     <mergeCell ref="R99:T99"/>
     <mergeCell ref="R98:W98"/>
@@ -7583,75 +7877,6 @@
     <mergeCell ref="I103:I104"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="A97:G97"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="E98:G99"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="I97:O97"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A56:A57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7664,68 +7889,92 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BE5F21-BF7D-433C-901E-F3C9D2F5C0DC}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B1">
         <v>3.46</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B2">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>6.66</v>
+      </c>
+      <c r="I2">
+        <v>0.44</v>
+      </c>
+      <c r="J2">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B3">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B5">
         <f>B3/B2</f>
         <v>104.16666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B7">
         <f>B5*SQRT(235/200000)/PI()</f>
         <v>1.1365742893588737</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B9">
         <f>0.658^(B7^2)*235</f>
         <v>136.85222694721449</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B11">
         <f>0.85*B9*B1*0.1</f>

--- a/Proyectos/23-010_TAYARA_Nave/01_Hojas de calculo/23-010_HC_ANALISIS DE VIENTO_R00_V00.xlsx
+++ b/Proyectos/23-010_TAYARA_Nave/01_Hojas de calculo/23-010_HC_ANALISIS DE VIENTO_R00_V00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sigma\Proyectos\23-010_TAYARA_Nave\01_Hojas de calculo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andres\Sigma\Proyectos\23-010_TAYARA_Nave\01_Hojas de calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137E4F04-C9AD-42A1-95F1-83C680879384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A767D3-B4A0-4924-8F08-88DFBEA4C0B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2505" yWindow="2505" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SE-Cat B TR=50" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="t">#REF!</definedName>
     <definedName name="u">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,12 +38,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -51,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="144">
   <si>
     <t>0-5</t>
   </si>
@@ -496,16 +491,10 @@
     <t>P/ ciudad de Fontana con TR=25 años.</t>
   </si>
   <si>
-    <t>pend</t>
-  </si>
-  <si>
-    <t>Lr</t>
-  </si>
-  <si>
-    <t>Wcorreas</t>
-  </si>
-  <si>
     <t>Área</t>
+  </si>
+  <si>
+    <t>2Pd</t>
   </si>
 </sst>
 </file>
@@ -1043,9 +1032,219 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1061,215 +1260,8 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1279,9 +1271,6 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3035,42 +3024,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB67DB9-8AB6-4155-B273-EF7216B1EE19}">
   <dimension ref="A1:W140"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="11.5546875" style="1"/>
-    <col min="10" max="10" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.5546875" style="1"/>
+    <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="11.5703125" style="1"/>
+    <col min="10" max="10" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+    <row r="1" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="140"/>
-    </row>
-    <row r="2" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="141"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="143"/>
-    </row>
-    <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3086,11 +3075,11 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="144" t="s">
+    <row r="4" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="145"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3104,7 +3093,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="60" t="s">
         <v>88</v>
       </c>
@@ -3124,7 +3113,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="60" t="s">
         <v>87</v>
       </c>
@@ -3144,7 +3133,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="60" t="s">
         <v>89</v>
       </c>
@@ -3152,7 +3141,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="60" t="s">
         <v>90</v>
       </c>
@@ -3160,7 +3149,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="60" t="s">
         <v>102</v>
       </c>
@@ -3168,7 +3157,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="61" t="s">
         <v>101</v>
       </c>
@@ -3176,7 +3165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="61" t="s">
         <v>99</v>
       </c>
@@ -3184,7 +3173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="61" t="s">
         <v>100</v>
       </c>
@@ -3192,156 +3181,156 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="146" t="s">
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="146"/>
-      <c r="C14" s="147" t="s">
+      <c r="B14" s="83"/>
+      <c r="C14" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="148"/>
-    </row>
-    <row r="15" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D14" s="85"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="61" t="s">
         <v>91</v>
       </c>
       <c r="B15" s="54">
         <v>45</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="131"/>
+      <c r="D15" s="74"/>
       <c r="I15" s="59" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="61" t="s">
         <v>94</v>
       </c>
       <c r="B16" s="55">
         <v>0.85</v>
       </c>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="131"/>
+      <c r="D16" s="74"/>
       <c r="I16" s="59" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
         <v>103</v>
       </c>
       <c r="B17" s="56">
         <v>1</v>
       </c>
-      <c r="C17" s="130" t="s">
+      <c r="C17" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="131"/>
+      <c r="D17" s="74"/>
       <c r="I17" s="59" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="61" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="130" t="s">
+      <c r="C18" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="131"/>
+      <c r="D18" s="74"/>
       <c r="I18" s="59" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="61" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="55">
         <v>1</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="131"/>
+      <c r="D19" s="74"/>
       <c r="I19" s="59" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="61" t="s">
         <v>95</v>
       </c>
       <c r="B20" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="132" t="s">
+      <c r="C20" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="133"/>
+      <c r="D20" s="88"/>
       <c r="I20" s="59">
         <v>5.6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="134" t="s">
+    <row r="23" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="135"/>
-      <c r="C23" s="135"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="136"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="91"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="83" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83" t="s">
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="83"/>
+      <c r="E28" s="92"/>
       <c r="I28" s="59" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="79" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="93" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -3350,13 +3339,13 @@
       <c r="C29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="137" t="s">
+      <c r="D29" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="137"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="79"/>
+      <c r="E29" s="94"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="93"/>
       <c r="B30" s="6" t="s">
         <v>9</v>
       </c>
@@ -3364,12 +3353,12 @@
         <f>B20</f>
         <v>B</v>
       </c>
-      <c r="D30" s="79" t="s">
+      <c r="D30" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="79"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E30" s="93"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>1</v>
       </c>
@@ -3379,13 +3368,13 @@
       <c r="C31" s="54">
         <v>0.59</v>
       </c>
-      <c r="D31" s="118">
+      <c r="D31" s="86">
         <f>0.613*C31*$B$17*$B$16*$B$15^2*$B$19</f>
         <v>622.52448750000008</v>
       </c>
-      <c r="E31" s="118"/>
-    </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="86"/>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>2</v>
       </c>
@@ -3395,13 +3384,13 @@
       <c r="C32" s="54">
         <v>0.63</v>
       </c>
-      <c r="D32" s="118">
+      <c r="D32" s="86">
         <f t="shared" ref="D32:D35" si="0">0.613*C32*$B$17*$B$16*$B$15^2*$B$19</f>
         <v>664.72953749999999</v>
       </c>
-      <c r="E32" s="118"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E32" s="86"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="38" t="s">
         <v>58</v>
       </c>
@@ -3412,16 +3401,16 @@
       <c r="C33" s="7">
         <v>0.65</v>
       </c>
-      <c r="D33" s="118">
+      <c r="D33" s="86">
         <f t="shared" si="0"/>
         <v>685.83206250000001</v>
       </c>
-      <c r="E33" s="118"/>
+      <c r="E33" s="86"/>
       <c r="F33" s="62" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>3</v>
       </c>
@@ -3431,13 +3420,13 @@
       <c r="C34" s="7">
         <v>0.94</v>
       </c>
-      <c r="D34" s="118">
+      <c r="D34" s="86">
         <f t="shared" si="0"/>
         <v>991.81867499999998</v>
       </c>
-      <c r="E34" s="118"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E34" s="86"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
@@ -3447,24 +3436,24 @@
       <c r="C35" s="7">
         <v>0.66</v>
       </c>
-      <c r="D35" s="118">
+      <c r="D35" s="86">
         <f t="shared" si="0"/>
         <v>696.38332500000001</v>
       </c>
-      <c r="E35" s="118"/>
-    </row>
-    <row r="36" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="119" t="s">
+      <c r="E35" s="86"/>
+    </row>
+    <row r="36" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="120"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="121"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="102"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="103"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -3473,7 +3462,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -3482,7 +3471,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -3491,44 +3480,44 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="122" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="122"/>
-      <c r="C42" s="122"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="122"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B43" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="86" t="s">
+      <c r="C43" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="79" t="s">
+      <c r="D43" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="79" t="s">
+      <c r="E43" s="93" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B44" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="86"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="105"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="31">
         <f>B8</f>
         <v>7.2</v>
@@ -3550,44 +3539,44 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="83" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="83"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
+      <c r="B47" s="92"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="92"/>
       <c r="I47" s="59" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="123" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="124"/>
-      <c r="C48" s="125"/>
-      <c r="D48" s="73" t="s">
+      <c r="B48" s="107"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="73"/>
+      <c r="E48" s="109"/>
       <c r="F48" s="39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="126" t="s">
+      <c r="B49" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="127"/>
+      <c r="C49" s="111"/>
       <c r="D49" s="26" t="s">
         <v>29</v>
       </c>
@@ -3598,14 +3587,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="128" t="s">
+      <c r="B50" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="129"/>
+      <c r="C50" s="113"/>
       <c r="D50" s="11" t="s">
         <v>28</v>
       </c>
@@ -3616,14 +3605,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="81" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="107" t="s">
+      <c r="B51" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="108"/>
+      <c r="C51" s="98"/>
       <c r="D51" s="31">
         <f>B6/B5</f>
         <v>2.5</v>
@@ -3631,16 +3620,16 @@
       <c r="E51" s="7">
         <v>-0.3</v>
       </c>
-      <c r="F51" s="116" t="s">
+      <c r="F51" s="99" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="82"/>
-      <c r="B52" s="107" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="96"/>
+      <c r="B52" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="108"/>
+      <c r="C52" s="98"/>
       <c r="D52" s="31">
         <f>1/D51</f>
         <v>0.4</v>
@@ -3648,16 +3637,16 @@
       <c r="E52" s="7">
         <v>-0.5</v>
       </c>
-      <c r="F52" s="117"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F52" s="100"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="107" t="s">
+      <c r="B53" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="108"/>
+      <c r="C53" s="98"/>
       <c r="D53" s="31" t="s">
         <v>28</v>
       </c>
@@ -3668,148 +3657,148 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="109" t="s">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="114" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="110"/>
-      <c r="C55" s="110"/>
-      <c r="D55" s="110"/>
-      <c r="E55" s="111"/>
+      <c r="B55" s="115"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="115"/>
+      <c r="E55" s="116"/>
       <c r="I55" s="59" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="112" t="s">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="B56" s="112" t="s">
+      <c r="B56" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="113" t="s">
+      <c r="C56" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="D56" s="114"/>
-      <c r="E56" s="115"/>
-    </row>
-    <row r="57" spans="1:9" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="84"/>
-      <c r="B57" s="84"/>
-      <c r="C57" s="113" t="str">
+      <c r="D56" s="120"/>
+      <c r="E56" s="121"/>
+    </row>
+    <row r="57" spans="1:9" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="118"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="119" t="str">
         <f>B9</f>
         <v>3,81º</v>
       </c>
-      <c r="D57" s="114"/>
-      <c r="E57" s="115"/>
-    </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="81" t="s">
+      <c r="D57" s="120"/>
+      <c r="E57" s="121"/>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="90">
+      <c r="B58" s="122">
         <f>B8/B5</f>
         <v>0.6</v>
       </c>
       <c r="C58" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D58" s="102">
+      <c r="D58" s="124">
         <v>-0.9</v>
       </c>
-      <c r="E58" s="103"/>
-    </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="82"/>
-      <c r="B59" s="92"/>
+      <c r="E58" s="125"/>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="96"/>
+      <c r="B59" s="123"/>
       <c r="C59" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="102">
+      <c r="D59" s="124">
         <v>-0.5</v>
       </c>
-      <c r="E59" s="103"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="83" t="s">
+      <c r="E59" s="125"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="83"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
+      <c r="B61" s="92"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="92"/>
       <c r="I61" s="59" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="79" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="B62" s="79" t="s">
+      <c r="B62" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="79" t="s">
+      <c r="C62" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="D62" s="79"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="79" t="s">
+      <c r="D62" s="93"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="93" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="79"/>
-      <c r="B63" s="79"/>
-      <c r="C63" s="79"/>
-      <c r="D63" s="79"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="79"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="104" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="93"/>
+      <c r="B63" s="93"/>
+      <c r="C63" s="93"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="93"/>
+      <c r="F63" s="93"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="105">
+      <c r="B64" s="127">
         <f>B8/B6</f>
         <v>0.24000000000000002</v>
       </c>
-      <c r="C64" s="106" t="s">
+      <c r="C64" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="106"/>
-      <c r="E64" s="106"/>
+      <c r="D64" s="128"/>
+      <c r="E64" s="128"/>
       <c r="F64" s="54">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="104"/>
-      <c r="B65" s="105"/>
-      <c r="C65" s="106" t="s">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="126"/>
+      <c r="B65" s="127"/>
+      <c r="C65" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="106"/>
-      <c r="E65" s="106"/>
+      <c r="D65" s="128"/>
+      <c r="E65" s="128"/>
       <c r="F65" s="54">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="104"/>
-      <c r="B66" s="105"/>
-      <c r="C66" s="106" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="126"/>
+      <c r="B66" s="127"/>
+      <c r="C66" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="D66" s="106"/>
-      <c r="E66" s="106"/>
+      <c r="D66" s="128"/>
+      <c r="E66" s="128"/>
       <c r="F66" s="54">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="49"/>
       <c r="C67" s="3"/>
@@ -3817,64 +3806,64 @@
       <c r="E67" s="3"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="83" t="s">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="B68" s="83"/>
-      <c r="C68" s="83"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="83"/>
-    </row>
-    <row r="69" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B68" s="92"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="92"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B69" s="99" t="s">
+      <c r="B69" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="C69" s="99"/>
-      <c r="D69" s="99"/>
-      <c r="E69" s="99"/>
-      <c r="F69" s="99"/>
+      <c r="C69" s="129"/>
+      <c r="D69" s="129"/>
+      <c r="E69" s="129"/>
+      <c r="F69" s="129"/>
       <c r="I69" s="59" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="100" t="s">
+    <row r="71" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="B71" s="100"/>
-      <c r="C71" s="100"/>
-      <c r="D71" s="100"/>
-      <c r="E71" s="100"/>
-      <c r="F71" s="100"/>
-    </row>
-    <row r="72" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="84" t="s">
+      <c r="B71" s="130"/>
+      <c r="C71" s="130"/>
+      <c r="D71" s="130"/>
+      <c r="E71" s="130"/>
+      <c r="F71" s="130"/>
+    </row>
+    <row r="72" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="B72" s="85" t="s">
+      <c r="B72" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="C72" s="85" t="s">
+      <c r="C72" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="D72" s="101" t="s">
+      <c r="D72" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="E72" s="84" t="s">
+      <c r="E72" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="F72" s="84"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="79"/>
-      <c r="B73" s="86"/>
-      <c r="C73" s="86"/>
-      <c r="D73" s="84"/>
+      <c r="F72" s="118"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="93"/>
+      <c r="B73" s="105"/>
+      <c r="C73" s="105"/>
+      <c r="D73" s="118"/>
       <c r="E73" s="25" t="s">
         <v>53</v>
       </c>
@@ -3882,8 +3871,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="81" t="s">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="95" t="s">
         <v>25</v>
       </c>
       <c r="B74" s="31" t="s">
@@ -3906,8 +3895,8 @@
         <v>546.76642275000006</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="82"/>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="96"/>
       <c r="B75" s="31">
         <f>B35</f>
         <v>7.6</v>
@@ -3929,7 +3918,7 @@
         <v>596.99043225000003</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
         <v>26</v>
       </c>
@@ -3953,7 +3942,7 @@
         <v>-168.02885531249999</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
         <v>56</v>
       </c>
@@ -3977,8 +3966,8 @@
         <v>-284.62030593750001</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="81" t="s">
+    <row r="78" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="95" t="s">
         <v>3</v>
       </c>
       <c r="B78" s="35" t="s">
@@ -4001,8 +3990,8 @@
         <v>-401.2117565625</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="82"/>
+    <row r="79" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="96"/>
       <c r="B79" s="48" t="s">
         <v>85</v>
       </c>
@@ -4023,7 +4012,7 @@
         <v>-168.02885531249999</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I80" s="13" t="s">
         <v>34</v>
       </c>
@@ -4032,39 +4021,39 @@
         <v>685.83206250000001</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="83" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="B81" s="83"/>
-      <c r="C81" s="83"/>
-      <c r="D81" s="83"/>
-      <c r="E81" s="83"/>
-      <c r="F81" s="83"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="84" t="s">
+      <c r="B81" s="92"/>
+      <c r="C81" s="92"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="92"/>
+      <c r="F81" s="92"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="B82" s="85" t="s">
+      <c r="B82" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="85" t="s">
+      <c r="C82" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="D82" s="84" t="s">
+      <c r="D82" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="E82" s="87" t="s">
+      <c r="E82" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="F82" s="88"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="79"/>
-      <c r="B83" s="86"/>
-      <c r="C83" s="86"/>
-      <c r="D83" s="79"/>
+      <c r="F82" s="135"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="93"/>
+      <c r="B83" s="105"/>
+      <c r="C83" s="105"/>
+      <c r="D83" s="93"/>
       <c r="E83" s="25" t="s">
         <v>53</v>
       </c>
@@ -4072,8 +4061,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="81" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="95" t="s">
         <v>25</v>
       </c>
       <c r="B84" s="31" t="str">
@@ -4084,7 +4073,7 @@
         <f>D31</f>
         <v>622.52448750000008</v>
       </c>
-      <c r="D84" s="90">
+      <c r="D84" s="122">
         <f>E50</f>
         <v>0.8</v>
       </c>
@@ -4097,8 +4086,8 @@
         <v>546.76642275000006</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="89"/>
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="136"/>
       <c r="B85" s="31">
         <f>B32</f>
         <v>6.4</v>
@@ -4107,7 +4096,7 @@
         <f>D32</f>
         <v>664.72953749999999</v>
       </c>
-      <c r="D85" s="91"/>
+      <c r="D85" s="137"/>
       <c r="E85" s="27">
         <f t="shared" ref="E85:E88" si="3">+(C85*0.85*$D$84)-($J$80*0.18)</f>
         <v>328.56631425</v>
@@ -4117,8 +4106,8 @@
         <v>575.46585675000006</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="89"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="136"/>
       <c r="B86" s="31">
         <f>B33</f>
         <v>7.2</v>
@@ -4127,7 +4116,7 @@
         <f>D33</f>
         <v>685.83206250000001</v>
       </c>
-      <c r="D86" s="91"/>
+      <c r="D86" s="137"/>
       <c r="E86" s="27">
         <f t="shared" si="3"/>
         <v>342.91603124999995</v>
@@ -4137,8 +4126,8 @@
         <v>589.81557375</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="89"/>
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="136"/>
       <c r="B87" s="31">
         <f>B34</f>
         <v>7.57</v>
@@ -4147,7 +4136,7 @@
         <f>D34</f>
         <v>991.81867499999998</v>
       </c>
-      <c r="D87" s="91"/>
+      <c r="D87" s="137"/>
       <c r="E87" s="27">
         <f t="shared" si="3"/>
         <v>550.98692774999995</v>
@@ -4157,8 +4146,8 @@
         <v>797.88647025</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="82"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="96"/>
       <c r="B88" s="31">
         <f>B35</f>
         <v>7.6</v>
@@ -4167,7 +4156,7 @@
         <f>D35</f>
         <v>696.38332500000001</v>
       </c>
-      <c r="D88" s="92"/>
+      <c r="D88" s="123"/>
       <c r="E88" s="27">
         <f t="shared" si="3"/>
         <v>350.09088974999997</v>
@@ -4177,7 +4166,7 @@
         <v>596.99043225000003</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
         <v>26</v>
       </c>
@@ -4201,7 +4190,7 @@
         <v>-51.437404687499992</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
         <v>27</v>
       </c>
@@ -4225,8 +4214,8 @@
         <v>-284.62030593750001</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="93" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="138" t="s">
         <v>3</v>
       </c>
       <c r="B91" s="31" t="s">
@@ -4249,8 +4238,8 @@
         <v>-401.2117565625</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="93"/>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="138"/>
       <c r="B92" s="31" t="s">
         <v>48</v>
       </c>
@@ -4271,8 +4260,8 @@
         <v>-168.02885531249999</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="93"/>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="138"/>
       <c r="B93" s="31" t="s">
         <v>49</v>
       </c>
@@ -4293,52 +4282,52 @@
         <v>-51.437404687499992</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="57"/>
       <c r="C94" s="58"/>
       <c r="D94" s="58"/>
       <c r="E94" s="58"/>
       <c r="F94" s="58"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="94" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="B96" s="95"/>
-      <c r="C96" s="95"/>
-      <c r="D96" s="95"/>
-      <c r="E96" s="95"/>
-      <c r="F96" s="95"/>
+      <c r="B96" s="140"/>
+      <c r="C96" s="140"/>
+      <c r="D96" s="140"/>
+      <c r="E96" s="140"/>
+      <c r="F96" s="140"/>
       <c r="G96" s="37"/>
     </row>
-    <row r="97" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="96" t="s">
+    <row r="97" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="B97" s="97"/>
-      <c r="C97" s="97"/>
-      <c r="D97" s="97"/>
-      <c r="E97" s="97"/>
-      <c r="F97" s="97"/>
-      <c r="G97" s="98"/>
-      <c r="I97" s="80" t="s">
+      <c r="B97" s="142"/>
+      <c r="C97" s="142"/>
+      <c r="D97" s="142"/>
+      <c r="E97" s="142"/>
+      <c r="F97" s="142"/>
+      <c r="G97" s="143"/>
+      <c r="I97" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="J97" s="80"/>
-      <c r="K97" s="80"/>
-      <c r="L97" s="80"/>
-      <c r="M97" s="80"/>
-      <c r="N97" s="80"/>
-      <c r="O97" s="80"/>
+      <c r="J97" s="133"/>
+      <c r="K97" s="133"/>
+      <c r="L97" s="133"/>
+      <c r="M97" s="133"/>
+      <c r="N97" s="133"/>
+      <c r="O97" s="133"/>
       <c r="R97"/>
       <c r="S97"/>
       <c r="T97"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A98" s="79" t="s">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A98" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="B98" s="79" t="s">
+      <c r="B98" s="93" t="s">
         <v>75</v>
       </c>
       <c r="C98" s="16" t="s">
@@ -4347,48 +4336,48 @@
       <c r="D98" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E98" s="79" t="s">
+      <c r="E98" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="F98" s="79"/>
-      <c r="G98" s="79"/>
-      <c r="I98" s="75" t="s">
+      <c r="F98" s="93"/>
+      <c r="G98" s="93"/>
+      <c r="I98" s="145" t="s">
         <v>69</v>
       </c>
-      <c r="J98" s="73" t="s">
+      <c r="J98" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="K98" s="73"/>
-      <c r="L98" s="73" t="s">
+      <c r="K98" s="109"/>
+      <c r="L98" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="M98" s="73"/>
-      <c r="N98" s="73" t="s">
+      <c r="M98" s="109"/>
+      <c r="N98" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="O98" s="73"/>
-      <c r="R98" s="74" t="s">
+      <c r="O98" s="109"/>
+      <c r="R98" s="144" t="s">
         <v>118</v>
       </c>
-      <c r="S98" s="74"/>
-      <c r="T98" s="74"/>
-      <c r="U98" s="74"/>
-      <c r="V98" s="74"/>
-      <c r="W98" s="74"/>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A99" s="79"/>
-      <c r="B99" s="79"/>
+      <c r="S98" s="144"/>
+      <c r="T98" s="144"/>
+      <c r="U98" s="144"/>
+      <c r="V98" s="144"/>
+      <c r="W98" s="144"/>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A99" s="93"/>
+      <c r="B99" s="93"/>
       <c r="C99" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D99" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E99" s="79"/>
-      <c r="F99" s="79"/>
-      <c r="G99" s="79"/>
-      <c r="I99" s="75"/>
+      <c r="E99" s="93"/>
+      <c r="F99" s="93"/>
+      <c r="G99" s="93"/>
+      <c r="I99" s="145"/>
       <c r="J99" s="50" t="s">
         <v>111</v>
       </c>
@@ -4407,19 +4396,19 @@
       <c r="O99" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="R99" s="75" t="s">
+      <c r="R99" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="S99" s="75"/>
-      <c r="T99" s="75"/>
-      <c r="U99" s="75" t="s">
+      <c r="S99" s="145"/>
+      <c r="T99" s="145"/>
+      <c r="U99" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="V99" s="75"/>
-      <c r="W99" s="75"/>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A100" s="76" t="s">
+      <c r="V99" s="145"/>
+      <c r="W99" s="145"/>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A100" s="146" t="s">
         <v>60</v>
       </c>
       <c r="B100" s="43"/>
@@ -4484,8 +4473,8 @@
         <v>-1220.78107125</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A101" s="77"/>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A101" s="147"/>
       <c r="B101" s="18" t="s">
         <v>64</v>
       </c>
@@ -4556,8 +4545,8 @@
         <v>-3552.6100837499998</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A102" s="77"/>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A102" s="147"/>
       <c r="B102" s="18" t="s">
         <v>65</v>
       </c>
@@ -4605,8 +4594,8 @@
         <v>-836.71511624999994</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A103" s="78"/>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A103" s="148"/>
       <c r="B103" s="30" t="s">
         <v>66</v>
       </c>
@@ -4626,24 +4615,24 @@
       <c r="G103" s="20">
         <v>-1.4</v>
       </c>
-      <c r="I103" s="75" t="s">
+      <c r="I103" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="J103" s="73" t="s">
+      <c r="J103" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="K103" s="73"/>
-      <c r="L103" s="73" t="s">
+      <c r="K103" s="109"/>
+      <c r="L103" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="M103" s="73"/>
-      <c r="N103" s="73" t="s">
+      <c r="M103" s="109"/>
+      <c r="N103" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="O103" s="73"/>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A104" s="76" t="s">
+      <c r="O103" s="109"/>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A104" s="146" t="s">
         <v>67</v>
       </c>
       <c r="B104" s="42"/>
@@ -4658,7 +4647,7 @@
       <c r="G104" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="I104" s="75"/>
+      <c r="I104" s="145"/>
       <c r="J104" s="39" t="s">
         <v>70</v>
       </c>
@@ -4678,8 +4667,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A105" s="77"/>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A105" s="147"/>
       <c r="B105" s="63" t="s">
         <v>68</v>
       </c>
@@ -4729,8 +4718,8 @@
         <v>-973.88152875000014</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A106" s="77"/>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A106" s="147"/>
       <c r="B106" s="29" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4768,8 @@
         <v>-1591.1303849999999</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A107" s="78"/>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A107" s="148"/>
       <c r="B107" s="31" t="s">
         <v>66</v>
       </c>
@@ -4828,10 +4817,10 @@
         <v>-1796.8800037499998</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B110" s="1"/>
       <c r="I110" s="33">
         <f>MAX(J100:O100)</f>
@@ -4842,28 +4831,28 @@
         <v>-802.423513125</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="K118"/>
       <c r="L118"/>
@@ -4873,7 +4862,7 @@
       <c r="P118"/>
       <c r="Q118"/>
     </row>
-    <row r="119" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="K119"/>
       <c r="L119"/>
@@ -4883,7 +4872,7 @@
       <c r="P119"/>
       <c r="Q119"/>
     </row>
-    <row r="120" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -4902,7 +4891,7 @@
       <c r="P120"/>
       <c r="Q120"/>
     </row>
-    <row r="121" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -4921,7 +4910,7 @@
       <c r="P121"/>
       <c r="Q121"/>
     </row>
-    <row r="122" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -4940,7 +4929,7 @@
       <c r="P122"/>
       <c r="Q122"/>
     </row>
-    <row r="123" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -4959,7 +4948,7 @@
       <c r="P123"/>
       <c r="Q123"/>
     </row>
-    <row r="124" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -4978,7 +4967,7 @@
       <c r="P124"/>
       <c r="Q124"/>
     </row>
-    <row r="125" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -4997,7 +4986,7 @@
       <c r="P125"/>
       <c r="Q125"/>
     </row>
-    <row r="126" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -5016,7 +5005,7 @@
       <c r="P126"/>
       <c r="Q126"/>
     </row>
-    <row r="127" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -5035,7 +5024,7 @@
       <c r="P127"/>
       <c r="Q127"/>
     </row>
-    <row r="128" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -5054,7 +5043,7 @@
       <c r="P128"/>
       <c r="Q128"/>
     </row>
-    <row r="129" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -5073,7 +5062,7 @@
       <c r="P129"/>
       <c r="Q129"/>
     </row>
-    <row r="130" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -5092,7 +5081,7 @@
       <c r="P130"/>
       <c r="Q130"/>
     </row>
-    <row r="131" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -5111,7 +5100,7 @@
       <c r="P131"/>
       <c r="Q131"/>
     </row>
-    <row r="132" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -5130,7 +5119,7 @@
       <c r="P132"/>
       <c r="Q132"/>
     </row>
-    <row r="133" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -5149,7 +5138,7 @@
       <c r="P133"/>
       <c r="Q133"/>
     </row>
-    <row r="134" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -5168,7 +5157,7 @@
       <c r="P134"/>
       <c r="Q134"/>
     </row>
-    <row r="135" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -5187,7 +5176,7 @@
       <c r="P135"/>
       <c r="Q135"/>
     </row>
-    <row r="136" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -5206,7 +5195,7 @@
       <c r="P136"/>
       <c r="Q136"/>
     </row>
-    <row r="137" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -5225,7 +5214,7 @@
       <c r="P137"/>
       <c r="Q137"/>
     </row>
-    <row r="138" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -5244,7 +5233,7 @@
       <c r="P138"/>
       <c r="Q138"/>
     </row>
-    <row r="139" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -5263,30 +5252,69 @@
       <c r="P139"/>
       <c r="Q139"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B140" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="R98:W98"/>
+    <mergeCell ref="R99:T99"/>
+    <mergeCell ref="U99:W99"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="E98:G99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="I97:O97"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A97:G97"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="F51:F52"/>
@@ -5303,64 +5331,25 @@
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="I97:O97"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A97:G97"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="R98:W98"/>
-    <mergeCell ref="R99:T99"/>
-    <mergeCell ref="U99:W99"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="J103:K103"/>
-    <mergeCell ref="L103:M103"/>
-    <mergeCell ref="N103:O103"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="E98:G99"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5372,42 +5361,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W140"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView showGridLines="0" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="11.5546875" style="1"/>
-    <col min="10" max="12" width="12.77734375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.5546875" style="1"/>
+    <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="11.5703125" style="1"/>
+    <col min="10" max="12" width="12.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+    <row r="1" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="140"/>
-    </row>
-    <row r="2" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="141"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="143"/>
-    </row>
-    <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -5423,11 +5412,11 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="144" t="s">
+    <row r="4" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="145"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -5441,7 +5430,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="60" t="s">
         <v>88</v>
       </c>
@@ -5461,7 +5450,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="60" t="s">
         <v>87</v>
       </c>
@@ -5481,7 +5470,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="60" t="s">
         <v>89</v>
       </c>
@@ -5489,7 +5478,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="60" t="s">
         <v>90</v>
       </c>
@@ -5497,7 +5486,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="60" t="s">
         <v>102</v>
       </c>
@@ -5505,7 +5494,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="61" t="s">
         <v>101</v>
       </c>
@@ -5513,7 +5502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="61" t="s">
         <v>99</v>
       </c>
@@ -5521,7 +5510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="61" t="s">
         <v>100</v>
       </c>
@@ -5529,21 +5518,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="146" t="s">
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="146"/>
-      <c r="C14" s="147" t="s">
+      <c r="B14" s="83"/>
+      <c r="C14" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="148"/>
-    </row>
-    <row r="15" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D14" s="85"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="61" t="s">
         <v>91</v>
       </c>
@@ -5551,135 +5540,135 @@
         <f>45*0.93</f>
         <v>41.85</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="131"/>
+      <c r="D15" s="74"/>
       <c r="I15" s="59" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="61" t="s">
         <v>94</v>
       </c>
       <c r="B16" s="71">
         <v>0.85</v>
       </c>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="131"/>
+      <c r="D16" s="74"/>
       <c r="I16" s="59" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
         <v>103</v>
       </c>
       <c r="B17" s="35">
         <v>1</v>
       </c>
-      <c r="C17" s="130" t="s">
+      <c r="C17" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="131"/>
+      <c r="D17" s="74"/>
       <c r="I17" s="59" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="61" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="130" t="s">
+      <c r="C18" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="131"/>
+      <c r="D18" s="74"/>
       <c r="I18" s="59" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="61" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="71">
         <v>1</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="131"/>
+      <c r="D19" s="74"/>
       <c r="I19" s="59" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="61" t="s">
         <v>95</v>
       </c>
       <c r="B20" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="132" t="s">
+      <c r="C20" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="133"/>
+      <c r="D20" s="88"/>
       <c r="I20" s="59">
         <v>5.6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="134" t="s">
+    <row r="23" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="135"/>
-      <c r="C23" s="135"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="136"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="91"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="83" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83" t="s">
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="83"/>
+      <c r="E28" s="92"/>
       <c r="I28" s="59" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="79" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="93" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -5688,13 +5677,13 @@
       <c r="C29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="137" t="s">
+      <c r="D29" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="137"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="79"/>
+      <c r="E29" s="94"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="93"/>
       <c r="B30" s="6" t="s">
         <v>9</v>
       </c>
@@ -5702,12 +5691,12 @@
         <f>B20</f>
         <v>B</v>
       </c>
-      <c r="D30" s="79" t="s">
+      <c r="D30" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="79"/>
-    </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="93"/>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>1</v>
       </c>
@@ -5717,13 +5706,13 @@
       <c r="C31" s="53">
         <v>0.87</v>
       </c>
-      <c r="D31" s="118">
+      <c r="D31" s="86">
         <f>0.613*C31*$B$17*$B$16*$B$15^2*$B$19</f>
         <v>793.94346345374993</v>
       </c>
-      <c r="E31" s="118"/>
-    </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="86"/>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>2</v>
       </c>
@@ -5733,13 +5722,13 @@
       <c r="C32" s="53">
         <v>0.91100000000000003</v>
       </c>
-      <c r="D32" s="118">
+      <c r="D32" s="86">
         <f t="shared" ref="D32:D35" si="0">0.613*C32*$B$17*$B$16*$B$15^2*$B$19</f>
         <v>831.35918989237507</v>
       </c>
-      <c r="E32" s="118"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E32" s="86"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>58</v>
       </c>
@@ -5750,11 +5739,11 @@
       <c r="C33" s="31">
         <v>0.65</v>
       </c>
-      <c r="D33" s="118">
+      <c r="D33" s="86">
         <f t="shared" si="0"/>
         <v>593.17615085625005</v>
       </c>
-      <c r="E33" s="118"/>
+      <c r="E33" s="86"/>
       <c r="F33" s="62" t="s">
         <v>34</v>
       </c>
@@ -5763,7 +5752,7 @@
         <v>0.65422183072694717</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>3</v>
       </c>
@@ -5773,13 +5762,13 @@
       <c r="C34" s="7">
         <v>0.94</v>
       </c>
-      <c r="D34" s="118">
+      <c r="D34" s="86">
         <f t="shared" si="0"/>
         <v>857.82397200750006</v>
       </c>
-      <c r="E34" s="118"/>
-    </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="86"/>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
@@ -5789,24 +5778,24 @@
       <c r="C35" s="7">
         <v>0.66</v>
       </c>
-      <c r="D35" s="118">
+      <c r="D35" s="86">
         <f t="shared" si="0"/>
         <v>602.3019377925001</v>
       </c>
-      <c r="E35" s="118"/>
-    </row>
-    <row r="36" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="119" t="s">
+      <c r="E35" s="86"/>
+    </row>
+    <row r="36" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="120"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="121"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="102"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="103"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -5815,7 +5804,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -5824,7 +5813,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -5833,44 +5822,44 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="122" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="122"/>
-      <c r="C42" s="122"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="122"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B43" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="86" t="s">
+      <c r="C43" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="79" t="s">
+      <c r="D43" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="79" t="s">
+      <c r="E43" s="93" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B44" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="86"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="105"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="31">
         <f>B8</f>
         <v>7.2</v>
@@ -5892,44 +5881,44 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="83" t="s">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="83"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
+      <c r="B47" s="92"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="92"/>
       <c r="I47" s="59" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="123" t="s">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="124"/>
-      <c r="C48" s="125"/>
-      <c r="D48" s="73" t="s">
+      <c r="B48" s="107"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="73"/>
+      <c r="E48" s="109"/>
       <c r="F48" s="39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="126" t="s">
+      <c r="B49" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="127"/>
+      <c r="C49" s="111"/>
       <c r="D49" s="26" t="s">
         <v>29</v>
       </c>
@@ -5940,14 +5929,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="128" t="s">
+      <c r="B50" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="129"/>
+      <c r="C50" s="113"/>
       <c r="D50" s="11" t="s">
         <v>28</v>
       </c>
@@ -5958,14 +5947,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="81" t="s">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="107" t="s">
+      <c r="B51" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="108"/>
+      <c r="C51" s="98"/>
       <c r="D51" s="31">
         <f>B11/B12</f>
         <v>1</v>
@@ -5973,16 +5962,16 @@
       <c r="E51" s="7">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="F51" s="116" t="s">
+      <c r="F51" s="99" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="82"/>
-      <c r="B52" s="107" t="s">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="96"/>
+      <c r="B52" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="108"/>
+      <c r="C52" s="98"/>
       <c r="D52" s="31">
         <f>1/D51</f>
         <v>1</v>
@@ -5990,16 +5979,16 @@
       <c r="E52" s="7">
         <v>-0.5</v>
       </c>
-      <c r="F52" s="117"/>
-    </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="100"/>
+    </row>
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="107" t="s">
+      <c r="B53" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="108"/>
+      <c r="C53" s="98"/>
       <c r="D53" s="31" t="s">
         <v>28</v>
       </c>
@@ -6010,148 +5999,148 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="109" t="s">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="114" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="110"/>
-      <c r="C55" s="110"/>
-      <c r="D55" s="110"/>
-      <c r="E55" s="111"/>
+      <c r="B55" s="115"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="115"/>
+      <c r="E55" s="116"/>
       <c r="I55" s="59" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="112" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="B56" s="112" t="s">
+      <c r="B56" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="113" t="s">
+      <c r="C56" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="D56" s="114"/>
-      <c r="E56" s="115"/>
-    </row>
-    <row r="57" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="84"/>
-      <c r="B57" s="84"/>
-      <c r="C57" s="113" t="str">
+      <c r="D56" s="120"/>
+      <c r="E56" s="121"/>
+    </row>
+    <row r="57" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="118"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="119" t="str">
         <f>B9</f>
         <v>3,81º</v>
       </c>
-      <c r="D57" s="114"/>
-      <c r="E57" s="115"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="81" t="s">
+      <c r="D57" s="120"/>
+      <c r="E57" s="121"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="90">
+      <c r="B58" s="122">
         <f>B8/B5</f>
         <v>0.6</v>
       </c>
       <c r="C58" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D58" s="102">
+      <c r="D58" s="124">
         <v>-0.9</v>
       </c>
-      <c r="E58" s="103"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="82"/>
-      <c r="B59" s="92"/>
+      <c r="E58" s="125"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="96"/>
+      <c r="B59" s="123"/>
       <c r="C59" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="102">
+      <c r="D59" s="124">
         <v>-0.5</v>
       </c>
-      <c r="E59" s="103"/>
-    </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="83" t="s">
+      <c r="E59" s="125"/>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="83"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
+      <c r="B61" s="92"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="92"/>
       <c r="I61" s="59" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="79" t="s">
+    <row r="62" spans="1:9" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="B62" s="79" t="s">
+      <c r="B62" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="79" t="s">
+      <c r="C62" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="D62" s="79"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="79" t="s">
+      <c r="D62" s="93"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="93" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="79"/>
-      <c r="B63" s="79"/>
-      <c r="C63" s="79"/>
-      <c r="D63" s="79"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="79"/>
-    </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="104" t="s">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="93"/>
+      <c r="B63" s="93"/>
+      <c r="C63" s="93"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="93"/>
+      <c r="F63" s="93"/>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="105">
+      <c r="B64" s="127">
         <f>B8/B6</f>
         <v>0.24000000000000002</v>
       </c>
-      <c r="C64" s="106" t="s">
+      <c r="C64" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="106"/>
-      <c r="E64" s="106"/>
+      <c r="D64" s="128"/>
+      <c r="E64" s="128"/>
       <c r="F64" s="54">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="104"/>
-      <c r="B65" s="105"/>
-      <c r="C65" s="106" t="s">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="126"/>
+      <c r="B65" s="127"/>
+      <c r="C65" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="106"/>
-      <c r="E65" s="106"/>
+      <c r="D65" s="128"/>
+      <c r="E65" s="128"/>
       <c r="F65" s="54">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="104"/>
-      <c r="B66" s="105"/>
-      <c r="C66" s="106" t="s">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="126"/>
+      <c r="B66" s="127"/>
+      <c r="C66" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="D66" s="106"/>
-      <c r="E66" s="106"/>
+      <c r="D66" s="128"/>
+      <c r="E66" s="128"/>
       <c r="F66" s="54">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="49"/>
       <c r="C67" s="3"/>
@@ -6159,64 +6148,64 @@
       <c r="E67" s="3"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="83" t="s">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="B68" s="83"/>
-      <c r="C68" s="83"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="83"/>
-    </row>
-    <row r="69" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B68" s="92"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="92"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B69" s="149" t="s">
+      <c r="B69" s="150" t="s">
         <v>107</v>
       </c>
-      <c r="C69" s="150"/>
-      <c r="D69" s="150"/>
-      <c r="E69" s="150"/>
-      <c r="F69" s="151"/>
+      <c r="C69" s="151"/>
+      <c r="D69" s="151"/>
+      <c r="E69" s="151"/>
+      <c r="F69" s="152"/>
       <c r="I69" s="59" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="100" t="s">
+    <row r="71" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="B71" s="100"/>
-      <c r="C71" s="100"/>
-      <c r="D71" s="100"/>
-      <c r="E71" s="100"/>
-      <c r="F71" s="100"/>
-    </row>
-    <row r="72" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="84" t="s">
+      <c r="B71" s="130"/>
+      <c r="C71" s="130"/>
+      <c r="D71" s="130"/>
+      <c r="E71" s="130"/>
+      <c r="F71" s="130"/>
+    </row>
+    <row r="72" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="B72" s="85" t="s">
+      <c r="B72" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="C72" s="85" t="s">
+      <c r="C72" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="D72" s="101" t="s">
+      <c r="D72" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="E72" s="84" t="s">
+      <c r="E72" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="F72" s="84"/>
-    </row>
-    <row r="73" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="79"/>
-      <c r="B73" s="86"/>
-      <c r="C73" s="86"/>
-      <c r="D73" s="84"/>
+      <c r="F72" s="118"/>
+    </row>
+    <row r="73" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="93"/>
+      <c r="B73" s="105"/>
+      <c r="C73" s="105"/>
+      <c r="D73" s="118"/>
       <c r="E73" s="25" t="s">
         <v>53</v>
       </c>
@@ -6224,8 +6213,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="81" t="s">
+    <row r="74" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="95" t="s">
         <v>25</v>
       </c>
       <c r="B74" s="31" t="s">
@@ -6248,8 +6237,8 @@
         <v>646.65326230267499</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="82"/>
+    <row r="75" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="96"/>
       <c r="B75" s="31">
         <f>B32</f>
         <v>6.4</v>
@@ -6271,7 +6260,7 @@
         <v>672.09595628094007</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
         <v>26</v>
       </c>
@@ -6295,7 +6284,7 @@
         <v>-145.32815695978124</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
         <v>56</v>
       </c>
@@ -6319,8 +6308,8 @@
         <v>-246.16810260534373</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="81" t="s">
+    <row r="78" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="95" t="s">
         <v>3</v>
       </c>
       <c r="B78" s="35" t="s">
@@ -6343,8 +6332,8 @@
         <v>-347.00804825090626</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="82"/>
+    <row r="79" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="96"/>
       <c r="B79" s="48" t="s">
         <v>85</v>
       </c>
@@ -6365,7 +6354,7 @@
         <v>-145.32815695978124</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="13.8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="13.9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I80" s="13" t="s">
         <v>34</v>
       </c>
@@ -6374,39 +6363,39 @@
         <v>593.17615085625005</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="83" t="s">
+    <row r="81" spans="1:7" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="B81" s="83"/>
-      <c r="C81" s="83"/>
-      <c r="D81" s="83"/>
-      <c r="E81" s="83"/>
-      <c r="F81" s="83"/>
-    </row>
-    <row r="82" spans="1:7" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="84" t="s">
+      <c r="B81" s="92"/>
+      <c r="C81" s="92"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="92"/>
+      <c r="F81" s="92"/>
+    </row>
+    <row r="82" spans="1:7" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="B82" s="85" t="s">
+      <c r="B82" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="85" t="s">
+      <c r="C82" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="D82" s="84" t="s">
+      <c r="D82" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="E82" s="87" t="s">
+      <c r="E82" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="F82" s="88"/>
-    </row>
-    <row r="83" spans="1:7" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="79"/>
-      <c r="B83" s="86"/>
-      <c r="C83" s="86"/>
-      <c r="D83" s="79"/>
+      <c r="F82" s="135"/>
+    </row>
+    <row r="83" spans="1:7" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="93"/>
+      <c r="B83" s="105"/>
+      <c r="C83" s="105"/>
+      <c r="D83" s="93"/>
       <c r="E83" s="25" t="s">
         <v>53</v>
       </c>
@@ -6414,8 +6403,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="81" t="s">
+    <row r="84" spans="1:7" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="95" t="s">
         <v>25</v>
       </c>
       <c r="B84" s="31" t="str">
@@ -6426,7 +6415,7 @@
         <f>D31</f>
         <v>793.94346345374993</v>
       </c>
-      <c r="D84" s="90">
+      <c r="D84" s="122">
         <f>E50</f>
         <v>0.8</v>
       </c>
@@ -6439,8 +6428,8 @@
         <v>646.65326230267499</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="89"/>
+    <row r="85" spans="1:7" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="136"/>
       <c r="B85" s="31">
         <f>B32</f>
         <v>6.4</v>
@@ -6449,7 +6438,7 @@
         <f>D32</f>
         <v>831.35918989237507</v>
       </c>
-      <c r="D85" s="91"/>
+      <c r="D85" s="137"/>
       <c r="E85" s="27">
         <f t="shared" ref="E85:E88" si="3">+(C85*0.85*$D$84)-($J$80*0.18)</f>
         <v>458.55254197269005</v>
@@ -6459,8 +6448,8 @@
         <v>672.09595628094007</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="89"/>
+    <row r="86" spans="1:7" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="136"/>
       <c r="B86" s="31">
         <f>B33</f>
         <v>7.2</v>
@@ -6469,7 +6458,7 @@
         <f>D33</f>
         <v>593.17615085625005</v>
       </c>
-      <c r="D86" s="91"/>
+      <c r="D86" s="137"/>
       <c r="E86" s="27">
         <f t="shared" si="3"/>
         <v>296.58807542812502</v>
@@ -6479,8 +6468,8 @@
         <v>510.13148973637504</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="89"/>
+    <row r="87" spans="1:7" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="136"/>
       <c r="B87" s="31">
         <f>B34</f>
         <v>7.57</v>
@@ -6489,7 +6478,7 @@
         <f>D34</f>
         <v>857.82397200750006</v>
       </c>
-      <c r="D87" s="91"/>
+      <c r="D87" s="137"/>
       <c r="E87" s="27">
         <f t="shared" si="3"/>
         <v>476.54859381097504</v>
@@ -6499,8 +6488,8 @@
         <v>690.09200811922506</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="82"/>
+    <row r="88" spans="1:7" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="96"/>
       <c r="B88" s="31">
         <f>B35</f>
         <v>7.6</v>
@@ -6509,7 +6498,7 @@
         <f>D35</f>
         <v>602.3019377925001</v>
       </c>
-      <c r="D88" s="92"/>
+      <c r="D88" s="123"/>
       <c r="E88" s="27">
         <f t="shared" si="3"/>
         <v>302.79361054477511</v>
@@ -6519,7 +6508,7 @@
         <v>516.33702485302513</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
         <v>26</v>
       </c>
@@ -6543,7 +6532,7 @@
         <v>-31.883218108523437</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
         <v>27</v>
       </c>
@@ -6567,8 +6556,8 @@
         <v>-246.16810260534373</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="93" t="s">
+    <row r="91" spans="1:7" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="138" t="s">
         <v>3</v>
       </c>
       <c r="B91" s="31" t="s">
@@ -6591,8 +6580,8 @@
         <v>-347.00804825090626</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="93"/>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="138"/>
       <c r="B92" s="31" t="s">
         <v>48</v>
       </c>
@@ -6613,8 +6602,8 @@
         <v>-145.32815695978124</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="93"/>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="138"/>
       <c r="B93" s="31" t="s">
         <v>49</v>
       </c>
@@ -6635,52 +6624,52 @@
         <v>-44.488211314218745</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="57"/>
       <c r="C94" s="58"/>
       <c r="D94" s="58"/>
       <c r="E94" s="58"/>
       <c r="F94" s="58"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="94" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="B96" s="95"/>
-      <c r="C96" s="95"/>
-      <c r="D96" s="95"/>
-      <c r="E96" s="95"/>
-      <c r="F96" s="95"/>
+      <c r="B96" s="140"/>
+      <c r="C96" s="140"/>
+      <c r="D96" s="140"/>
+      <c r="E96" s="140"/>
+      <c r="F96" s="140"/>
       <c r="G96" s="37"/>
     </row>
-    <row r="97" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="96" t="s">
+    <row r="97" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="B97" s="97"/>
-      <c r="C97" s="97"/>
-      <c r="D97" s="97"/>
-      <c r="E97" s="97"/>
-      <c r="F97" s="97"/>
-      <c r="G97" s="98"/>
-      <c r="I97" s="80" t="s">
+      <c r="B97" s="142"/>
+      <c r="C97" s="142"/>
+      <c r="D97" s="142"/>
+      <c r="E97" s="142"/>
+      <c r="F97" s="142"/>
+      <c r="G97" s="143"/>
+      <c r="I97" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="J97" s="80"/>
-      <c r="K97" s="80"/>
-      <c r="L97" s="80"/>
-      <c r="M97" s="80"/>
-      <c r="N97" s="80"/>
-      <c r="O97" s="80"/>
+      <c r="J97" s="133"/>
+      <c r="K97" s="133"/>
+      <c r="L97" s="133"/>
+      <c r="M97" s="133"/>
+      <c r="N97" s="133"/>
+      <c r="O97" s="133"/>
       <c r="R97"/>
       <c r="S97"/>
       <c r="T97"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A98" s="79" t="s">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A98" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="B98" s="79" t="s">
+      <c r="B98" s="93" t="s">
         <v>75</v>
       </c>
       <c r="C98" s="16" t="s">
@@ -6689,48 +6678,48 @@
       <c r="D98" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E98" s="79" t="s">
+      <c r="E98" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="F98" s="79"/>
-      <c r="G98" s="79"/>
-      <c r="I98" s="75" t="s">
+      <c r="F98" s="93"/>
+      <c r="G98" s="93"/>
+      <c r="I98" s="145" t="s">
         <v>69</v>
       </c>
-      <c r="J98" s="73" t="s">
+      <c r="J98" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="K98" s="73"/>
-      <c r="L98" s="73" t="s">
+      <c r="K98" s="109"/>
+      <c r="L98" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="M98" s="73"/>
-      <c r="N98" s="73" t="s">
+      <c r="M98" s="109"/>
+      <c r="N98" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="O98" s="73"/>
-      <c r="R98" s="74" t="s">
+      <c r="O98" s="109"/>
+      <c r="R98" s="144" t="s">
         <v>118</v>
       </c>
-      <c r="S98" s="74"/>
-      <c r="T98" s="74"/>
-      <c r="U98" s="74"/>
-      <c r="V98" s="74"/>
-      <c r="W98" s="74"/>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A99" s="79"/>
-      <c r="B99" s="79"/>
+      <c r="S98" s="144"/>
+      <c r="T98" s="144"/>
+      <c r="U98" s="144"/>
+      <c r="V98" s="144"/>
+      <c r="W98" s="144"/>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A99" s="93"/>
+      <c r="B99" s="93"/>
       <c r="C99" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D99" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E99" s="79"/>
-      <c r="F99" s="79"/>
-      <c r="G99" s="79"/>
-      <c r="I99" s="75"/>
+      <c r="E99" s="93"/>
+      <c r="F99" s="93"/>
+      <c r="G99" s="93"/>
+      <c r="I99" s="145"/>
       <c r="J99" s="50" t="s">
         <v>111</v>
       </c>
@@ -6749,19 +6738,19 @@
       <c r="O99" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="R99" s="75" t="s">
+      <c r="R99" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="S99" s="75"/>
-      <c r="T99" s="75"/>
-      <c r="U99" s="75" t="s">
+      <c r="S99" s="145"/>
+      <c r="T99" s="145"/>
+      <c r="U99" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="V99" s="75"/>
-      <c r="W99" s="75"/>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A100" s="76" t="s">
+      <c r="V99" s="145"/>
+      <c r="W99" s="145"/>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A100" s="146" t="s">
         <v>60</v>
       </c>
       <c r="B100" s="43"/>
@@ -6826,8 +6815,8 @@
         <v>-1055.853548524125</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A101" s="77"/>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A101" s="147"/>
       <c r="B101" s="18" t="s">
         <v>64</v>
       </c>
@@ -6898,8 +6887,8 @@
         <v>-3072.6524614353752</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A102" s="77"/>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A102" s="147"/>
       <c r="B102" s="18" t="s">
         <v>65</v>
       </c>
@@ -6947,8 +6936,8 @@
         <v>-723.67490404462501</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A103" s="78"/>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A103" s="148"/>
       <c r="B103" s="30" t="s">
         <v>66</v>
       </c>
@@ -6968,24 +6957,24 @@
       <c r="G103" s="20">
         <v>-1.4</v>
       </c>
-      <c r="I103" s="75" t="s">
+      <c r="I103" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="J103" s="73" t="s">
+      <c r="J103" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="K103" s="73"/>
-      <c r="L103" s="73" t="s">
+      <c r="K103" s="109"/>
+      <c r="L103" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="M103" s="73"/>
-      <c r="N103" s="73" t="s">
+      <c r="M103" s="109"/>
+      <c r="N103" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="O103" s="73"/>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A104" s="76" t="s">
+      <c r="O103" s="109"/>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A104" s="146" t="s">
         <v>67</v>
       </c>
       <c r="B104" s="42"/>
@@ -7000,7 +6989,7 @@
       <c r="G104" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="I104" s="75"/>
+      <c r="I104" s="145"/>
       <c r="J104" s="39" t="s">
         <v>70</v>
       </c>
@@ -7020,8 +7009,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A105" s="77"/>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A105" s="147"/>
       <c r="B105" s="63" t="s">
         <v>68</v>
       </c>
@@ -7071,8 +7060,8 @@
         <v>-842.31013421587511</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A106" s="77"/>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A106" s="147"/>
       <c r="B106" s="29" t="s">
         <v>65</v>
       </c>
@@ -7121,8 +7110,8 @@
         <v>-1376.1686699864999</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A107" s="78"/>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A107" s="148"/>
       <c r="B107" s="31" t="s">
         <v>66</v>
       </c>
@@ -7170,10 +7159,10 @@
         <v>-1554.1215152433749</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B110" s="1"/>
       <c r="I110" s="33">
         <f>MAX(J100:O100)</f>
@@ -7184,27 +7173,27 @@
         <v>-694.01609650181251</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="F111"/>
       <c r="G111"/>
     </row>
-    <row r="112" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A112" s="83" t="s">
+    <row r="112" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="B112" s="83"/>
-      <c r="C112" s="83"/>
-      <c r="D112" s="83"/>
-      <c r="E112" s="83"/>
+      <c r="B112" s="92"/>
+      <c r="C112" s="92"/>
+      <c r="D112" s="92"/>
+      <c r="E112" s="92"/>
       <c r="F112"/>
       <c r="G112"/>
-      <c r="I112" s="152" t="s">
+      <c r="I112" s="149" t="s">
         <v>83</v>
       </c>
-      <c r="J112" s="152"/>
-      <c r="K112" s="152"/>
-      <c r="L112" s="152"/>
+      <c r="J112" s="149"/>
+      <c r="K112" s="149"/>
+      <c r="L112" s="149"/>
       <c r="M112"/>
       <c r="N112"/>
       <c r="O112"/>
@@ -7215,20 +7204,20 @@
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A113" s="137" t="s">
+    <row r="113" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B113" s="137"/>
-      <c r="C113" s="137"/>
-      <c r="D113" s="137"/>
-      <c r="E113" s="137"/>
+      <c r="B113" s="94"/>
+      <c r="C113" s="94"/>
+      <c r="D113" s="94"/>
+      <c r="E113" s="94"/>
       <c r="F113"/>
       <c r="G113"/>
-      <c r="I113" s="152"/>
-      <c r="J113" s="152"/>
-      <c r="K113" s="152"/>
-      <c r="L113" s="152"/>
+      <c r="I113" s="149"/>
+      <c r="J113" s="149"/>
+      <c r="K113" s="149"/>
+      <c r="L113" s="149"/>
       <c r="M113"/>
       <c r="N113"/>
       <c r="O113"/>
@@ -7241,19 +7230,19 @@
         <v>581.31262783912507</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A114" s="79" t="s">
+    <row r="114" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A114" s="93" t="s">
         <v>75</v>
       </c>
       <c r="B114" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C114" s="79" t="s">
+        <v>142</v>
+      </c>
+      <c r="C114" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="D114" s="79"/>
-      <c r="E114" s="79"/>
-      <c r="I114" s="79" t="s">
+      <c r="D114" s="93"/>
+      <c r="E114" s="93"/>
+      <c r="I114" s="93" t="s">
         <v>69</v>
       </c>
       <c r="J114" s="25" t="s">
@@ -7277,15 +7266,15 @@
         <v>-438.95035163362502</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A115" s="79"/>
+    <row r="115" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A115" s="93"/>
       <c r="B115" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C115" s="79"/>
-      <c r="D115" s="79"/>
-      <c r="E115" s="79"/>
-      <c r="I115" s="79"/>
+      <c r="C115" s="93"/>
+      <c r="D115" s="93"/>
+      <c r="E115" s="93"/>
+      <c r="I115" s="93"/>
       <c r="J115" s="72" t="str">
         <f>IF(ABS(R113)&gt;ABS(S113),R112,S112)</f>
         <v>-GCpi</v>
@@ -7310,11 +7299,11 @@
         <v>-486.40444370212509</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A116" s="104" t="s">
+    <row r="116" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A116" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="B116" s="116">
+      <c r="B116" s="99">
         <v>12</v>
       </c>
       <c r="C116" s="24" t="s">
@@ -7353,9 +7342,9 @@
         <v>225.40693732537503</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A117" s="104"/>
-      <c r="B117" s="117"/>
+    <row r="117" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A117" s="126"/>
+      <c r="B117" s="100"/>
       <c r="C117" s="32">
         <v>0.8</v>
       </c>
@@ -7365,7 +7354,7 @@
       <c r="E117" s="32">
         <v>-1</v>
       </c>
-      <c r="I117" s="79" t="s">
+      <c r="I117" s="93" t="s">
         <v>67</v>
       </c>
       <c r="J117" s="25" t="s">
@@ -7389,11 +7378,11 @@
         <v>-545.72205878775014</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A118" s="104" t="s">
+    <row r="118" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A118" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="B118" s="116">
+      <c r="B118" s="99">
         <v>12</v>
       </c>
       <c r="C118" s="24" t="s">
@@ -7406,7 +7395,7 @@
         <v>114</v>
       </c>
       <c r="H118"/>
-      <c r="I118" s="79"/>
+      <c r="I118" s="93"/>
       <c r="J118" s="25" t="str">
         <f>IF(ABS(R116)&gt;ABS(S116),R112,S112)</f>
         <v>-GCpi</v>
@@ -7433,9 +7422,9 @@
         <v>-842.31013421587511</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A119" s="104"/>
-      <c r="B119" s="117"/>
+    <row r="119" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A119" s="126"/>
+      <c r="B119" s="100"/>
       <c r="C119" s="32">
         <v>0.2</v>
       </c>
@@ -7467,12 +7456,12 @@
       <c r="P119"/>
       <c r="Q119"/>
     </row>
-    <row r="120" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="H120"/>
       <c r="P120"/>
       <c r="Q120"/>
     </row>
-    <row r="121" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A121"/>
       <c r="H121"/>
       <c r="M121"/>
@@ -7481,25 +7470,25 @@
       <c r="P121"/>
       <c r="Q121"/>
     </row>
-    <row r="122" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A122"/>
       <c r="H122"/>
       <c r="P122"/>
       <c r="Q122"/>
     </row>
-    <row r="123" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A123"/>
       <c r="H123"/>
       <c r="P123"/>
       <c r="Q123"/>
     </row>
-    <row r="124" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A124"/>
       <c r="H124"/>
       <c r="P124"/>
       <c r="Q124"/>
     </row>
-    <row r="125" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A125"/>
       <c r="H125"/>
       <c r="M125"/>
@@ -7508,7 +7497,7 @@
       <c r="P125"/>
       <c r="Q125"/>
     </row>
-    <row r="126" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A126"/>
       <c r="H126"/>
       <c r="I126"/>
@@ -7521,7 +7510,7 @@
       <c r="P126"/>
       <c r="Q126"/>
     </row>
-    <row r="127" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -7540,7 +7529,7 @@
       <c r="P127"/>
       <c r="Q127"/>
     </row>
-    <row r="128" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -7559,7 +7548,7 @@
       <c r="P128"/>
       <c r="Q128"/>
     </row>
-    <row r="129" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -7578,7 +7567,7 @@
       <c r="P129"/>
       <c r="Q129"/>
     </row>
-    <row r="130" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -7597,7 +7586,7 @@
       <c r="P130"/>
       <c r="Q130"/>
     </row>
-    <row r="131" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -7616,7 +7605,7 @@
       <c r="P131"/>
       <c r="Q131"/>
     </row>
-    <row r="132" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -7635,7 +7624,7 @@
       <c r="P132"/>
       <c r="Q132"/>
     </row>
-    <row r="133" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -7654,7 +7643,7 @@
       <c r="P133"/>
       <c r="Q133"/>
     </row>
-    <row r="134" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -7673,7 +7662,7 @@
       <c r="P134"/>
       <c r="Q134"/>
     </row>
-    <row r="135" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -7692,7 +7681,7 @@
       <c r="P135"/>
       <c r="Q135"/>
     </row>
-    <row r="136" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -7711,7 +7700,7 @@
       <c r="P136"/>
       <c r="Q136"/>
     </row>
-    <row r="137" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -7730,7 +7719,7 @@
       <c r="P137"/>
       <c r="Q137"/>
     </row>
-    <row r="138" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -7749,7 +7738,7 @@
       <c r="P138"/>
       <c r="Q138"/>
     </row>
-    <row r="139" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -7768,34 +7757,67 @@
       <c r="P139"/>
       <c r="Q139"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B140" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="I112:L113"/>
-    <mergeCell ref="I114:I115"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="C114:E115"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="U99:W99"/>
+    <mergeCell ref="R99:T99"/>
+    <mergeCell ref="R98:W98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="A97:G97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="E98:G99"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="I97:O97"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="A71:F71"/>
@@ -7820,63 +7842,30 @@
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A48:C48"/>
     <mergeCell ref="D48:E48"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="I112:L113"/>
+    <mergeCell ref="I114:I115"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="C114:E115"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
     <mergeCell ref="A96:F96"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="E98:G99"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="I97:O97"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="U99:W99"/>
-    <mergeCell ref="R99:T99"/>
-    <mergeCell ref="R98:W98"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="J103:K103"/>
-    <mergeCell ref="N103:O103"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="L98:M98"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="L103:M103"/>
-    <mergeCell ref="A97:G97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7889,99 +7878,121 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BE5F21-BF7D-433C-901E-F3C9D2F5C0DC}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>133</v>
       </c>
       <c r="B1">
-        <v>3.46</v>
-      </c>
-      <c r="H1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.83</v>
+      </c>
+      <c r="F1">
+        <v>1.55</v>
+      </c>
+      <c r="G1">
+        <v>34.85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>134</v>
       </c>
       <c r="B2">
-        <v>0.72</v>
-      </c>
-      <c r="H2">
-        <v>6.66</v>
-      </c>
-      <c r="I2">
-        <v>0.44</v>
-      </c>
-      <c r="J2">
-        <v>-0.76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.84</v>
+      </c>
+      <c r="F2">
+        <v>1.72</v>
+      </c>
+      <c r="G2">
+        <v>23.47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>136</v>
       </c>
       <c r="B3">
-        <v>75</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="F3">
+        <v>1.86</v>
+      </c>
+      <c r="G3">
+        <v>51.89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>135</v>
       </c>
       <c r="B5">
         <f>B3/B2</f>
-        <v>104.16666666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="F5">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>137</v>
       </c>
       <c r="B7">
         <f>B5*SQRT(235/200000)/PI()</f>
-        <v>1.1365742893588737</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.0131747950856245</v>
+      </c>
+      <c r="F7">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>138</v>
       </c>
       <c r="B9">
         <f>0.658^(B7^2)*235</f>
-        <v>136.85222694721449</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>152.92290207621693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>139</v>
       </c>
       <c r="B11">
         <f>0.85*B9*B1*0.1</f>
-        <v>40.248239945175783</v>
+        <v>36.785604094433978</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13">
+        <f>B11*2</f>
+        <v>73.571208188867956</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F1:F7">
+    <sortCondition ref="F1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Proyectos/23-010_TAYARA_Nave/01_Hojas de calculo/23-010_HC_ANALISIS DE VIENTO_R00_V00.xlsx
+++ b/Proyectos/23-010_TAYARA_Nave/01_Hojas de calculo/23-010_HC_ANALISIS DE VIENTO_R00_V00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andres\Sigma\Proyectos\23-010_TAYARA_Nave\01_Hojas de calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A767D3-B4A0-4924-8F08-88DFBEA4C0B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFA5902-0E9A-4458-9F6E-59130BD11F51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="2505" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SE-Cat B TR=50" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="145">
   <si>
     <t>0-5</t>
   </si>
@@ -495,6 +495,9 @@
   </si>
   <si>
     <t>2Pd</t>
+  </si>
+  <si>
+    <t>2,91º</t>
   </si>
 </sst>
 </file>
@@ -850,7 +853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1032,12 +1035,204 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1071,206 +1266,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3024,8 +3033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB67DB9-8AB6-4155-B273-EF7216B1EE19}">
   <dimension ref="A1:W140"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3042,22 +3051,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="141"/>
     </row>
     <row r="2" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
+      <c r="A2" s="142"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="144"/>
     </row>
     <row r="3" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -3076,10 +3085,10 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="82"/>
+      <c r="B4" s="146"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3118,7 +3127,7 @@
         <v>87</v>
       </c>
       <c r="B6" s="54">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3137,15 +3146,15 @@
       <c r="A7" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="7">
-        <v>7.6</v>
+      <c r="B7" s="154">
+        <v>7.5</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="73">
         <v>7.2</v>
       </c>
     </row>
@@ -3154,7 +3163,7 @@
         <v>102</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.2">
@@ -3186,14 +3195,14 @@
       <c r="B13"/>
     </row>
     <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="147" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84" t="s">
+      <c r="B14" s="147"/>
+      <c r="C14" s="148" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="85"/>
+      <c r="D14" s="149"/>
     </row>
     <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="61" t="s">
@@ -3202,10 +3211,10 @@
       <c r="B15" s="54">
         <v>45</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="131" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="74"/>
+      <c r="D15" s="132"/>
       <c r="I15" s="59" t="s">
         <v>119</v>
       </c>
@@ -3217,10 +3226,10 @@
       <c r="B16" s="55">
         <v>0.85</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="74"/>
+      <c r="D16" s="132"/>
       <c r="I16" s="59" t="s">
         <v>120</v>
       </c>
@@ -3232,10 +3241,10 @@
       <c r="B17" s="56">
         <v>1</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="74"/>
+      <c r="D17" s="132"/>
       <c r="I17" s="59" t="s">
         <v>121</v>
       </c>
@@ -3247,10 +3256,10 @@
       <c r="B18" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="74"/>
+      <c r="D18" s="132"/>
       <c r="I18" s="59" t="s">
         <v>123</v>
       </c>
@@ -3262,10 +3271,10 @@
       <c r="B19" s="55">
         <v>1</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="74"/>
+      <c r="D19" s="132"/>
       <c r="I19" s="59" t="s">
         <v>122</v>
       </c>
@@ -3277,10 +3286,10 @@
       <c r="B20" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="87" t="s">
+      <c r="C20" s="133" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="88"/>
+      <c r="D20" s="134"/>
       <c r="I20" s="59">
         <v>5.6</v>
       </c>
@@ -3294,14 +3303,14 @@
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="91"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="137"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
@@ -3316,21 +3325,21 @@
       <c r="B26" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="92"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92" t="s">
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="92"/>
+      <c r="E28" s="84"/>
       <c r="I28" s="59" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="80" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -3339,13 +3348,13 @@
       <c r="C29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="94" t="s">
+      <c r="D29" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="94"/>
+      <c r="E29" s="138"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="93"/>
+      <c r="A30" s="80"/>
       <c r="B30" s="6" t="s">
         <v>9</v>
       </c>
@@ -3353,10 +3362,10 @@
         <f>B20</f>
         <v>B</v>
       </c>
-      <c r="D30" s="93" t="s">
+      <c r="D30" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="93"/>
+      <c r="E30" s="80"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -3368,11 +3377,11 @@
       <c r="C31" s="54">
         <v>0.59</v>
       </c>
-      <c r="D31" s="86">
+      <c r="D31" s="119">
         <f>0.613*C31*$B$17*$B$16*$B$15^2*$B$19</f>
         <v>622.52448750000008</v>
       </c>
-      <c r="E31" s="86"/>
+      <c r="E31" s="119"/>
     </row>
     <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
@@ -3384,28 +3393,28 @@
       <c r="C32" s="54">
         <v>0.63</v>
       </c>
-      <c r="D32" s="86">
+      <c r="D32" s="119">
         <f t="shared" ref="D32:D35" si="0">0.613*C32*$B$17*$B$16*$B$15^2*$B$19</f>
         <v>664.72953749999999</v>
       </c>
-      <c r="E32" s="86"/>
+      <c r="E32" s="119"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="154">
         <f>B8</f>
         <v>7.2</v>
       </c>
       <c r="C33" s="7">
         <v>0.65</v>
       </c>
-      <c r="D33" s="86">
+      <c r="D33" s="119">
         <f t="shared" si="0"/>
         <v>685.83206250000001</v>
       </c>
-      <c r="E33" s="86"/>
+      <c r="E33" s="119"/>
       <c r="F33" s="62" t="s">
         <v>34</v>
       </c>
@@ -3414,44 +3423,44 @@
       <c r="A34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="154">
         <v>7.57</v>
       </c>
       <c r="C34" s="7">
         <v>0.94</v>
       </c>
-      <c r="D34" s="86">
+      <c r="D34" s="119">
         <f t="shared" si="0"/>
         <v>991.81867499999998</v>
       </c>
-      <c r="E34" s="86"/>
+      <c r="E34" s="119"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="7">
-        <v>7.6</v>
+      <c r="B35" s="154">
+        <v>7.5</v>
       </c>
       <c r="C35" s="7">
         <v>0.66</v>
       </c>
-      <c r="D35" s="86">
+      <c r="D35" s="119">
         <f t="shared" si="0"/>
         <v>696.38332500000001</v>
       </c>
-      <c r="E35" s="86"/>
+      <c r="E35" s="119"/>
     </row>
     <row r="36" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="101" t="s">
+      <c r="A37" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="102"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="103"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="122"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" s="8"/>
@@ -3481,13 +3490,13 @@
       <c r="H40" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="104" t="s">
+      <c r="A42" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="104"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
+      <c r="B42" s="123"/>
+      <c r="C42" s="123"/>
+      <c r="D42" s="123"/>
+      <c r="E42" s="123"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
@@ -3496,13 +3505,13 @@
       <c r="B43" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="105" t="s">
+      <c r="C43" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="93" t="s">
+      <c r="D43" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="93" t="s">
+      <c r="E43" s="80" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3513,9 +3522,9 @@
       <c r="B44" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="105"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="31">
@@ -3543,28 +3552,28 @@
       <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="92" t="s">
+      <c r="A47" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="92"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="92"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
       <c r="I47" s="59" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="106" t="s">
+      <c r="A48" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="107"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="109" t="s">
+      <c r="B48" s="125"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="109"/>
+      <c r="E48" s="74"/>
       <c r="F48" s="39" t="s">
         <v>35</v>
       </c>
@@ -3573,10 +3582,10 @@
       <c r="A49" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="110" t="s">
+      <c r="B49" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="111"/>
+      <c r="C49" s="128"/>
       <c r="D49" s="26" t="s">
         <v>29</v>
       </c>
@@ -3591,10 +3600,10 @@
       <c r="A50" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="112" t="s">
+      <c r="B50" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="113"/>
+      <c r="C50" s="130"/>
       <c r="D50" s="11" t="s">
         <v>28</v>
       </c>
@@ -3606,47 +3615,47 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="95" t="s">
+      <c r="A51" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="97" t="s">
+      <c r="B51" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="98"/>
+      <c r="C51" s="109"/>
       <c r="D51" s="31">
         <f>B6/B5</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E51" s="7">
         <v>-0.3</v>
       </c>
-      <c r="F51" s="99" t="s">
+      <c r="F51" s="117" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="96"/>
-      <c r="B52" s="97" t="s">
+      <c r="A52" s="83"/>
+      <c r="B52" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="98"/>
+      <c r="C52" s="109"/>
       <c r="D52" s="31">
         <f>1/D51</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E52" s="7">
         <v>-0.5</v>
       </c>
-      <c r="F52" s="100"/>
+      <c r="F52" s="118"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="97" t="s">
+      <c r="B53" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="98"/>
+      <c r="C53" s="109"/>
       <c r="D53" s="31" t="s">
         <v>28</v>
       </c>
@@ -3659,141 +3668,141 @@
     </row>
     <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="114" t="s">
+      <c r="A55" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="115"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="115"/>
-      <c r="E55" s="116"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="111"/>
+      <c r="D55" s="111"/>
+      <c r="E55" s="112"/>
       <c r="I55" s="59" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="117" t="s">
+      <c r="A56" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="B56" s="117" t="s">
+      <c r="B56" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="119" t="s">
+      <c r="C56" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="D56" s="120"/>
-      <c r="E56" s="121"/>
+      <c r="D56" s="115"/>
+      <c r="E56" s="116"/>
     </row>
     <row r="57" spans="1:9" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="118"/>
-      <c r="B57" s="118"/>
-      <c r="C57" s="119" t="str">
+      <c r="A57" s="85"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="114" t="str">
         <f>B9</f>
-        <v>3,81º</v>
-      </c>
-      <c r="D57" s="120"/>
-      <c r="E57" s="121"/>
+        <v>2,91º</v>
+      </c>
+      <c r="D57" s="115"/>
+      <c r="E57" s="116"/>
     </row>
     <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="95" t="s">
+      <c r="A58" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="122">
+      <c r="B58" s="91">
         <f>B8/B5</f>
         <v>0.6</v>
       </c>
       <c r="C58" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D58" s="124">
+      <c r="D58" s="103">
         <v>-0.9</v>
       </c>
-      <c r="E58" s="125"/>
+      <c r="E58" s="104"/>
     </row>
     <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="96"/>
-      <c r="B59" s="123"/>
+      <c r="A59" s="83"/>
+      <c r="B59" s="93"/>
       <c r="C59" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="124">
+      <c r="D59" s="103">
         <v>-0.5</v>
       </c>
-      <c r="E59" s="125"/>
+      <c r="E59" s="104"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="92" t="s">
+      <c r="A61" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="92"/>
-      <c r="C61" s="92"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="92"/>
-      <c r="F61" s="92"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="84"/>
       <c r="I61" s="59" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="93" t="s">
+      <c r="A62" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B62" s="93" t="s">
+      <c r="B62" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="93" t="s">
+      <c r="C62" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="D62" s="93"/>
-      <c r="E62" s="93"/>
-      <c r="F62" s="93" t="s">
+      <c r="D62" s="80"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="80" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="93"/>
-      <c r="B63" s="93"/>
-      <c r="C63" s="93"/>
-      <c r="D63" s="93"/>
-      <c r="E63" s="93"/>
-      <c r="F63" s="93"/>
+      <c r="A63" s="80"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="80"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="126" t="s">
+      <c r="A64" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="127">
+      <c r="B64" s="106">
         <f>B8/B6</f>
-        <v>0.24000000000000002</v>
-      </c>
-      <c r="C64" s="128" t="s">
+        <v>0.3</v>
+      </c>
+      <c r="C64" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="128"/>
-      <c r="E64" s="128"/>
+      <c r="D64" s="107"/>
+      <c r="E64" s="107"/>
       <c r="F64" s="54">
         <v>-0.9</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="126"/>
-      <c r="B65" s="127"/>
-      <c r="C65" s="128" t="s">
+      <c r="A65" s="105"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="128"/>
-      <c r="E65" s="128"/>
+      <c r="D65" s="107"/>
+      <c r="E65" s="107"/>
       <c r="F65" s="54">
         <v>-0.5</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="126"/>
-      <c r="B66" s="127"/>
-      <c r="C66" s="128" t="s">
+      <c r="A66" s="105"/>
+      <c r="B66" s="106"/>
+      <c r="C66" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="D66" s="128"/>
-      <c r="E66" s="128"/>
+      <c r="D66" s="107"/>
+      <c r="E66" s="107"/>
       <c r="F66" s="54">
         <v>-0.3</v>
       </c>
@@ -3807,63 +3816,63 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="92" t="s">
+      <c r="A68" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="B68" s="92"/>
-      <c r="C68" s="92"/>
-      <c r="D68" s="92"/>
-      <c r="E68" s="92"/>
-      <c r="F68" s="92"/>
+      <c r="B68" s="84"/>
+      <c r="C68" s="84"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="84"/>
+      <c r="F68" s="84"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B69" s="129" t="s">
+      <c r="B69" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="C69" s="129"/>
-      <c r="D69" s="129"/>
-      <c r="E69" s="129"/>
-      <c r="F69" s="129"/>
+      <c r="C69" s="100"/>
+      <c r="D69" s="100"/>
+      <c r="E69" s="100"/>
+      <c r="F69" s="100"/>
       <c r="I69" s="59" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="130" t="s">
+      <c r="A71" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="B71" s="130"/>
-      <c r="C71" s="130"/>
-      <c r="D71" s="130"/>
-      <c r="E71" s="130"/>
-      <c r="F71" s="130"/>
+      <c r="B71" s="101"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="101"/>
+      <c r="F71" s="101"/>
     </row>
     <row r="72" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="118" t="s">
+      <c r="A72" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="B72" s="131" t="s">
+      <c r="B72" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="C72" s="131" t="s">
+      <c r="C72" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="D72" s="132" t="s">
+      <c r="D72" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="E72" s="118" t="s">
+      <c r="E72" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="F72" s="118"/>
+      <c r="F72" s="85"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="93"/>
-      <c r="B73" s="105"/>
-      <c r="C73" s="105"/>
-      <c r="D73" s="118"/>
+      <c r="A73" s="80"/>
+      <c r="B73" s="87"/>
+      <c r="C73" s="87"/>
+      <c r="D73" s="85"/>
       <c r="E73" s="25" t="s">
         <v>53</v>
       </c>
@@ -3872,7 +3881,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="95" t="s">
+      <c r="A74" s="82" t="s">
         <v>25</v>
       </c>
       <c r="B74" s="31" t="s">
@@ -3896,10 +3905,10 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="96"/>
+      <c r="A75" s="83"/>
       <c r="B75" s="31">
         <f>B35</f>
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="C75" s="27">
         <f>D35</f>
@@ -3967,7 +3976,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="95" t="s">
+      <c r="A78" s="82" t="s">
         <v>3</v>
       </c>
       <c r="B78" s="35" t="s">
@@ -3991,7 +4000,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="96"/>
+      <c r="A79" s="83"/>
       <c r="B79" s="48" t="s">
         <v>85</v>
       </c>
@@ -4022,38 +4031,38 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="92" t="s">
+      <c r="A81" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="B81" s="92"/>
-      <c r="C81" s="92"/>
-      <c r="D81" s="92"/>
-      <c r="E81" s="92"/>
-      <c r="F81" s="92"/>
+      <c r="B81" s="84"/>
+      <c r="C81" s="84"/>
+      <c r="D81" s="84"/>
+      <c r="E81" s="84"/>
+      <c r="F81" s="84"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="118" t="s">
+      <c r="A82" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="B82" s="131" t="s">
+      <c r="B82" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="131" t="s">
+      <c r="C82" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="D82" s="118" t="s">
+      <c r="D82" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="E82" s="134" t="s">
+      <c r="E82" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F82" s="135"/>
+      <c r="F82" s="89"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="93"/>
-      <c r="B83" s="105"/>
-      <c r="C83" s="105"/>
-      <c r="D83" s="93"/>
+      <c r="A83" s="80"/>
+      <c r="B83" s="87"/>
+      <c r="C83" s="87"/>
+      <c r="D83" s="80"/>
       <c r="E83" s="25" t="s">
         <v>53</v>
       </c>
@@ -4062,7 +4071,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="95" t="s">
+      <c r="A84" s="82" t="s">
         <v>25</v>
       </c>
       <c r="B84" s="31" t="str">
@@ -4073,7 +4082,7 @@
         <f>D31</f>
         <v>622.52448750000008</v>
       </c>
-      <c r="D84" s="122">
+      <c r="D84" s="91">
         <f>E50</f>
         <v>0.8</v>
       </c>
@@ -4087,7 +4096,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="136"/>
+      <c r="A85" s="90"/>
       <c r="B85" s="31">
         <f>B32</f>
         <v>6.4</v>
@@ -4096,7 +4105,7 @@
         <f>D32</f>
         <v>664.72953749999999</v>
       </c>
-      <c r="D85" s="137"/>
+      <c r="D85" s="92"/>
       <c r="E85" s="27">
         <f t="shared" ref="E85:E88" si="3">+(C85*0.85*$D$84)-($J$80*0.18)</f>
         <v>328.56631425</v>
@@ -4107,7 +4116,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="136"/>
+      <c r="A86" s="90"/>
       <c r="B86" s="31">
         <f>B33</f>
         <v>7.2</v>
@@ -4116,7 +4125,7 @@
         <f>D33</f>
         <v>685.83206250000001</v>
       </c>
-      <c r="D86" s="137"/>
+      <c r="D86" s="92"/>
       <c r="E86" s="27">
         <f t="shared" si="3"/>
         <v>342.91603124999995</v>
@@ -4127,7 +4136,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="136"/>
+      <c r="A87" s="90"/>
       <c r="B87" s="31">
         <f>B34</f>
         <v>7.57</v>
@@ -4136,7 +4145,7 @@
         <f>D34</f>
         <v>991.81867499999998</v>
       </c>
-      <c r="D87" s="137"/>
+      <c r="D87" s="92"/>
       <c r="E87" s="27">
         <f t="shared" si="3"/>
         <v>550.98692774999995</v>
@@ -4147,16 +4156,16 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="96"/>
+      <c r="A88" s="83"/>
       <c r="B88" s="31">
         <f>B35</f>
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="C88" s="27">
         <f>D35</f>
         <v>696.38332500000001</v>
       </c>
-      <c r="D88" s="123"/>
+      <c r="D88" s="93"/>
       <c r="E88" s="27">
         <f t="shared" si="3"/>
         <v>350.09088974999997</v>
@@ -4215,7 +4224,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="138" t="s">
+      <c r="A91" s="94" t="s">
         <v>3</v>
       </c>
       <c r="B91" s="31" t="s">
@@ -4239,7 +4248,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="138"/>
+      <c r="A92" s="94"/>
       <c r="B92" s="31" t="s">
         <v>48</v>
       </c>
@@ -4261,7 +4270,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="138"/>
+      <c r="A93" s="94"/>
       <c r="B93" s="31" t="s">
         <v>49</v>
       </c>
@@ -4290,44 +4299,44 @@
       <c r="F94" s="58"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="139" t="s">
+      <c r="A96" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="B96" s="140"/>
-      <c r="C96" s="140"/>
-      <c r="D96" s="140"/>
-      <c r="E96" s="140"/>
-      <c r="F96" s="140"/>
+      <c r="B96" s="96"/>
+      <c r="C96" s="96"/>
+      <c r="D96" s="96"/>
+      <c r="E96" s="96"/>
+      <c r="F96" s="96"/>
       <c r="G96" s="37"/>
     </row>
     <row r="97" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="141" t="s">
+      <c r="A97" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="B97" s="142"/>
-      <c r="C97" s="142"/>
-      <c r="D97" s="142"/>
-      <c r="E97" s="142"/>
-      <c r="F97" s="142"/>
-      <c r="G97" s="143"/>
-      <c r="I97" s="133" t="s">
+      <c r="B97" s="98"/>
+      <c r="C97" s="98"/>
+      <c r="D97" s="98"/>
+      <c r="E97" s="98"/>
+      <c r="F97" s="98"/>
+      <c r="G97" s="99"/>
+      <c r="I97" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="J97" s="133"/>
-      <c r="K97" s="133"/>
-      <c r="L97" s="133"/>
-      <c r="M97" s="133"/>
-      <c r="N97" s="133"/>
-      <c r="O97" s="133"/>
+      <c r="J97" s="81"/>
+      <c r="K97" s="81"/>
+      <c r="L97" s="81"/>
+      <c r="M97" s="81"/>
+      <c r="N97" s="81"/>
+      <c r="O97" s="81"/>
       <c r="R97"/>
       <c r="S97"/>
       <c r="T97"/>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A98" s="93" t="s">
+      <c r="A98" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B98" s="93" t="s">
+      <c r="B98" s="80" t="s">
         <v>75</v>
       </c>
       <c r="C98" s="16" t="s">
@@ -4336,48 +4345,48 @@
       <c r="D98" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E98" s="93" t="s">
+      <c r="E98" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="F98" s="93"/>
-      <c r="G98" s="93"/>
-      <c r="I98" s="145" t="s">
+      <c r="F98" s="80"/>
+      <c r="G98" s="80"/>
+      <c r="I98" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="J98" s="109" t="s">
+      <c r="J98" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="K98" s="109"/>
-      <c r="L98" s="109" t="s">
+      <c r="K98" s="74"/>
+      <c r="L98" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="M98" s="109"/>
-      <c r="N98" s="109" t="s">
+      <c r="M98" s="74"/>
+      <c r="N98" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="O98" s="109"/>
-      <c r="R98" s="144" t="s">
+      <c r="O98" s="74"/>
+      <c r="R98" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="S98" s="144"/>
-      <c r="T98" s="144"/>
-      <c r="U98" s="144"/>
-      <c r="V98" s="144"/>
-      <c r="W98" s="144"/>
+      <c r="S98" s="75"/>
+      <c r="T98" s="75"/>
+      <c r="U98" s="75"/>
+      <c r="V98" s="75"/>
+      <c r="W98" s="75"/>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A99" s="93"/>
-      <c r="B99" s="93"/>
+      <c r="A99" s="80"/>
+      <c r="B99" s="80"/>
       <c r="C99" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D99" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E99" s="93"/>
-      <c r="F99" s="93"/>
-      <c r="G99" s="93"/>
-      <c r="I99" s="145"/>
+      <c r="E99" s="80"/>
+      <c r="F99" s="80"/>
+      <c r="G99" s="80"/>
+      <c r="I99" s="76"/>
       <c r="J99" s="50" t="s">
         <v>111</v>
       </c>
@@ -4396,19 +4405,19 @@
       <c r="O99" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="R99" s="145" t="s">
+      <c r="R99" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="S99" s="145"/>
-      <c r="T99" s="145"/>
-      <c r="U99" s="145" t="s">
+      <c r="S99" s="76"/>
+      <c r="T99" s="76"/>
+      <c r="U99" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="V99" s="145"/>
-      <c r="W99" s="145"/>
+      <c r="V99" s="76"/>
+      <c r="W99" s="76"/>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A100" s="146" t="s">
+      <c r="A100" s="77" t="s">
         <v>60</v>
       </c>
       <c r="B100" s="43"/>
@@ -4474,7 +4483,7 @@
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A101" s="147"/>
+      <c r="A101" s="78"/>
       <c r="B101" s="18" t="s">
         <v>64</v>
       </c>
@@ -4546,7 +4555,7 @@
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A102" s="147"/>
+      <c r="A102" s="78"/>
       <c r="B102" s="18" t="s">
         <v>65</v>
       </c>
@@ -4595,7 +4604,7 @@
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A103" s="148"/>
+      <c r="A103" s="79"/>
       <c r="B103" s="30" t="s">
         <v>66</v>
       </c>
@@ -4615,24 +4624,24 @@
       <c r="G103" s="20">
         <v>-1.4</v>
       </c>
-      <c r="I103" s="145" t="s">
+      <c r="I103" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="J103" s="109" t="s">
+      <c r="J103" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="K103" s="109"/>
-      <c r="L103" s="109" t="s">
+      <c r="K103" s="74"/>
+      <c r="L103" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="M103" s="109"/>
-      <c r="N103" s="109" t="s">
+      <c r="M103" s="74"/>
+      <c r="N103" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="O103" s="109"/>
+      <c r="O103" s="74"/>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A104" s="146" t="s">
+      <c r="A104" s="77" t="s">
         <v>67</v>
       </c>
       <c r="B104" s="42"/>
@@ -4647,7 +4656,7 @@
       <c r="G104" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="I104" s="145"/>
+      <c r="I104" s="76"/>
       <c r="J104" s="39" t="s">
         <v>70</v>
       </c>
@@ -4668,7 +4677,7 @@
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A105" s="147"/>
+      <c r="A105" s="78"/>
       <c r="B105" s="63" t="s">
         <v>68</v>
       </c>
@@ -4719,7 +4728,7 @@
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A106" s="147"/>
+      <c r="A106" s="78"/>
       <c r="B106" s="29" t="s">
         <v>65</v>
       </c>
@@ -4769,7 +4778,7 @@
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A107" s="148"/>
+      <c r="A107" s="79"/>
       <c r="B107" s="31" t="s">
         <v>66</v>
       </c>
@@ -5257,6 +5266,83 @@
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="I97:O97"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A97:G97"/>
     <mergeCell ref="N98:O98"/>
     <mergeCell ref="R98:W98"/>
     <mergeCell ref="R99:T99"/>
@@ -5273,83 +5359,6 @@
     <mergeCell ref="I98:I99"/>
     <mergeCell ref="J98:K98"/>
     <mergeCell ref="L98:M98"/>
-    <mergeCell ref="I97:O97"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A97:G97"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5379,22 +5388,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="141"/>
     </row>
     <row r="2" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
+      <c r="A2" s="142"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="144"/>
     </row>
     <row r="3" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -5413,10 +5422,10 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="82"/>
+      <c r="B4" s="146"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -5523,14 +5532,14 @@
       <c r="B13"/>
     </row>
     <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="147" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84" t="s">
+      <c r="B14" s="147"/>
+      <c r="C14" s="148" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="85"/>
+      <c r="D14" s="149"/>
     </row>
     <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="61" t="s">
@@ -5540,10 +5549,10 @@
         <f>45*0.93</f>
         <v>41.85</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="74"/>
+      <c r="D15" s="132"/>
       <c r="I15" s="59" t="s">
         <v>119</v>
       </c>
@@ -5555,10 +5564,10 @@
       <c r="B16" s="71">
         <v>0.85</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="74"/>
+      <c r="D16" s="132"/>
       <c r="I16" s="59" t="s">
         <v>120</v>
       </c>
@@ -5570,10 +5579,10 @@
       <c r="B17" s="35">
         <v>1</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="74"/>
+      <c r="D17" s="132"/>
       <c r="I17" s="59" t="s">
         <v>121</v>
       </c>
@@ -5585,10 +5594,10 @@
       <c r="B18" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="74"/>
+      <c r="D18" s="132"/>
       <c r="I18" s="59" t="s">
         <v>123</v>
       </c>
@@ -5600,10 +5609,10 @@
       <c r="B19" s="71">
         <v>1</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="74"/>
+      <c r="D19" s="132"/>
       <c r="I19" s="59" t="s">
         <v>122</v>
       </c>
@@ -5615,10 +5624,10 @@
       <c r="B20" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="87" t="s">
+      <c r="C20" s="133" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="88"/>
+      <c r="D20" s="134"/>
       <c r="I20" s="59">
         <v>5.6</v>
       </c>
@@ -5632,14 +5641,14 @@
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="91"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="137"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
@@ -5654,21 +5663,21 @@
       <c r="B26" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="92"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92" t="s">
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="92"/>
+      <c r="E28" s="84"/>
       <c r="I28" s="59" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="80" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -5677,13 +5686,13 @@
       <c r="C29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="94" t="s">
+      <c r="D29" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="94"/>
+      <c r="E29" s="138"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="93"/>
+      <c r="A30" s="80"/>
       <c r="B30" s="6" t="s">
         <v>9</v>
       </c>
@@ -5691,10 +5700,10 @@
         <f>B20</f>
         <v>B</v>
       </c>
-      <c r="D30" s="93" t="s">
+      <c r="D30" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="93"/>
+      <c r="E30" s="80"/>
     </row>
     <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -5706,11 +5715,11 @@
       <c r="C31" s="53">
         <v>0.87</v>
       </c>
-      <c r="D31" s="86">
+      <c r="D31" s="119">
         <f>0.613*C31*$B$17*$B$16*$B$15^2*$B$19</f>
         <v>793.94346345374993</v>
       </c>
-      <c r="E31" s="86"/>
+      <c r="E31" s="119"/>
     </row>
     <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
@@ -5722,11 +5731,11 @@
       <c r="C32" s="53">
         <v>0.91100000000000003</v>
       </c>
-      <c r="D32" s="86">
+      <c r="D32" s="119">
         <f t="shared" ref="D32:D35" si="0">0.613*C32*$B$17*$B$16*$B$15^2*$B$19</f>
         <v>831.35918989237507</v>
       </c>
-      <c r="E32" s="86"/>
+      <c r="E32" s="119"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
@@ -5739,11 +5748,11 @@
       <c r="C33" s="31">
         <v>0.65</v>
       </c>
-      <c r="D33" s="86">
+      <c r="D33" s="119">
         <f t="shared" si="0"/>
         <v>593.17615085625005</v>
       </c>
-      <c r="E33" s="86"/>
+      <c r="E33" s="119"/>
       <c r="F33" s="62" t="s">
         <v>34</v>
       </c>
@@ -5762,11 +5771,11 @@
       <c r="C34" s="7">
         <v>0.94</v>
       </c>
-      <c r="D34" s="86">
+      <c r="D34" s="119">
         <f t="shared" si="0"/>
         <v>857.82397200750006</v>
       </c>
-      <c r="E34" s="86"/>
+      <c r="E34" s="119"/>
     </row>
     <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
@@ -5778,22 +5787,22 @@
       <c r="C35" s="7">
         <v>0.66</v>
       </c>
-      <c r="D35" s="86">
+      <c r="D35" s="119">
         <f t="shared" si="0"/>
         <v>602.3019377925001</v>
       </c>
-      <c r="E35" s="86"/>
+      <c r="E35" s="119"/>
     </row>
     <row r="36" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="101" t="s">
+      <c r="A37" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="102"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="103"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="122"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" s="8"/>
@@ -5823,13 +5832,13 @@
       <c r="H40" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="104" t="s">
+      <c r="A42" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="104"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
+      <c r="B42" s="123"/>
+      <c r="C42" s="123"/>
+      <c r="D42" s="123"/>
+      <c r="E42" s="123"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
@@ -5838,13 +5847,13 @@
       <c r="B43" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="105" t="s">
+      <c r="C43" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="93" t="s">
+      <c r="D43" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="93" t="s">
+      <c r="E43" s="80" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5855,9 +5864,9 @@
       <c r="B44" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="105"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="31">
@@ -5885,28 +5894,28 @@
       <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="92" t="s">
+      <c r="A47" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="92"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="92"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
       <c r="I47" s="59" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="106" t="s">
+      <c r="A48" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="107"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="109" t="s">
+      <c r="B48" s="125"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="109"/>
+      <c r="E48" s="74"/>
       <c r="F48" s="39" t="s">
         <v>35</v>
       </c>
@@ -5915,10 +5924,10 @@
       <c r="A49" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="110" t="s">
+      <c r="B49" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="111"/>
+      <c r="C49" s="128"/>
       <c r="D49" s="26" t="s">
         <v>29</v>
       </c>
@@ -5933,10 +5942,10 @@
       <c r="A50" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="112" t="s">
+      <c r="B50" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="113"/>
+      <c r="C50" s="130"/>
       <c r="D50" s="11" t="s">
         <v>28</v>
       </c>
@@ -5948,13 +5957,13 @@
       </c>
     </row>
     <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="95" t="s">
+      <c r="A51" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="97" t="s">
+      <c r="B51" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="98"/>
+      <c r="C51" s="109"/>
       <c r="D51" s="31">
         <f>B11/B12</f>
         <v>1</v>
@@ -5962,16 +5971,16 @@
       <c r="E51" s="7">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="F51" s="99" t="s">
+      <c r="F51" s="117" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="96"/>
-      <c r="B52" s="97" t="s">
+      <c r="A52" s="83"/>
+      <c r="B52" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="98"/>
+      <c r="C52" s="109"/>
       <c r="D52" s="31">
         <f>1/D51</f>
         <v>1</v>
@@ -5979,16 +5988,16 @@
       <c r="E52" s="7">
         <v>-0.5</v>
       </c>
-      <c r="F52" s="100"/>
+      <c r="F52" s="118"/>
     </row>
     <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="97" t="s">
+      <c r="B53" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="98"/>
+      <c r="C53" s="109"/>
       <c r="D53" s="31" t="s">
         <v>28</v>
       </c>
@@ -6001,141 +6010,141 @@
     </row>
     <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="114" t="s">
+      <c r="A55" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="115"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="115"/>
-      <c r="E55" s="116"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="111"/>
+      <c r="D55" s="111"/>
+      <c r="E55" s="112"/>
       <c r="I55" s="59" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="117" t="s">
+      <c r="A56" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="B56" s="117" t="s">
+      <c r="B56" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="119" t="s">
+      <c r="C56" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="D56" s="120"/>
-      <c r="E56" s="121"/>
+      <c r="D56" s="115"/>
+      <c r="E56" s="116"/>
     </row>
     <row r="57" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="118"/>
-      <c r="B57" s="118"/>
-      <c r="C57" s="119" t="str">
+      <c r="A57" s="85"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="114" t="str">
         <f>B9</f>
         <v>3,81º</v>
       </c>
-      <c r="D57" s="120"/>
-      <c r="E57" s="121"/>
+      <c r="D57" s="115"/>
+      <c r="E57" s="116"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="95" t="s">
+      <c r="A58" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="122">
+      <c r="B58" s="91">
         <f>B8/B5</f>
         <v>0.6</v>
       </c>
       <c r="C58" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D58" s="124">
+      <c r="D58" s="103">
         <v>-0.9</v>
       </c>
-      <c r="E58" s="125"/>
+      <c r="E58" s="104"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="96"/>
-      <c r="B59" s="123"/>
+      <c r="A59" s="83"/>
+      <c r="B59" s="93"/>
       <c r="C59" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="124">
+      <c r="D59" s="103">
         <v>-0.5</v>
       </c>
-      <c r="E59" s="125"/>
+      <c r="E59" s="104"/>
     </row>
     <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="92" t="s">
+      <c r="A61" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="92"/>
-      <c r="C61" s="92"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="92"/>
-      <c r="F61" s="92"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="84"/>
       <c r="I61" s="59" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="93" t="s">
+      <c r="A62" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B62" s="93" t="s">
+      <c r="B62" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="93" t="s">
+      <c r="C62" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="D62" s="93"/>
-      <c r="E62" s="93"/>
-      <c r="F62" s="93" t="s">
+      <c r="D62" s="80"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="80" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="93"/>
-      <c r="B63" s="93"/>
-      <c r="C63" s="93"/>
-      <c r="D63" s="93"/>
-      <c r="E63" s="93"/>
-      <c r="F63" s="93"/>
+      <c r="A63" s="80"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="80"/>
     </row>
     <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="126" t="s">
+      <c r="A64" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="127">
+      <c r="B64" s="106">
         <f>B8/B6</f>
         <v>0.24000000000000002</v>
       </c>
-      <c r="C64" s="128" t="s">
+      <c r="C64" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="128"/>
-      <c r="E64" s="128"/>
+      <c r="D64" s="107"/>
+      <c r="E64" s="107"/>
       <c r="F64" s="54">
         <v>-0.9</v>
       </c>
     </row>
     <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="126"/>
-      <c r="B65" s="127"/>
-      <c r="C65" s="128" t="s">
+      <c r="A65" s="105"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="128"/>
-      <c r="E65" s="128"/>
+      <c r="D65" s="107"/>
+      <c r="E65" s="107"/>
       <c r="F65" s="54">
         <v>-0.5</v>
       </c>
     </row>
     <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="126"/>
-      <c r="B66" s="127"/>
-      <c r="C66" s="128" t="s">
+      <c r="A66" s="105"/>
+      <c r="B66" s="106"/>
+      <c r="C66" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="D66" s="128"/>
-      <c r="E66" s="128"/>
+      <c r="D66" s="107"/>
+      <c r="E66" s="107"/>
       <c r="F66" s="54">
         <v>-0.3</v>
       </c>
@@ -6149,14 +6158,14 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="92" t="s">
+      <c r="A68" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="B68" s="92"/>
-      <c r="C68" s="92"/>
-      <c r="D68" s="92"/>
-      <c r="E68" s="92"/>
-      <c r="F68" s="92"/>
+      <c r="B68" s="84"/>
+      <c r="C68" s="84"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="84"/>
+      <c r="F68" s="84"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="29" t="s">
@@ -6174,38 +6183,38 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="130" t="s">
+      <c r="A71" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="B71" s="130"/>
-      <c r="C71" s="130"/>
-      <c r="D71" s="130"/>
-      <c r="E71" s="130"/>
-      <c r="F71" s="130"/>
+      <c r="B71" s="101"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="101"/>
+      <c r="F71" s="101"/>
     </row>
     <row r="72" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="118" t="s">
+      <c r="A72" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="B72" s="131" t="s">
+      <c r="B72" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="C72" s="131" t="s">
+      <c r="C72" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="D72" s="132" t="s">
+      <c r="D72" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="E72" s="118" t="s">
+      <c r="E72" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="F72" s="118"/>
+      <c r="F72" s="85"/>
     </row>
     <row r="73" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="93"/>
-      <c r="B73" s="105"/>
-      <c r="C73" s="105"/>
-      <c r="D73" s="118"/>
+      <c r="A73" s="80"/>
+      <c r="B73" s="87"/>
+      <c r="C73" s="87"/>
+      <c r="D73" s="85"/>
       <c r="E73" s="25" t="s">
         <v>53</v>
       </c>
@@ -6214,7 +6223,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="95" t="s">
+      <c r="A74" s="82" t="s">
         <v>25</v>
       </c>
       <c r="B74" s="31" t="s">
@@ -6238,7 +6247,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="96"/>
+      <c r="A75" s="83"/>
       <c r="B75" s="31">
         <f>B32</f>
         <v>6.4</v>
@@ -6309,7 +6318,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="95" t="s">
+      <c r="A78" s="82" t="s">
         <v>3</v>
       </c>
       <c r="B78" s="35" t="s">
@@ -6333,7 +6342,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="96"/>
+      <c r="A79" s="83"/>
       <c r="B79" s="48" t="s">
         <v>85</v>
       </c>
@@ -6364,38 +6373,38 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="92" t="s">
+      <c r="A81" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="B81" s="92"/>
-      <c r="C81" s="92"/>
-      <c r="D81" s="92"/>
-      <c r="E81" s="92"/>
-      <c r="F81" s="92"/>
+      <c r="B81" s="84"/>
+      <c r="C81" s="84"/>
+      <c r="D81" s="84"/>
+      <c r="E81" s="84"/>
+      <c r="F81" s="84"/>
     </row>
     <row r="82" spans="1:7" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="118" t="s">
+      <c r="A82" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="B82" s="131" t="s">
+      <c r="B82" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="131" t="s">
+      <c r="C82" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="D82" s="118" t="s">
+      <c r="D82" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="E82" s="134" t="s">
+      <c r="E82" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F82" s="135"/>
+      <c r="F82" s="89"/>
     </row>
     <row r="83" spans="1:7" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="93"/>
-      <c r="B83" s="105"/>
-      <c r="C83" s="105"/>
-      <c r="D83" s="93"/>
+      <c r="A83" s="80"/>
+      <c r="B83" s="87"/>
+      <c r="C83" s="87"/>
+      <c r="D83" s="80"/>
       <c r="E83" s="25" t="s">
         <v>53</v>
       </c>
@@ -6404,7 +6413,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="95" t="s">
+      <c r="A84" s="82" t="s">
         <v>25</v>
       </c>
       <c r="B84" s="31" t="str">
@@ -6415,7 +6424,7 @@
         <f>D31</f>
         <v>793.94346345374993</v>
       </c>
-      <c r="D84" s="122">
+      <c r="D84" s="91">
         <f>E50</f>
         <v>0.8</v>
       </c>
@@ -6429,7 +6438,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="136"/>
+      <c r="A85" s="90"/>
       <c r="B85" s="31">
         <f>B32</f>
         <v>6.4</v>
@@ -6438,7 +6447,7 @@
         <f>D32</f>
         <v>831.35918989237507</v>
       </c>
-      <c r="D85" s="137"/>
+      <c r="D85" s="92"/>
       <c r="E85" s="27">
         <f t="shared" ref="E85:E88" si="3">+(C85*0.85*$D$84)-($J$80*0.18)</f>
         <v>458.55254197269005</v>
@@ -6449,7 +6458,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="136"/>
+      <c r="A86" s="90"/>
       <c r="B86" s="31">
         <f>B33</f>
         <v>7.2</v>
@@ -6458,7 +6467,7 @@
         <f>D33</f>
         <v>593.17615085625005</v>
       </c>
-      <c r="D86" s="137"/>
+      <c r="D86" s="92"/>
       <c r="E86" s="27">
         <f t="shared" si="3"/>
         <v>296.58807542812502</v>
@@ -6469,7 +6478,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="136"/>
+      <c r="A87" s="90"/>
       <c r="B87" s="31">
         <f>B34</f>
         <v>7.57</v>
@@ -6478,7 +6487,7 @@
         <f>D34</f>
         <v>857.82397200750006</v>
       </c>
-      <c r="D87" s="137"/>
+      <c r="D87" s="92"/>
       <c r="E87" s="27">
         <f t="shared" si="3"/>
         <v>476.54859381097504</v>
@@ -6489,7 +6498,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="96"/>
+      <c r="A88" s="83"/>
       <c r="B88" s="31">
         <f>B35</f>
         <v>7.6</v>
@@ -6498,7 +6507,7 @@
         <f>D35</f>
         <v>602.3019377925001</v>
       </c>
-      <c r="D88" s="123"/>
+      <c r="D88" s="93"/>
       <c r="E88" s="27">
         <f t="shared" si="3"/>
         <v>302.79361054477511</v>
@@ -6557,7 +6566,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="138" t="s">
+      <c r="A91" s="94" t="s">
         <v>3</v>
       </c>
       <c r="B91" s="31" t="s">
@@ -6581,7 +6590,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="138"/>
+      <c r="A92" s="94"/>
       <c r="B92" s="31" t="s">
         <v>48</v>
       </c>
@@ -6603,7 +6612,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="138"/>
+      <c r="A93" s="94"/>
       <c r="B93" s="31" t="s">
         <v>49</v>
       </c>
@@ -6632,44 +6641,44 @@
       <c r="F94" s="58"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="139" t="s">
+      <c r="A96" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="B96" s="140"/>
-      <c r="C96" s="140"/>
-      <c r="D96" s="140"/>
-      <c r="E96" s="140"/>
-      <c r="F96" s="140"/>
+      <c r="B96" s="96"/>
+      <c r="C96" s="96"/>
+      <c r="D96" s="96"/>
+      <c r="E96" s="96"/>
+      <c r="F96" s="96"/>
       <c r="G96" s="37"/>
     </row>
     <row r="97" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="141" t="s">
+      <c r="A97" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="B97" s="142"/>
-      <c r="C97" s="142"/>
-      <c r="D97" s="142"/>
-      <c r="E97" s="142"/>
-      <c r="F97" s="142"/>
-      <c r="G97" s="143"/>
-      <c r="I97" s="133" t="s">
+      <c r="B97" s="98"/>
+      <c r="C97" s="98"/>
+      <c r="D97" s="98"/>
+      <c r="E97" s="98"/>
+      <c r="F97" s="98"/>
+      <c r="G97" s="99"/>
+      <c r="I97" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="J97" s="133"/>
-      <c r="K97" s="133"/>
-      <c r="L97" s="133"/>
-      <c r="M97" s="133"/>
-      <c r="N97" s="133"/>
-      <c r="O97" s="133"/>
+      <c r="J97" s="81"/>
+      <c r="K97" s="81"/>
+      <c r="L97" s="81"/>
+      <c r="M97" s="81"/>
+      <c r="N97" s="81"/>
+      <c r="O97" s="81"/>
       <c r="R97"/>
       <c r="S97"/>
       <c r="T97"/>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A98" s="93" t="s">
+      <c r="A98" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B98" s="93" t="s">
+      <c r="B98" s="80" t="s">
         <v>75</v>
       </c>
       <c r="C98" s="16" t="s">
@@ -6678,48 +6687,48 @@
       <c r="D98" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E98" s="93" t="s">
+      <c r="E98" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="F98" s="93"/>
-      <c r="G98" s="93"/>
-      <c r="I98" s="145" t="s">
+      <c r="F98" s="80"/>
+      <c r="G98" s="80"/>
+      <c r="I98" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="J98" s="109" t="s">
+      <c r="J98" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="K98" s="109"/>
-      <c r="L98" s="109" t="s">
+      <c r="K98" s="74"/>
+      <c r="L98" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="M98" s="109"/>
-      <c r="N98" s="109" t="s">
+      <c r="M98" s="74"/>
+      <c r="N98" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="O98" s="109"/>
-      <c r="R98" s="144" t="s">
+      <c r="O98" s="74"/>
+      <c r="R98" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="S98" s="144"/>
-      <c r="T98" s="144"/>
-      <c r="U98" s="144"/>
-      <c r="V98" s="144"/>
-      <c r="W98" s="144"/>
+      <c r="S98" s="75"/>
+      <c r="T98" s="75"/>
+      <c r="U98" s="75"/>
+      <c r="V98" s="75"/>
+      <c r="W98" s="75"/>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A99" s="93"/>
-      <c r="B99" s="93"/>
+      <c r="A99" s="80"/>
+      <c r="B99" s="80"/>
       <c r="C99" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D99" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E99" s="93"/>
-      <c r="F99" s="93"/>
-      <c r="G99" s="93"/>
-      <c r="I99" s="145"/>
+      <c r="E99" s="80"/>
+      <c r="F99" s="80"/>
+      <c r="G99" s="80"/>
+      <c r="I99" s="76"/>
       <c r="J99" s="50" t="s">
         <v>111</v>
       </c>
@@ -6738,19 +6747,19 @@
       <c r="O99" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="R99" s="145" t="s">
+      <c r="R99" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="S99" s="145"/>
-      <c r="T99" s="145"/>
-      <c r="U99" s="145" t="s">
+      <c r="S99" s="76"/>
+      <c r="T99" s="76"/>
+      <c r="U99" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="V99" s="145"/>
-      <c r="W99" s="145"/>
+      <c r="V99" s="76"/>
+      <c r="W99" s="76"/>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A100" s="146" t="s">
+      <c r="A100" s="77" t="s">
         <v>60</v>
       </c>
       <c r="B100" s="43"/>
@@ -6816,7 +6825,7 @@
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A101" s="147"/>
+      <c r="A101" s="78"/>
       <c r="B101" s="18" t="s">
         <v>64</v>
       </c>
@@ -6888,7 +6897,7 @@
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A102" s="147"/>
+      <c r="A102" s="78"/>
       <c r="B102" s="18" t="s">
         <v>65</v>
       </c>
@@ -6937,7 +6946,7 @@
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A103" s="148"/>
+      <c r="A103" s="79"/>
       <c r="B103" s="30" t="s">
         <v>66</v>
       </c>
@@ -6957,24 +6966,24 @@
       <c r="G103" s="20">
         <v>-1.4</v>
       </c>
-      <c r="I103" s="145" t="s">
+      <c r="I103" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="J103" s="109" t="s">
+      <c r="J103" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="K103" s="109"/>
-      <c r="L103" s="109" t="s">
+      <c r="K103" s="74"/>
+      <c r="L103" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="M103" s="109"/>
-      <c r="N103" s="109" t="s">
+      <c r="M103" s="74"/>
+      <c r="N103" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="O103" s="109"/>
+      <c r="O103" s="74"/>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A104" s="146" t="s">
+      <c r="A104" s="77" t="s">
         <v>67</v>
       </c>
       <c r="B104" s="42"/>
@@ -6989,7 +6998,7 @@
       <c r="G104" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="I104" s="145"/>
+      <c r="I104" s="76"/>
       <c r="J104" s="39" t="s">
         <v>70</v>
       </c>
@@ -7010,7 +7019,7 @@
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A105" s="147"/>
+      <c r="A105" s="78"/>
       <c r="B105" s="63" t="s">
         <v>68</v>
       </c>
@@ -7061,7 +7070,7 @@
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A106" s="147"/>
+      <c r="A106" s="78"/>
       <c r="B106" s="29" t="s">
         <v>65</v>
       </c>
@@ -7111,7 +7120,7 @@
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A107" s="148"/>
+      <c r="A107" s="79"/>
       <c r="B107" s="31" t="s">
         <v>66</v>
       </c>
@@ -7179,21 +7188,21 @@
       <c r="G111"/>
     </row>
     <row r="112" spans="1:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="A112" s="92" t="s">
+      <c r="A112" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="B112" s="92"/>
-      <c r="C112" s="92"/>
-      <c r="D112" s="92"/>
-      <c r="E112" s="92"/>
+      <c r="B112" s="84"/>
+      <c r="C112" s="84"/>
+      <c r="D112" s="84"/>
+      <c r="E112" s="84"/>
       <c r="F112"/>
       <c r="G112"/>
-      <c r="I112" s="149" t="s">
+      <c r="I112" s="153" t="s">
         <v>83</v>
       </c>
-      <c r="J112" s="149"/>
-      <c r="K112" s="149"/>
-      <c r="L112" s="149"/>
+      <c r="J112" s="153"/>
+      <c r="K112" s="153"/>
+      <c r="L112" s="153"/>
       <c r="M112"/>
       <c r="N112"/>
       <c r="O112"/>
@@ -7205,19 +7214,19 @@
       </c>
     </row>
     <row r="113" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A113" s="94" t="s">
+      <c r="A113" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="B113" s="94"/>
-      <c r="C113" s="94"/>
-      <c r="D113" s="94"/>
-      <c r="E113" s="94"/>
+      <c r="B113" s="138"/>
+      <c r="C113" s="138"/>
+      <c r="D113" s="138"/>
+      <c r="E113" s="138"/>
       <c r="F113"/>
       <c r="G113"/>
-      <c r="I113" s="149"/>
-      <c r="J113" s="149"/>
-      <c r="K113" s="149"/>
-      <c r="L113" s="149"/>
+      <c r="I113" s="153"/>
+      <c r="J113" s="153"/>
+      <c r="K113" s="153"/>
+      <c r="L113" s="153"/>
       <c r="M113"/>
       <c r="N113"/>
       <c r="O113"/>
@@ -7231,18 +7240,18 @@
       </c>
     </row>
     <row r="114" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A114" s="93" t="s">
+      <c r="A114" s="80" t="s">
         <v>75</v>
       </c>
       <c r="B114" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C114" s="93" t="s">
+      <c r="C114" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="D114" s="93"/>
-      <c r="E114" s="93"/>
-      <c r="I114" s="93" t="s">
+      <c r="D114" s="80"/>
+      <c r="E114" s="80"/>
+      <c r="I114" s="80" t="s">
         <v>69</v>
       </c>
       <c r="J114" s="25" t="s">
@@ -7267,14 +7276,14 @@
       </c>
     </row>
     <row r="115" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115" s="93"/>
+      <c r="A115" s="80"/>
       <c r="B115" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C115" s="93"/>
-      <c r="D115" s="93"/>
-      <c r="E115" s="93"/>
-      <c r="I115" s="93"/>
+      <c r="C115" s="80"/>
+      <c r="D115" s="80"/>
+      <c r="E115" s="80"/>
+      <c r="I115" s="80"/>
       <c r="J115" s="72" t="str">
         <f>IF(ABS(R113)&gt;ABS(S113),R112,S112)</f>
         <v>-GCpi</v>
@@ -7300,10 +7309,10 @@
       </c>
     </row>
     <row r="116" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A116" s="126" t="s">
+      <c r="A116" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="B116" s="99">
+      <c r="B116" s="117">
         <v>12</v>
       </c>
       <c r="C116" s="24" t="s">
@@ -7343,8 +7352,8 @@
       </c>
     </row>
     <row r="117" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A117" s="126"/>
-      <c r="B117" s="100"/>
+      <c r="A117" s="105"/>
+      <c r="B117" s="118"/>
       <c r="C117" s="32">
         <v>0.8</v>
       </c>
@@ -7354,7 +7363,7 @@
       <c r="E117" s="32">
         <v>-1</v>
       </c>
-      <c r="I117" s="93" t="s">
+      <c r="I117" s="80" t="s">
         <v>67</v>
       </c>
       <c r="J117" s="25" t="s">
@@ -7379,10 +7388,10 @@
       </c>
     </row>
     <row r="118" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A118" s="126" t="s">
+      <c r="A118" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B118" s="99">
+      <c r="B118" s="117">
         <v>12</v>
       </c>
       <c r="C118" s="24" t="s">
@@ -7395,7 +7404,7 @@
         <v>114</v>
       </c>
       <c r="H118"/>
-      <c r="I118" s="93"/>
+      <c r="I118" s="80"/>
       <c r="J118" s="25" t="str">
         <f>IF(ABS(R116)&gt;ABS(S116),R112,S112)</f>
         <v>-GCpi</v>
@@ -7423,8 +7432,8 @@
       </c>
     </row>
     <row r="119" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A119" s="126"/>
-      <c r="B119" s="100"/>
+      <c r="A119" s="105"/>
+      <c r="B119" s="118"/>
       <c r="C119" s="32">
         <v>0.2</v>
       </c>
@@ -7762,6 +7771,86 @@
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="I112:L113"/>
+    <mergeCell ref="I114:I115"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="C114:E115"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="E98:G99"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="I97:O97"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A55:E55"/>
     <mergeCell ref="U99:W99"/>
     <mergeCell ref="R99:T99"/>
     <mergeCell ref="R98:W98"/>
@@ -7786,86 +7875,6 @@
     <mergeCell ref="I103:I104"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="A97:G97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="E98:G99"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="I97:O97"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="I112:L113"/>
-    <mergeCell ref="I114:I115"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="C114:E115"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="A96:F96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
